--- a/03 Products & Pricing/09 Futures/Futures.xlsx
+++ b/03 Products & Pricing/09 Futures/Futures.xlsx
@@ -1,16 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\09 Futures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A2A7C7-C648-42AF-B059-0DB0D4A0CD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19635" windowHeight="7440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Futures" sheetId="1" r:id="rId1"/>
-    <sheet name="Tickers" sheetId="2" r:id="rId2"/>
+    <sheet name="Futures Tickers" sheetId="2" r:id="rId1"/>
+    <sheet name="Compound Interest" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
@@ -437,6 +455,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,7 +543,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,11 +554,107 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29087</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="2266950"/>
+          <a:ext cx="3667637" cy="1629002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>124693</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="190500"/>
+          <a:ext cx="6220693" cy="1743318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -554,7 +668,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -610,7 +730,7 @@
                     <m:sSubPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSubPr>
@@ -655,7 +775,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -673,7 +793,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -708,7 +828,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -735,7 +855,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -750,7 +870,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -765,7 +885,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -838,7 +958,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -853,7 +973,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -868,7 +988,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -974,7 +1094,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -989,7 +1109,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1021,7 +1141,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -1054,7 +1174,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1365,7 +1485,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1421,7 +1547,7 @@
                     <m:sSubPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSubPr>
@@ -1465,7 +1591,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1482,7 +1608,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1500,7 +1626,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -1533,7 +1659,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1548,7 +1674,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -1563,7 +1689,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -1636,7 +1762,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1651,7 +1777,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -1666,7 +1792,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -1736,7 +1862,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1769,7 +1895,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -1961,87 +2087,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>29087</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="2266950"/>
-          <a:ext cx="3667637" cy="1629002"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>124693</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9768</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="190500"/>
-          <a:ext cx="6220693" cy="1743318"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2085,7 +2130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2118,9 +2163,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2153,6 +2215,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2328,354 +2407,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="5" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <f ca="1">2*RAND()*$D$2</f>
-        <v>5.6933979636380645</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E14" ca="1" si="0">(1+C5/360*D5/100)</f>
-        <v>1.0001581499434344</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" ref="D6:D14" ca="1" si="1">2*RAND()*$D$2</f>
-        <v>7.047577912578963</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0001957660531271</v>
-      </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.0047567166484193</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0001390210199068</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.5000022147784158</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0000972222837439</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.349500512787948</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0007791250427323</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1149097877754226</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0001698586052159</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.6710642152853428</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.000129751783758</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51240305495132032</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0000142334181932</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5308765791423049</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0002091910160873</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4321851250465176</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0004526820937538</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="3">
-        <f>SUM(C5:C15)</f>
-        <v>14</v>
-      </c>
-      <c r="D17" s="6">
-        <f ca="1">SUMPRODUCT(D5:D14,C5:C14)/C17</f>
-        <v>6.0300032398786891</v>
-      </c>
-      <c r="E17" s="6">
-        <f ca="1">(PRODUCT(E5:E15)-1)*(360/C17)*100</f>
-        <v>6.0357988222738967</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6">
-        <f ca="1">100-D17</f>
-        <v>93.969996760121305</v>
-      </c>
-      <c r="E23" s="6">
-        <f ca="1">100-E17</f>
-        <v>93.964201177726096</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="29" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="25" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="34">
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="35">
         <v>23</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
@@ -2685,13 +2480,13 @@
       <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2702,13 +2497,13 @@
         <f t="shared" ref="D9:D12" si="0">B9&amp;C9</f>
         <v>EDH3</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2719,13 +2514,13 @@
         <f t="shared" si="0"/>
         <v>EDM3</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2736,13 +2531,13 @@
         <f t="shared" si="0"/>
         <v>EDU3</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2753,67 +2548,67 @@
         <f t="shared" si="0"/>
         <v>EDZ3</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="29" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="34">
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="35">
         <v>3</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2839,4 +2634,288 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <f ca="1">2*RAND()*$D$2</f>
+        <v>8.3252073393724153</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E14" ca="1" si="0">(1+C5/360*D5/100)</f>
+        <v>1.0002312557594271</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D14" ca="1" si="1">2*RAND()*$D$2</f>
+        <v>0.28066823268662389</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0000077963397969</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.7901012941726098</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0002163917026159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.9830141876263507</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0002773059496564</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.7693685519338835</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0007307807126611</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.6939577381174225</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0002414988260588</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.3116370531066268</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0001753232514752</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.1034367176890729</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0002528732421581</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1397890813153619</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0001427719189255</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16712345439670484</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.000013926954533</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="3">
+        <f>SUM(C5:C15)</f>
+        <v>14</v>
+      </c>
+      <c r="D17" s="6">
+        <f ca="1">SUMPRODUCT(D5:D14,C5:C14)/C17</f>
+        <v>5.8883776902198752</v>
+      </c>
+      <c r="E17" s="6">
+        <f ca="1">(PRODUCT(E5:E15)-1)*(360/C17)*100</f>
+        <v>5.8939848959940839</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6">
+        <f ca="1">100-D17</f>
+        <v>94.111622309780131</v>
+      </c>
+      <c r="E23" s="6">
+        <f ca="1">100-E17</f>
+        <v>94.10601510400592</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/03 Products & Pricing/09 Futures/Futures.xlsx
+++ b/03 Products & Pricing/09 Futures/Futures.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\09 Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A2A7C7-C648-42AF-B059-0DB0D4A0CD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920BD15-47E9-4396-8D92-289DBF1F5300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Futures Tickers" sheetId="2" r:id="rId1"/>
-    <sheet name="Compound Interest" sheetId="1" r:id="rId2"/>
+    <sheet name="Futures Prices &amp; Margin" sheetId="3" r:id="rId1"/>
+    <sheet name="Futures Tickers" sheetId="2" r:id="rId2"/>
+    <sheet name="USD 3M SOFR Futures" sheetId="4" r:id="rId3"/>
+    <sheet name="Compound Interest" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="ContractSize">'Futures Prices &amp; Margin'!$C$4</definedName>
+    <definedName name="FuturesTable">'Futures Prices &amp; Margin'!$I$8:$Q$15</definedName>
+    <definedName name="FuturesTickers">'Futures Prices &amp; Margin'!$I$8:$I$15</definedName>
+    <definedName name="Ticker">'Futures Prices &amp; Margin'!$C$2</definedName>
+    <definedName name="TickValue">'Futures Prices &amp; Margin'!$C$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>r</t>
   </si>
@@ -209,16 +218,268 @@
   <si>
     <t>Eurodollar Futures SEP-2023</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Price (bps)</t>
+  </si>
+  <si>
+    <t>TickValue</t>
+  </si>
+  <si>
+    <t>ContractSize</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>SR1</t>
+  </si>
+  <si>
+    <t>SR3</t>
+  </si>
+  <si>
+    <t>Contract Size</t>
+  </si>
+  <si>
+    <t>USD 3M LIBOR Futures</t>
+  </si>
+  <si>
+    <t>USD 1M SOFR Futures</t>
+  </si>
+  <si>
+    <t>USD 3M SOFR Futures</t>
+  </si>
+  <si>
+    <t>GBP 3M LIBOR Futures</t>
+  </si>
+  <si>
+    <t>GBP 3M SONIA Futures</t>
+  </si>
+  <si>
+    <t>EUR 3M LIBOR Futures</t>
+  </si>
+  <si>
+    <t>EUR 1M ESTR Futures</t>
+  </si>
+  <si>
+    <t>JPY 3M TIBOR Futures</t>
+  </si>
+  <si>
+    <t>SO3</t>
+  </si>
+  <si>
+    <t>CCY</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>EON</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.cmegroup.com/markets/interest-rates/stirs/three-month-sofr.quotes.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>SOFR Settlement Calculation</t>
+  </si>
+  <si>
+    <t>https://www.cmegroup.com/education/files/sofr-futures-settlement-calculation-methodologies.pdf</t>
+  </si>
+  <si>
+    <t>Term Rate</t>
+  </si>
+  <si>
+    <t>Excellent Futures Guide</t>
+  </si>
+  <si>
+    <t>http://www.yieldcurve.com/Mktresearch/LearningCurve/InterestRateFutures.pdf</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Tick Value Calculation</t>
+  </si>
+  <si>
+    <t>Contract Period</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Futures Ticker</t>
+  </si>
+  <si>
+    <t>Start Price</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>e.g. Tick Value(ED) = 1,000,000 * 0.25 * 0.01%</t>
+  </si>
+  <si>
+    <r>
+      <t>Tick Value = Contract Size x Contract Period</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x 1 bps</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tick Value</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tick value per basis point (bps)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Contract period in years is computed using 30/360 daycount basis to give a regular constant contract periods</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +539,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +625,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -419,12 +740,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,6 +1087,157 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -550,6 +1246,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -655,6 +1356,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>77263</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB666CE9-D4D2-345A-74C9-023A741DAE81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="12269263" cy="5212532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2407,10 +3157,699 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF2E4AC-8323-409E-8AF9-D65640EDC1C6}">
+  <dimension ref="B2:T27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="44"/>
+    <col min="2" max="2" width="16.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="8.88671875" style="44"/>
+    <col min="14" max="14" width="15" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="44" customWidth="1"/>
+    <col min="16" max="17" width="12.77734375" style="44" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" style="44"/>
+    <col min="20" max="20" width="15" style="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="I2" s="78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="42" t="str">
+        <f>VLOOKUP(Ticker,FuturesTable,2,0)</f>
+        <v>USD 3M LIBOR Futures</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="45">
+        <f>VLOOKUP(Ticker,FuturesTable,6,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="I4" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="46">
+        <f>VLOOKUP(Ticker,FuturesTable,8,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="I5" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+    </row>
+    <row r="7" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" s="45"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="49">
+        <v>37062</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="45">
+        <v>9900</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" ref="E8:E21" si="0">D8-D9</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="51">
+        <f t="shared" ref="F8:F15" si="1">TickValue*E8</f>
+        <v>25</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="69">
+        <v>1000000</v>
+      </c>
+      <c r="O8" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="58">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8" s="45"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="49">
+        <v>37061</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0.9899</v>
+      </c>
+      <c r="D9" s="45">
+        <v>9899</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="45">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="79">
+        <v>5000000</v>
+      </c>
+      <c r="O9" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="61">
+        <v>41.67</v>
+      </c>
+      <c r="Q9" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="45"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="49">
+        <v>37060</v>
+      </c>
+      <c r="C10" s="50">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="D10" s="45">
+        <v>9897</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F10" s="45">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="85">
+        <v>1000000</v>
+      </c>
+      <c r="O10" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="87">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="45"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="49">
+        <v>37057</v>
+      </c>
+      <c r="C11" s="50">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="D11" s="45">
+        <v>9898</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="79">
+        <v>1000000</v>
+      </c>
+      <c r="O11" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="61">
+        <v>12.5</v>
+      </c>
+      <c r="Q11" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="45"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="49">
+        <v>37056</v>
+      </c>
+      <c r="C12" s="50">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="D12" s="45">
+        <v>9898</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F12" s="45">
+        <f t="shared" si="1"/>
+        <v>-125</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="79">
+        <v>1000000</v>
+      </c>
+      <c r="O12" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="61">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="45"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="49">
+        <v>37055</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="D13" s="45">
+        <v>9903</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F13" s="45">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="I13" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="92">
+        <v>1000000</v>
+      </c>
+      <c r="O13" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="93">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" s="45"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="49">
+        <v>37054</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0.98940000000000006</v>
+      </c>
+      <c r="D14" s="45">
+        <v>9905</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F14" s="45">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="85">
+        <v>1000000</v>
+      </c>
+      <c r="O14" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="87">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="45"/>
+    </row>
+    <row r="15" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="49">
+        <v>37053</v>
+      </c>
+      <c r="C15" s="50">
+        <v>0.98930000000000007</v>
+      </c>
+      <c r="D15" s="45">
+        <v>9906</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15" s="45">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="80">
+        <v>100000000</v>
+      </c>
+      <c r="O15" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="76">
+        <v>2500</v>
+      </c>
+      <c r="Q15" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B16" s="49">
+        <v>37050</v>
+      </c>
+      <c r="C16" s="50">
+        <v>0.98920000000000008</v>
+      </c>
+      <c r="D16" s="45">
+        <v>9903</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="45">
+        <f>TickValue*E16</f>
+        <v>75</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="49">
+        <v>37049</v>
+      </c>
+      <c r="C17" s="50">
+        <v>0.98910000000000009</v>
+      </c>
+      <c r="D17" s="45">
+        <v>9900</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="51">
+        <f>TickValue*E17</f>
+        <v>50</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="49">
+        <v>37048</v>
+      </c>
+      <c r="C18" s="50">
+        <f>C17-0.01%</f>
+        <v>0.9890000000000001</v>
+      </c>
+      <c r="D18" s="45">
+        <v>9898</v>
+      </c>
+      <c r="E18" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="53">
+        <f>TickValue*E18</f>
+        <v>25</v>
+      </c>
+      <c r="I18" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="49">
+        <v>37047</v>
+      </c>
+      <c r="C19" s="50">
+        <f t="shared" ref="C19:C22" si="2">C18-0.01%</f>
+        <v>0.98890000000000011</v>
+      </c>
+      <c r="D19" s="45">
+        <v>9897</v>
+      </c>
+      <c r="E19" s="53">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F19" s="53">
+        <f>TickValue*E19</f>
+        <v>-125</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="49">
+        <v>37046</v>
+      </c>
+      <c r="C20" s="50">
+        <f t="shared" si="2"/>
+        <v>0.98880000000000012</v>
+      </c>
+      <c r="D20" s="45">
+        <v>9902</v>
+      </c>
+      <c r="E20" s="53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="53">
+        <f>TickValue*E20</f>
+        <v>50</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="49">
+        <v>37043</v>
+      </c>
+      <c r="C21" s="50">
+        <f t="shared" si="2"/>
+        <v>0.98870000000000013</v>
+      </c>
+      <c r="D21" s="45">
+        <v>9900</v>
+      </c>
+      <c r="E21" s="53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F21" s="53">
+        <f>TickValue*E21</f>
+        <v>200</v>
+      </c>
+      <c r="I21" s="78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="49">
+        <v>37042</v>
+      </c>
+      <c r="C22" s="50">
+        <f t="shared" si="2"/>
+        <v>0.98860000000000015</v>
+      </c>
+      <c r="D22" s="45">
+        <v>9892</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="I22" s="77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="45">
+        <f>D8</f>
+        <v>9900</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="45">
+        <f>D22</f>
+        <v>9892</v>
+      </c>
+      <c r="F25" s="53">
+        <f>SUM(F8:F22)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="94">
+        <f>TickValue*(D24-D25)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{B30E80EA-93C9-4138-A8B9-1072B03E19AE}">
+      <formula1>FuturesTickers</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2636,7 +4075,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09AD1A9-5428-4C82-A9BD-6D4983407C24}">
+  <dimension ref="B32:B33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G24"/>
   <sheetViews>
@@ -2681,11 +4142,11 @@
       </c>
       <c r="D5" s="4">
         <f ca="1">2*RAND()*$D$2</f>
-        <v>8.3252073393724153</v>
+        <v>8.5229742365406302</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E14" ca="1" si="0">(1+C5/360*D5/100)</f>
-        <v>1.0002312557594271</v>
+        <v>1.0002367492843482</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -2700,11 +4161,11 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ref="D6:D14" ca="1" si="1">2*RAND()*$D$2</f>
-        <v>0.28066823268662389</v>
+        <v>9.791294373250448</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000077963397969</v>
+        <v>1.000271980399257</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -2717,11 +4178,11 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7901012941726098</v>
+        <v>1.2298939003290676</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002163917026159</v>
+        <v>1.0000341637194536</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -2733,11 +4194,11 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9830141876263507</v>
+        <v>9.477645887298177</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002773059496564</v>
+        <v>1.0002632679413139</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -2749,11 +4210,11 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7693685519338835</v>
+        <v>7.6151668234907168</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0007307807126611</v>
+        <v>1.0006345972352908</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -2765,11 +4226,11 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6939577381174225</v>
+        <v>2.6865967073791808</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002414988260588</v>
+        <v>1.0000746276863162</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -2781,11 +4242,11 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3116370531066268</v>
+        <v>8.8690840420059676</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001753232514752</v>
+        <v>1.0002463634456114</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -2797,11 +4258,11 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1034367176890729</v>
+        <v>4.8994942378727222</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002528732421581</v>
+        <v>1.0001360970621631</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -2813,11 +4274,11 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1397890813153619</v>
+        <v>4.7844768748995739</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001427719189255</v>
+        <v>1.0001329021354139</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -2829,11 +4290,11 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16712345439670484</v>
+        <v>9.820172786116526</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.000013926954533</v>
+        <v>1.0008183477321764</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2854,11 +4315,11 @@
       </c>
       <c r="D17" s="6">
         <f ca="1">SUMPRODUCT(D5:D14,C5:C14)/C17</f>
-        <v>5.8883776902198752</v>
+        <v>7.3262485063141058</v>
       </c>
       <c r="E17" s="6">
         <f ca="1">(PRODUCT(E5:E15)-1)*(360/C17)*100</f>
-        <v>5.8939848959940839</v>
+        <v>7.3349224113403082</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2901,11 +4362,11 @@
       </c>
       <c r="D23" s="6">
         <f ca="1">100-D17</f>
-        <v>94.111622309780131</v>
+        <v>92.673751493685899</v>
       </c>
       <c r="E23" s="6">
         <f ca="1">100-E17</f>
-        <v>94.10601510400592</v>
+        <v>92.665077588659699</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>

--- a/03 Products & Pricing/09 Futures/Futures.xlsx
+++ b/03 Products & Pricing/09 Futures/Futures.xlsx
@@ -8,22 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\09 Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920BD15-47E9-4396-8D92-289DBF1F5300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405895C1-3AF5-419C-B9CF-996C6A964C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Futures Prices &amp; Margin" sheetId="3" r:id="rId1"/>
-    <sheet name="Futures Tickers" sheetId="2" r:id="rId2"/>
-    <sheet name="USD 3M SOFR Futures" sheetId="4" r:id="rId3"/>
-    <sheet name="Compound Interest" sheetId="1" r:id="rId4"/>
+    <sheet name="Contracts &amp; Margin" sheetId="3" r:id="rId1"/>
+    <sheet name="Trading" sheetId="5" r:id="rId2"/>
+    <sheet name="Tickers" sheetId="2" r:id="rId3"/>
+    <sheet name="Payoff" sheetId="7" r:id="rId4"/>
+    <sheet name="USD 3M SOFR Futures" sheetId="4" r:id="rId5"/>
+    <sheet name="Compound Interest" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ContractSize">'Futures Prices &amp; Margin'!$C$4</definedName>
-    <definedName name="FuturesTable">'Futures Prices &amp; Margin'!$I$8:$Q$15</definedName>
-    <definedName name="FuturesTickers">'Futures Prices &amp; Margin'!$I$8:$I$15</definedName>
-    <definedName name="Ticker">'Futures Prices &amp; Margin'!$C$2</definedName>
-    <definedName name="TickValue">'Futures Prices &amp; Margin'!$C$5</definedName>
+    <definedName name="Contract_Size">Payoff!$C$5</definedName>
+    <definedName name="Futures_Price">Payoff!$C$6</definedName>
+    <definedName name="FuturesTable">'Contracts &amp; Margin'!$H$9:$Q$16</definedName>
+    <definedName name="FuturesTickers">'Contracts &amp; Margin'!$H$9:$H$16</definedName>
+    <definedName name="InitialMargin">Trading!$C$6</definedName>
+    <definedName name="Notional">Payoff!$C$5</definedName>
+    <definedName name="Tick_Size">Payoff!$C$8</definedName>
+    <definedName name="Tick_Value">Payoff!$C$9</definedName>
+    <definedName name="Ticker">'Contracts &amp; Margin'!$C$2</definedName>
+    <definedName name="TickValue">'Contracts &amp; Margin'!$C$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,10 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
-  <si>
-    <t>r</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="152">
   <si>
     <t>Weekday</t>
   </si>
@@ -189,9 +193,6 @@
     <t>Ticker</t>
   </si>
   <si>
-    <t>Eurodollar Futures DEC-2023</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -210,24 +211,15 @@
     <t>Z3</t>
   </si>
   <si>
-    <t>Eurodollar Futures MAR-2023</t>
-  </si>
-  <si>
-    <t>Eurodollar Futures JUN-2023</t>
-  </si>
-  <si>
-    <t>Eurodollar Futures SEP-2023</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Margin</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Price (bps)</t>
   </si>
   <si>
@@ -244,6 +236,9 @@
   </si>
   <si>
     <t>SR3</t>
+  </si>
+  <si>
+    <t>Tick Value</t>
   </si>
   <si>
     <t>Contract Size</t>
@@ -343,7 +338,20 @@
     <t>Term Rate</t>
   </si>
   <si>
-    <t>Excellent Futures Guide</t>
+    <r>
+      <t>Tick Value</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <t>http://www.yieldcurve.com/Mktresearch/LearningCurve/InterestRateFutures.pdf</t>
@@ -379,12 +387,223 @@
     <t>Current Price</t>
   </si>
   <si>
-    <t>e.g. Tick Value(ED) = 1,000,000 * 0.25 * 0.01%</t>
+    <t>https://www.barchart.com/futures/quotes/SQ*0/futures-prices</t>
+  </si>
+  <si>
+    <t>Excellent Futures Training Guide</t>
+  </si>
+  <si>
+    <t>Futures Charting</t>
+  </si>
+  <si>
+    <t>Futures Contract Specifications</t>
+  </si>
+  <si>
+    <t>https://www.barchart.com/futures/contract-specifications/financials</t>
+  </si>
+  <si>
+    <t>Useful Links</t>
   </si>
   <si>
     <r>
       <t>Tick Value = Contract Size x Contract Period</t>
     </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x 1 bps</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Contract period in years is computed using 30/360 daycount basis to give a regular constant contract periods e.g. 3M = (90/360) = 0.25</t>
+    </r>
+  </si>
+  <si>
+    <t>e.g. Tick Value(ED) = USD 1,000,000 * 0.25 * 0.01% = USD 25.00</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>Initial Margin</t>
+  </si>
+  <si>
+    <t>Profit / Loss</t>
+  </si>
+  <si>
+    <t>Margin Account</t>
+  </si>
+  <si>
+    <t>Initial Margin: 10 x 2,500
+= (25,000) Pay</t>
+  </si>
+  <si>
+    <t>0 Futures</t>
+  </si>
+  <si>
+    <t>Margin Account Balance</t>
+  </si>
+  <si>
+    <t>Net Position</t>
+  </si>
+  <si>
+    <t>Net P&amp;L</t>
+  </si>
+  <si>
+    <t>Net Cash Flows</t>
+  </si>
+  <si>
+    <t>Margin Balance</t>
+  </si>
+  <si>
+    <t>Futures Profit / Loss Formula</t>
+  </si>
+  <si>
+    <t>Buy 10 Futures @ 9910</t>
+  </si>
+  <si>
+    <t>Settlement Price @ 9942</t>
+  </si>
+  <si>
+    <t>Settlement Price @ 9932</t>
+  </si>
+  <si>
+    <t>Sell 6 Futures @ 9927</t>
+  </si>
+  <si>
+    <t>Settlement Price @ 9925</t>
+  </si>
+  <si>
+    <t>Sell 4 Futures @ 9938</t>
+  </si>
+  <si>
+    <t>P&amp;L, Cash Flow and Margin Calculations</t>
+  </si>
+  <si>
+    <t>per bps</t>
+  </si>
+  <si>
+    <t>Open Position
+Pay Initial Margin</t>
+  </si>
+  <si>
+    <t>Profit
+Receive Margin</t>
+  </si>
+  <si>
+    <t>Loss
+Margin Call</t>
+  </si>
+  <si>
+    <t>Partial Close Position
+Receive Initial Margin</t>
+  </si>
+  <si>
+    <t>Fully Close Position
+Receive Margin Balance</t>
+  </si>
+  <si>
+    <t>Cash Flow Description</t>
+  </si>
+  <si>
+    <t>per contract</t>
+  </si>
+  <si>
+    <t>Futures Daily Variation Margin</t>
+  </si>
+  <si>
+    <t>( 9942 - 9910 ) x 25 x 10
+= 8,000 Profit</t>
+  </si>
+  <si>
+    <t>( 9932 - 9942 ) x 25 x 10
+= (2,500) Loss</t>
+  </si>
+  <si>
+    <t>( 9927 - 9932 ) x 25 x 6
+= (750) Loss</t>
+  </si>
+  <si>
+    <t>( 9925 - 9932 ) x 25 x 4
+= (700) Loss</t>
+  </si>
+  <si>
+    <t>( 9938 - 9925 ) x 25 x 4
+= 1,300 Profit</t>
+  </si>
+  <si>
+    <t>Variation Margin:
+8,000 Receive</t>
+  </si>
+  <si>
+    <t>Variation Margin:
+(2,500) Pay</t>
+  </si>
+  <si>
+    <t>Variation Margin:
+= -750 - 700
+= (1,450) Pay</t>
+  </si>
+  <si>
+    <t>Initial Margin: 6 x 2,500
+= 15,000 Receive</t>
+  </si>
+  <si>
+    <t>Closing of Position
+Return of Margin Balance
+11,300 Receive</t>
+  </si>
+  <si>
+    <t>Day One</t>
+  </si>
+  <si>
+    <t>Day Two</t>
+  </si>
+  <si>
+    <t>Day Three</t>
+  </si>
+  <si>
+    <t>Day Four</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
@@ -404,82 +623,81 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> x 1 bps</t>
+      <t xml:space="preserve"> The tick value per basis point (bps), also known as the basis point value (BPV)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Tick Value</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tick value per basis point (bps)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Contract period in years is computed using 30/360 daycount basis to give a regular constant contract periods</t>
-    </r>
+    <t>rate, r</t>
+  </si>
+  <si>
+    <t>Payoff Diagrams</t>
+  </si>
+  <si>
+    <t>Long Future</t>
+  </si>
+  <si>
+    <t>Short Future</t>
+  </si>
+  <si>
+    <t>Futures Price</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Tick Size</t>
+  </si>
+  <si>
+    <t>Futures Contract</t>
+  </si>
+  <si>
+    <t>USD SOFR 3M (SR3)</t>
+  </si>
+  <si>
+    <t>USD Eurodollar and RFR Futures Specifications</t>
+  </si>
+  <si>
+    <t>USD SOFR Term Rates - Geometric Compounding &amp; Arithmetic Averaging</t>
+  </si>
+  <si>
+    <t>RFR USD 3M SOFR Futures MAR-2023</t>
+  </si>
+  <si>
+    <t>RFR USD 3M SOFR Futures JUN-2023</t>
+  </si>
+  <si>
+    <t>RFR USD 3M SOFR Futures SEP-2023</t>
+  </si>
+  <si>
+    <t>RFR USD 3M SOFR Futures DEC-2023</t>
+  </si>
+  <si>
+    <t>Eurodollar USD 3M LIBOR Futures MAR-2023</t>
+  </si>
+  <si>
+    <t>Eurodollar USD 3M LIBOR Futures JUN-2023</t>
+  </si>
+  <si>
+    <t>Eurodollar USD 3M LIBOR Futures SEP-2023</t>
+  </si>
+  <si>
+    <t>Eurodollar USD 3M LIBOR Futures DEC-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yy"/>
+    <numFmt numFmtId="167" formatCode="_+#,##0\ &quot;CR&quot;;_-#,##0\ &quot;DR&quot;;\ 0"/>
+    <numFmt numFmtId="168" formatCode="_+##,##0;_-\(#,##0\);0"/>
+    <numFmt numFmtId="169" formatCode="_+#,##0;_-\(#,##0\)"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +758,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -556,6 +781,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -593,8 +825,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +873,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -649,15 +907,6 @@
       <bottom style="double">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -964,12 +1213,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -996,33 +1260,345 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,212 +1607,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,6 +1658,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FF006600"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -1262,7 +1675,2463 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Long Future</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-GB" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+              <a:t>Deposit / Receive Fixed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37057633420822395"/>
+          <c:y val="7.4346405228758169E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17737292213473316"/>
+          <c:y val="8.8379629629629641E-2"/>
+          <c:w val="0.76098118985126861"/>
+          <c:h val="0.79030074365704284"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Payoff!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Long Future</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Payoff!$C$12:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.4499999999999744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4599999999999795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4699999999999847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4799999999999898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5200000000000102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5300000000000153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5400000000000205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5500000000000256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Payoff!$D$12:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>125.00000000006395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.00000000005116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.000000000038369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.00000000002558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.00000000001279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-25.00000000001279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-50.00000000002558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-75.000000000038369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-100.00000000005116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-125.00000000006395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2659-4594-A906-8C27EE5CEDA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2050388127"/>
+        <c:axId val="2050401023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2050388127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Interest</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Rate (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41598140857392829"/>
+              <c:y val="0.82775444736074655"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050401023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2050401023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050388127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Short Future</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+              <a:t>Loan / Pay Fixed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39964566929133855"/>
+          <c:y val="8.4967320261437912E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17459514435695539"/>
+          <c:y val="8.8379629629629641E-2"/>
+          <c:w val="0.75464785651793531"/>
+          <c:h val="0.79030074365704284"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Payoff!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Short Future</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Payoff!$C$12:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.4499999999999744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4599999999999795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4699999999999847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4799999999999898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5200000000000102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5300000000000153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5400000000000205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5500000000000256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Payoff!$E$12:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-125.00000000006395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100.00000000005116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-75.000000000038369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-50.00000000002558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-25.00000000001279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.00000000001279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.00000000002558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.000000000038369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.00000000005116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125.00000000006395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-701E-4B4B-BE28-5737B3E797EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2050388127"/>
+        <c:axId val="2050401023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2050388127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Interest Rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41837029746281718"/>
+              <c:y val="0.79997666958296876"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050401023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2050401023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050388127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42916</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>195103</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4248817" cy="246857"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0688E64E-D5BB-D79A-A3AC-37845753F386}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10086076" y="393223"/>
+              <a:ext cx="4248817" cy="246857"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&amp;</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐿</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶𝑢𝑟𝑟𝑒𝑛𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑟𝑖𝑐𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑟𝑒𝑣𝑖𝑜𝑢𝑠</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑟𝑖𝑐𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑇𝑖𝑐𝑘</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉𝑎𝑙𝑢𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑄𝑢𝑎𝑛𝑡𝑖𝑡𝑦</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100" b="0">
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0688E64E-D5BB-D79A-A3AC-37845753F386}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10086076" y="393223"/>
+              <a:ext cx="4248817" cy="246857"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃&amp;𝐿=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝐶𝑢𝑟𝑟𝑒𝑛𝑡 𝑃𝑟𝑖𝑐𝑒 −𝑃𝑟𝑒𝑣𝑖𝑜𝑢𝑠 𝑃𝑟𝑖𝑐𝑒)  𝑥 𝑇𝑖𝑐𝑘 𝑉𝑎𝑙𝑢𝑒 𝑥 𝑄𝑢𝑎𝑛𝑡𝑖𝑡𝑦</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100" b="0">
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1319,7 +4188,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>124693</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9768</xdr:rowOff>
+      <xdr:rowOff>25008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1355,7 +4224,88 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FFABE63-248C-4ABA-A612-6F4678FF8E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43772D50-4C74-4F4A-90EE-35677E6CB23C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1404,7 +4354,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3158,916 +6108,1504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF2E4AC-8323-409E-8AF9-D65640EDC1C6}">
-  <dimension ref="B2:T27"/>
+  <dimension ref="B2:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="44"/>
-    <col min="2" max="2" width="16.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="8.88671875" style="44"/>
-    <col min="14" max="14" width="15" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="44" customWidth="1"/>
-    <col min="16" max="17" width="12.77734375" style="44" customWidth="1"/>
-    <col min="18" max="19" width="8.88671875" style="44"/>
-    <col min="20" max="20" width="15" style="44" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="44"/>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="2" max="2" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="8.88671875" style="14"/>
+    <col min="13" max="13" width="13.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="14" customWidth="1"/>
+    <col min="16" max="18" width="12.77734375" style="14" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" style="14"/>
+    <col min="21" max="21" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="I2" s="78" t="s">
-        <v>76</v>
+      <c r="B2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="I2" s="40" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="42" t="str">
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="str">
         <f>VLOOKUP(Ticker,FuturesTable,2,0)</f>
-        <v>USD 3M LIBOR Futures</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>85</v>
+        <v>USD 3M SOFR Futures</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="45">
+      <c r="B4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15">
         <f>VLOOKUP(Ticker,FuturesTable,6,0)</f>
         <v>1000000</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="I4" s="44" t="s">
-        <v>84</v>
+      <c r="D4" s="13"/>
+      <c r="I4" s="38" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="46">
+      <c r="B5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="16">
         <f>VLOOKUP(Ticker,FuturesTable,8,0)</f>
         <v>25</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="I5" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-    </row>
-    <row r="7" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="48" t="s">
+      <c r="D5" s="13"/>
+      <c r="I5" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="I7" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="52" t="s">
+      <c r="E8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="15"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
+        <v>44732</v>
+      </c>
+      <c r="C9" s="15">
+        <v>9900</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" ref="D9:D22" si="0">C9-C10</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" ref="E9:E16" si="1">TickValue*D9</f>
+        <v>25</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="T7" s="45"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="49">
-        <v>37062</v>
-      </c>
-      <c r="C8" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="D8" s="45">
-        <v>9900</v>
-      </c>
-      <c r="E8" s="45">
-        <f t="shared" ref="E8:E21" si="0">D8-D9</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="51">
-        <f t="shared" ref="F8:F15" si="1">TickValue*E8</f>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="32">
+        <v>1000000</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="26">
         <v>25</v>
       </c>
-      <c r="I8" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="69">
-        <v>1000000</v>
-      </c>
-      <c r="O8" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="58">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="T8" s="45"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="49">
-        <v>37061</v>
-      </c>
-      <c r="C9" s="50">
-        <v>0.9899</v>
-      </c>
-      <c r="D9" s="45">
+      <c r="P9" s="26">
+        <v>2500</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="15"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
+        <v>44729</v>
+      </c>
+      <c r="C10" s="15">
         <v>9899</v>
       </c>
-      <c r="E9" s="45">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F9" s="45">
+      <c r="E10" s="15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="H10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="79">
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="41">
         <v>5000000</v>
       </c>
-      <c r="O9" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="61">
+      <c r="N10" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="28">
         <v>41.67</v>
       </c>
-      <c r="Q9" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="45"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="49">
-        <v>37060</v>
-      </c>
-      <c r="C10" s="50">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="D10" s="45">
+      <c r="P10" s="28">
+        <v>2500</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="15"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
+        <v>44728</v>
+      </c>
+      <c r="C11" s="15">
         <v>9897</v>
       </c>
-      <c r="E10" s="45">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F10" s="45">
+      <c r="E11" s="15">
         <f t="shared" si="1"/>
         <v>-25</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="H11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="85">
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="45">
         <v>1000000</v>
       </c>
-      <c r="O10" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="87">
+      <c r="N11" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="47">
         <v>25</v>
       </c>
-      <c r="Q10" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="45"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="49">
-        <v>37057</v>
-      </c>
-      <c r="C11" s="50">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="D11" s="45">
+      <c r="P11" s="47">
+        <v>2500</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="15"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
+        <v>44727</v>
+      </c>
+      <c r="C12" s="15">
         <v>9898</v>
       </c>
-      <c r="E11" s="45">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="45">
+      <c r="E12" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="75" t="s">
+      <c r="H12" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="79">
+      <c r="I12" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="41">
         <v>1000000</v>
       </c>
-      <c r="O11" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="61">
+      <c r="N12" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="28">
         <v>12.5</v>
       </c>
-      <c r="Q11" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="T11" s="45"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="49">
-        <v>37056</v>
-      </c>
-      <c r="C12" s="50">
-        <v>0.98960000000000004</v>
-      </c>
-      <c r="D12" s="45">
+      <c r="P12" s="28">
+        <v>2500</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="15"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
+        <v>44726</v>
+      </c>
+      <c r="C13" s="15">
         <v>9898</v>
       </c>
-      <c r="E12" s="45">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="F12" s="45">
+      <c r="E13" s="15">
         <f t="shared" si="1"/>
         <v>-125</v>
       </c>
-      <c r="I12" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="66" t="s">
+      <c r="H13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="79">
+      <c r="I13" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="41">
         <v>1000000</v>
       </c>
-      <c r="O12" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="61">
+      <c r="N13" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="28">
         <v>25</v>
       </c>
-      <c r="Q12" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" s="45"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="49">
-        <v>37055</v>
-      </c>
-      <c r="C13" s="50">
-        <v>0.98950000000000005</v>
-      </c>
-      <c r="D13" s="45">
+      <c r="P13" s="28">
+        <v>2500</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="15"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="19">
+        <v>44725</v>
+      </c>
+      <c r="C14" s="15">
         <v>9903</v>
       </c>
-      <c r="E13" s="45">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="F13" s="45">
+      <c r="E14" s="15">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="I13" s="88" t="s">
+      <c r="H14" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="50">
+        <v>1000000</v>
+      </c>
+      <c r="N14" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="92">
-        <v>1000000</v>
-      </c>
-      <c r="O13" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="93">
+      <c r="O14" s="51">
         <v>25</v>
       </c>
-      <c r="Q13" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="T13" s="45"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="49">
-        <v>37054</v>
-      </c>
-      <c r="C14" s="50">
-        <v>0.98940000000000006</v>
-      </c>
-      <c r="D14" s="45">
+      <c r="P14" s="51">
+        <v>2500</v>
+      </c>
+      <c r="Q14" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="15"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="19">
+        <v>44722</v>
+      </c>
+      <c r="C15" s="15">
         <v>9905</v>
       </c>
-      <c r="E14" s="45">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F14" s="45">
+      <c r="E15" s="15">
         <f t="shared" si="1"/>
         <v>-25</v>
       </c>
-      <c r="I14" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14" s="85">
+      <c r="H15" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="45">
         <v>1000000</v>
       </c>
-      <c r="O14" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="87">
+      <c r="N15" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="47">
         <v>25</v>
       </c>
-      <c r="Q14" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="45"/>
-    </row>
-    <row r="15" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="49">
-        <v>37053</v>
-      </c>
-      <c r="C15" s="50">
-        <v>0.98930000000000007</v>
-      </c>
-      <c r="D15" s="45">
+      <c r="P15" s="47">
+        <v>2500</v>
+      </c>
+      <c r="Q15" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="15"/>
+    </row>
+    <row r="16" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19">
+        <v>44721</v>
+      </c>
+      <c r="C16" s="15">
         <v>9906</v>
       </c>
-      <c r="E15" s="45">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F15" s="45">
+      <c r="E16" s="15">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="I15" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="76" t="s">
+      <c r="H16" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="42">
+        <v>100000000</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="37">
+        <v>2500</v>
+      </c>
+      <c r="P16" s="37">
+        <v>250000</v>
+      </c>
+      <c r="Q16" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="80">
-        <v>100000000</v>
-      </c>
-      <c r="O15" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="P15" s="76">
-        <v>2500</v>
-      </c>
-      <c r="Q15" s="76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B16" s="49">
-        <v>37050</v>
-      </c>
-      <c r="C16" s="50">
-        <v>0.98920000000000008</v>
-      </c>
-      <c r="D16" s="45">
+    </row>
+    <row r="17" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17" s="19">
+        <v>44720</v>
+      </c>
+      <c r="C17" s="15">
         <v>9903</v>
       </c>
-      <c r="E16" s="45">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F16" s="45">
-        <f>TickValue*E16</f>
+      <c r="E17" s="15">
+        <f t="shared" ref="E17:E22" si="2">TickValue*D17</f>
         <v>75</v>
       </c>
-      <c r="I16" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="49">
-        <v>37049</v>
-      </c>
-      <c r="C17" s="50">
-        <v>0.98910000000000009</v>
-      </c>
-      <c r="D17" s="45">
+      <c r="H17" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="19">
+        <v>44719</v>
+      </c>
+      <c r="C18" s="15">
         <v>9900</v>
       </c>
-      <c r="E17" s="51">
+      <c r="D18" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F17" s="51">
-        <f>TickValue*E17</f>
+      <c r="E18" s="20">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="49">
-        <v>37048</v>
-      </c>
-      <c r="C18" s="50">
-        <f>C17-0.01%</f>
-        <v>0.9890000000000001</v>
-      </c>
-      <c r="D18" s="45">
+      <c r="H18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="19">
+        <v>44718</v>
+      </c>
+      <c r="C19" s="15">
         <v>9898</v>
       </c>
-      <c r="E18" s="53">
+      <c r="D19" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F18" s="53">
-        <f>TickValue*E18</f>
+      <c r="E19" s="22">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I18" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="49">
-        <v>37047</v>
-      </c>
-      <c r="C19" s="50">
-        <f t="shared" ref="C19:C22" si="2">C18-0.01%</f>
-        <v>0.98890000000000011</v>
-      </c>
-      <c r="D19" s="45">
+      <c r="H19" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="19">
+        <v>44715</v>
+      </c>
+      <c r="C20" s="15">
         <v>9897</v>
       </c>
-      <c r="E19" s="53">
+      <c r="D20" s="22">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="F19" s="53">
-        <f>TickValue*E19</f>
+      <c r="E20" s="22">
+        <f t="shared" si="2"/>
         <v>-125</v>
       </c>
-      <c r="I19" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="49">
-        <v>37046</v>
-      </c>
-      <c r="C20" s="50">
-        <f t="shared" si="2"/>
-        <v>0.98880000000000012</v>
-      </c>
-      <c r="D20" s="45">
+      <c r="H20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="19">
+        <v>44714</v>
+      </c>
+      <c r="C21" s="15">
         <v>9902</v>
       </c>
-      <c r="E20" s="53">
+      <c r="D21" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F20" s="53">
-        <f>TickValue*E20</f>
+      <c r="E21" s="22">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="49">
-        <v>37043</v>
-      </c>
-      <c r="C21" s="50">
-        <f t="shared" si="2"/>
-        <v>0.98870000000000013</v>
-      </c>
-      <c r="D21" s="45">
+      <c r="H21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="19">
+        <v>44713</v>
+      </c>
+      <c r="C22" s="15">
         <v>9900</v>
       </c>
-      <c r="E21" s="53">
+      <c r="D22" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F21" s="53">
-        <f>TickValue*E21</f>
+      <c r="E22" s="22">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="I21" s="78" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="49">
-        <v>37042</v>
-      </c>
-      <c r="C22" s="50">
-        <f t="shared" si="2"/>
-        <v>0.98860000000000015</v>
-      </c>
-      <c r="D22" s="45">
+      <c r="H22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="19">
+        <v>44712</v>
+      </c>
+      <c r="C23" s="15">
         <v>9892</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="I22" s="77" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="53"/>
+      <c r="D23" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C24" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="45">
-        <f>D8</f>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="15">
+        <f>C9</f>
         <v>9900</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C25" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="45">
-        <f>D22</f>
+      <c r="D25" s="22"/>
+      <c r="E25" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="15">
+        <f>C23</f>
         <v>9892</v>
       </c>
-      <c r="F25" s="53">
-        <f>SUM(F8:F22)</f>
+      <c r="E26" s="22">
+        <f>SUM(E9:E23)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="94">
-        <f>TickValue*(D24-D25)</f>
+    <row r="27" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="52">
+        <f>TickValue*(C25-C26)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{B30E80EA-93C9-4138-A8B9-1072B03E19AE}">
       <formula1>FuturesTickers</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="L22" r:id="rId1" xr:uid="{A75CBE5C-02F7-4E36-AEF5-7EFF0161B655}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F928EE0-2C06-42A1-88EA-2E999F52B5E1}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="2" max="2" width="15.77734375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="14" customWidth="1"/>
+    <col min="9" max="10" width="18.77734375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I1" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="61" t="str">
+        <f>VLOOKUP($C$2,FuturesTable,2,0)</f>
+        <v>USD 3M SOFR Futures</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="62">
+        <f>VLOOKUP($C$2,FuturesTable,6,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="63">
+        <f>VLOOKUP($C$2,FuturesTable,8,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="62">
+        <f>VLOOKUP($C$2,FuturesTable,9,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="71">
+        <v>25000</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80">
+        <f>-10*2500</f>
+        <v>-25000</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="82">
+        <f>-J9</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71">
+        <f>F9+I10</f>
+        <v>33000</v>
+      </c>
+      <c r="H10" s="69"/>
+      <c r="I10" s="83">
+        <f>(9942-9910)*25*10</f>
+        <v>8000</v>
+      </c>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="84">
+        <f t="shared" ref="L10:L19" si="0">L9+I10-J10</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="75">
+        <f>F10-J11</f>
+        <v>25000</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85">
+        <f>I10</f>
+        <v>8000</v>
+      </c>
+      <c r="K11" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="87">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71">
+        <f>F11+I12</f>
+        <v>22500</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="80">
+        <f>(9932-9942)*25*10</f>
+        <v>-2500</v>
+      </c>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="82">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="75">
+        <f>F12-J13</f>
+        <v>25000</v>
+      </c>
+      <c r="H13" s="73"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85">
+        <f>I12</f>
+        <v>-2500</v>
+      </c>
+      <c r="K13" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="87">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71">
+        <f>F13+I14</f>
+        <v>24250</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="80">
+        <f>(9927-9932)*25*6</f>
+        <v>-750</v>
+      </c>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="82">
+        <f t="shared" si="0"/>
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="69"/>
+      <c r="C15" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71">
+        <f>F14+I15</f>
+        <v>23550</v>
+      </c>
+      <c r="H15" s="69"/>
+      <c r="I15" s="83">
+        <f>(9925-9932)*25*4</f>
+        <v>-700</v>
+      </c>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="84">
+        <f t="shared" si="0"/>
+        <v>23550</v>
+      </c>
+      <c r="M15" s="92"/>
+    </row>
+    <row r="16" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="71">
+        <f>F15-J16</f>
+        <v>25000</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83">
+        <f>I14+I15</f>
+        <v>-1450</v>
+      </c>
+      <c r="K16" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="84">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="75">
+        <f>F16-J17</f>
+        <v>10000</v>
+      </c>
+      <c r="H17" s="73"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85">
+        <v>15000</v>
+      </c>
+      <c r="K17" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="87">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="93"/>
+      <c r="F18" s="95">
+        <f>F17+I18</f>
+        <v>11300</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="80">
+        <f>(9938-9925)*25*4</f>
+        <v>1300</v>
+      </c>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="82">
+        <f t="shared" si="0"/>
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="75">
+        <v>0</v>
+      </c>
+      <c r="H19" s="96"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85">
+        <v>11300</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="77"/>
+      <c r="C23" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="79">
+        <f>8000-2500-750-700+1300</f>
+        <v>5350</v>
+      </c>
+      <c r="E23" s="79">
+        <f>-25000+8000-2500-1450+15000+11300</f>
+        <v>5350</v>
+      </c>
+      <c r="F23" s="75">
+        <v>0</v>
+      </c>
+      <c r="H23" s="77"/>
+      <c r="I23" s="85">
+        <f>SUM(I9:I19)</f>
+        <v>5350</v>
+      </c>
+      <c r="J23" s="85">
+        <f>SUM(J9:J19)</f>
+        <v>5350</v>
+      </c>
+      <c r="K23" s="85"/>
+      <c r="L23" s="87">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 G2:H2" xr:uid="{93E04E14-0128-4890-B428-E87354E1F1FA}">
+      <formula1>FuturesTickers</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="7" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="132"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="142"/>
+      <c r="J2" s="143"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="145"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="135"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="146">
+        <v>23</v>
+      </c>
+      <c r="I4" s="144"/>
+      <c r="J4" s="145"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="132"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="142"/>
+      <c r="J8" s="143"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="126"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="135"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="146">
+        <v>3</v>
+      </c>
+      <c r="I10" s="144"/>
+      <c r="J10" s="145"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="35">
-        <v>23</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
+      <c r="C14" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E14" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="105" t="str">
+        <f t="shared" ref="D15:D18" si="0">B15&amp;C15</f>
+        <v>EDH3</v>
+      </c>
+      <c r="E15" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9:D12" si="0">B9&amp;C9</f>
-        <v>EDH3</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="str">
+      <c r="D16" s="105" t="str">
         <f t="shared" si="0"/>
         <v>EDM3</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="str">
+      <c r="E16" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="105" t="str">
         <f t="shared" si="0"/>
         <v>EDU3</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="str">
+      <c r="E17" s="123" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="105" t="str">
         <f t="shared" si="0"/>
         <v>EDZ3</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E18" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="35">
-        <v>3</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="D21" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="105" t="str">
+        <f t="shared" ref="D22:D25" si="1">B22&amp;C22</f>
+        <v>SR3H3</v>
+      </c>
+      <c r="E22" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="105" t="str">
+        <f t="shared" si="1"/>
+        <v>SR3M3</v>
+      </c>
+      <c r="E23" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="105" t="str">
+        <f t="shared" si="1"/>
+        <v>SR3U3</v>
+      </c>
+      <c r="E24" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="105" t="str">
+        <f t="shared" si="1"/>
+        <v>SR3Z3</v>
+      </c>
+      <c r="E25" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:J18"/>
+  <mergeCells count="22">
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="E10:G11"/>
+    <mergeCell ref="H10:J11"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="E4:G5"/>
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="H4:J5"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4075,7 +7613,306 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB94BC4B-E0C6-4C42-B716-DBBB47A3AF27}">
+  <dimension ref="B2:F22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="98"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="99">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="101">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="102">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <f>B13+Tick_Size*100</f>
+        <v>98.550000000000026</v>
+      </c>
+      <c r="C12" s="4">
+        <f>100-B12</f>
+        <v>1.4499999999999744</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:D22" si="0">(B12-Futures_Price)*Tick_Value*100</f>
+        <v>125.00000000006395</v>
+      </c>
+      <c r="E12" s="99">
+        <f t="shared" ref="E12:E22" si="1">-(B12-Futures_Price)*Tick_Value*100</f>
+        <v>-125.00000000006395</v>
+      </c>
+      <c r="F12" s="99"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <f>B14+Tick_Size*100</f>
+        <v>98.54000000000002</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:C22" si="2">100-B13</f>
+        <v>1.4599999999999795</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>100.00000000005116</v>
+      </c>
+      <c r="E13" s="99">
+        <f t="shared" si="1"/>
+        <v>-100.00000000005116</v>
+      </c>
+      <c r="F13" s="99"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <f>B15+Tick_Size*100</f>
+        <v>98.530000000000015</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4699999999999847</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>75.000000000038369</v>
+      </c>
+      <c r="E14" s="99">
+        <f t="shared" si="1"/>
+        <v>-75.000000000038369</v>
+      </c>
+      <c r="F14" s="99"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <f>B16+Tick_Size*100</f>
+        <v>98.52000000000001</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4799999999999898</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>50.00000000002558</v>
+      </c>
+      <c r="E15" s="99">
+        <f t="shared" si="1"/>
+        <v>-50.00000000002558</v>
+      </c>
+      <c r="F15" s="99"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <f>B17+Tick_Size*100</f>
+        <v>98.51</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4899999999999949</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>25.00000000001279</v>
+      </c>
+      <c r="E16" s="99">
+        <f t="shared" si="1"/>
+        <v>-25.00000000001279</v>
+      </c>
+      <c r="F16" s="99"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="101">
+        <f>Futures_Price</f>
+        <v>98.5</v>
+      </c>
+      <c r="C17" s="101">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="99"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <f>B17-Tick_Size*100</f>
+        <v>98.49</v>
+      </c>
+      <c r="C18" s="4">
+        <f>100-B18</f>
+        <v>1.5100000000000051</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>-25.00000000001279</v>
+      </c>
+      <c r="E18" s="99">
+        <f t="shared" si="1"/>
+        <v>25.00000000001279</v>
+      </c>
+      <c r="F18" s="99"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <f>B18-Tick_Size*100</f>
+        <v>98.47999999999999</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5200000000000102</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>-50.00000000002558</v>
+      </c>
+      <c r="E19" s="99">
+        <f t="shared" si="1"/>
+        <v>50.00000000002558</v>
+      </c>
+      <c r="F19" s="99"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <f>B19-Tick_Size*100</f>
+        <v>98.469999999999985</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5300000000000153</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>-75.000000000038369</v>
+      </c>
+      <c r="E20" s="99">
+        <f t="shared" si="1"/>
+        <v>75.000000000038369</v>
+      </c>
+      <c r="F20" s="99"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <f>B20-Tick_Size*100</f>
+        <v>98.45999999999998</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5400000000000205</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>-100.00000000005116</v>
+      </c>
+      <c r="E21" s="99">
+        <f t="shared" si="1"/>
+        <v>100.00000000005116</v>
+      </c>
+      <c r="F21" s="99"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <f>B21-Tick_Size*100</f>
+        <v>98.449999999999974</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5500000000000256</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>-125.00000000006395</v>
+      </c>
+      <c r="E22" s="99">
+        <f t="shared" si="1"/>
+        <v>125.00000000006395</v>
+      </c>
+      <c r="F22" s="99"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09AD1A9-5428-4C82-A9BD-6D4983407C24}">
   <dimension ref="B32:B33"/>
   <sheetViews>
@@ -4085,11 +7922,11 @@
   <sheetData>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="55"/>
+      <c r="B33" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4097,7 +7934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G24"/>
   <sheetViews>
@@ -4110,202 +7947,216 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="98"/>
+    </row>
     <row r="4" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>22</v>
+      <c r="G4" s="98" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="4">
         <f ca="1">2*RAND()*$D$2</f>
-        <v>8.5229742365406302</v>
+        <v>3.8106559132000672E-3</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E14" ca="1" si="0">(1+C5/360*D5/100)</f>
-        <v>1.0002367492843482</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>1.0000001058515531</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ref="D6:D14" ca="1" si="1">2*RAND()*$D$2</f>
-        <v>9.791294373250448</v>
+        <v>8.1891728623348676</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.000271980399257</v>
+        <v>1.0002274770239536</v>
       </c>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2298939003290676</v>
+        <v>0.21205582677847001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000341637194536</v>
+        <v>1.0000058904396327</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.477645887298177</v>
+        <v>8.5230093476630699</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002632679413139</v>
+        <v>1.0002367502596574</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6151668234907168</v>
+        <v>3.7498199908231489</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0006345972352908</v>
+        <v>1.0003124849992353</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6865967073791808</v>
+        <v>5.3634112522896107</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000746276863162</v>
+        <v>1.000148983645897</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8690840420059676</v>
+        <v>5.6450292088425797</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002463634456114</v>
+        <v>1.0001568063669124</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8994942378727222</v>
+        <v>6.8825565779408215</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001360970621631</v>
+        <v>1.000191182127165</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7844768748995739</v>
+        <v>7.4327579789014608</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001329021354139</v>
+        <v>1.0002064654994138</v>
+      </c>
+      <c r="G13" s="98" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.820172786116526</v>
+        <v>1.6506765863540662</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0008183477321764</v>
+        <v>1.0001375563821961</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4315,68 +8166,69 @@
       </c>
       <c r="D17" s="6">
         <f ca="1">SUMPRODUCT(D5:D14,C5:C14)/C17</f>
-        <v>7.3262485063141058</v>
+        <v>4.1752352458711233</v>
       </c>
       <c r="E17" s="6">
         <f ca="1">(PRODUCT(E5:E15)-1)*(360/C17)*100</f>
-        <v>7.3349224113403082</v>
+        <v>4.1781756225674247</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="6">
         <f ca="1">100-D17</f>
-        <v>92.673751493685899</v>
+        <v>95.824764754128879</v>
       </c>
       <c r="E23" s="6">
         <f ca="1">100-E17</f>
-        <v>92.665077588659699</v>
+        <v>95.821824377432577</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{3E84BDDD-D732-4F2E-BFD9-7434E8E1923F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/03 Products & Pricing/09 Futures/Futures.xlsx
+++ b/03 Products & Pricing/09 Futures/Futures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\09 Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405895C1-3AF5-419C-B9CF-996C6A964C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49FFDBA-373F-4417-8235-68D5C0C80A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Trading" sheetId="5" r:id="rId2"/>
     <sheet name="Tickers" sheetId="2" r:id="rId3"/>
     <sheet name="Payoff" sheetId="7" r:id="rId4"/>
-    <sheet name="USD 3M SOFR Futures" sheetId="4" r:id="rId5"/>
+    <sheet name="USD 3M SOFR Futures Chain" sheetId="4" r:id="rId5"/>
     <sheet name="Compound Interest" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="272">
   <si>
     <t>Weekday</t>
   </si>
@@ -290,40 +290,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.cmegroup.com/markets/interest-rates/stirs/three-month-sofr.quotes.html</t>
-    </r>
   </si>
   <si>
     <t>Simple</t>
@@ -683,6 +649,369 @@
   <si>
     <t>Eurodollar USD 3M LIBOR Futures DEC-2023</t>
   </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>SR3M2</t>
+  </si>
+  <si>
+    <t>-0.005 (-0.01%)</t>
+  </si>
+  <si>
+    <t>SR3U2</t>
+  </si>
+  <si>
+    <t>+0.015 (+0.02%)</t>
+  </si>
+  <si>
+    <t>SR3Z2</t>
+  </si>
+  <si>
+    <t>+0.04 (+0.04%)</t>
+  </si>
+  <si>
+    <t>SR3H3</t>
+  </si>
+  <si>
+    <t>+0.105 (+0.11%)</t>
+  </si>
+  <si>
+    <t>SR3M3</t>
+  </si>
+  <si>
+    <t>+0.145 (+0.15%)</t>
+  </si>
+  <si>
+    <t>SR3U3</t>
+  </si>
+  <si>
+    <t>+0.18 (+0.19%)</t>
+  </si>
+  <si>
+    <t>SR3Z3</t>
+  </si>
+  <si>
+    <t>+0.20 (+0.21%)</t>
+  </si>
+  <si>
+    <t>SR3H4</t>
+  </si>
+  <si>
+    <t>+0.21 (+0.22%)</t>
+  </si>
+  <si>
+    <t>SR3M4</t>
+  </si>
+  <si>
+    <t>+0.225 (+0.23%)</t>
+  </si>
+  <si>
+    <t>SR3U4</t>
+  </si>
+  <si>
+    <t>SR3Z4</t>
+  </si>
+  <si>
+    <t>+0.195 (+0.20%)</t>
+  </si>
+  <si>
+    <t>SR3H5</t>
+  </si>
+  <si>
+    <t>+0.175 (+0.18%)</t>
+  </si>
+  <si>
+    <t>SR3M5</t>
+  </si>
+  <si>
+    <t>+0.155 (+0.16%)</t>
+  </si>
+  <si>
+    <t>SR3U5</t>
+  </si>
+  <si>
+    <t>+0.14 (+0.14%)</t>
+  </si>
+  <si>
+    <t>SR3Z5</t>
+  </si>
+  <si>
+    <t>+0.12 (+0.12%)</t>
+  </si>
+  <si>
+    <t>SR3H6</t>
+  </si>
+  <si>
+    <t>+0.10 (+0.10%)</t>
+  </si>
+  <si>
+    <t>SR3M6</t>
+  </si>
+  <si>
+    <t>+0.085 (+0.09%)</t>
+  </si>
+  <si>
+    <t>SR3U6</t>
+  </si>
+  <si>
+    <t>+0.08 (+0.08%)</t>
+  </si>
+  <si>
+    <t>SR3Z6</t>
+  </si>
+  <si>
+    <t>+0.07 (+0.07%)</t>
+  </si>
+  <si>
+    <t>SR3H7</t>
+  </si>
+  <si>
+    <t>+0.06 (+0.06%)</t>
+  </si>
+  <si>
+    <t>SR3M7</t>
+  </si>
+  <si>
+    <t>+0.05 (+0.05%)</t>
+  </si>
+  <si>
+    <t>SR3U7</t>
+  </si>
+  <si>
+    <t>SR3Z7</t>
+  </si>
+  <si>
+    <t>SR3H8</t>
+  </si>
+  <si>
+    <t>SR3M8</t>
+  </si>
+  <si>
+    <t>SR3U8</t>
+  </si>
+  <si>
+    <t>SR3Z8</t>
+  </si>
+  <si>
+    <t>SR3H9</t>
+  </si>
+  <si>
+    <t>SR3M9</t>
+  </si>
+  <si>
+    <t>SR3U9</t>
+  </si>
+  <si>
+    <t>SR3Z9</t>
+  </si>
+  <si>
+    <t>SR3H0</t>
+  </si>
+  <si>
+    <t>SR3M0</t>
+  </si>
+  <si>
+    <t>SR3U0</t>
+  </si>
+  <si>
+    <t>SR3Z0</t>
+  </si>
+  <si>
+    <t>SR3H1</t>
+  </si>
+  <si>
+    <t>SR3M1</t>
+  </si>
+  <si>
+    <t>SR3U1</t>
+  </si>
+  <si>
+    <t>SR3Z1</t>
+  </si>
+  <si>
+    <t>https://www.cmegroup.com/markets/interest-rates/stirs/three-month-sofr.quotes.html</t>
+  </si>
+  <si>
+    <t>CME Futures Quotes</t>
+  </si>
+  <si>
+    <t>LAST PRICE</t>
+  </si>
+  <si>
+    <t>TICKER</t>
+  </si>
+  <si>
+    <t>PRIOR PRICE</t>
+  </si>
+  <si>
+    <t>JUN-22</t>
+  </si>
+  <si>
+    <t>SEP-22</t>
+  </si>
+  <si>
+    <t>DEC-22</t>
+  </si>
+  <si>
+    <t>MAR-23</t>
+  </si>
+  <si>
+    <t>JUN-23</t>
+  </si>
+  <si>
+    <t>SEP-23</t>
+  </si>
+  <si>
+    <t>DEC-23</t>
+  </si>
+  <si>
+    <t>MAR-24</t>
+  </si>
+  <si>
+    <t>JUN-24</t>
+  </si>
+  <si>
+    <t>SEP-24</t>
+  </si>
+  <si>
+    <t>DEC-24</t>
+  </si>
+  <si>
+    <t>MAR-25</t>
+  </si>
+  <si>
+    <t>JUN-25</t>
+  </si>
+  <si>
+    <t>SEP-25</t>
+  </si>
+  <si>
+    <t>DEC-25</t>
+  </si>
+  <si>
+    <t>MAR-26</t>
+  </si>
+  <si>
+    <t>JUN-26</t>
+  </si>
+  <si>
+    <t>SEP-26</t>
+  </si>
+  <si>
+    <t>DEC-26</t>
+  </si>
+  <si>
+    <t>MAR-27</t>
+  </si>
+  <si>
+    <t>JUN-27</t>
+  </si>
+  <si>
+    <t>SEP-27</t>
+  </si>
+  <si>
+    <t>DEC-27</t>
+  </si>
+  <si>
+    <t>MAR-28</t>
+  </si>
+  <si>
+    <t>JUN-28</t>
+  </si>
+  <si>
+    <t>SEP-28</t>
+  </si>
+  <si>
+    <t>DEC-28</t>
+  </si>
+  <si>
+    <t>MAR-29</t>
+  </si>
+  <si>
+    <t>JUN-29</t>
+  </si>
+  <si>
+    <t>SEP-29</t>
+  </si>
+  <si>
+    <t>DEC-29</t>
+  </si>
+  <si>
+    <t>MAR-30</t>
+  </si>
+  <si>
+    <t>JUN-30</t>
+  </si>
+  <si>
+    <t>SEP-30</t>
+  </si>
+  <si>
+    <t>DEC-30</t>
+  </si>
+  <si>
+    <t>MAR-31</t>
+  </si>
+  <si>
+    <t>JUN-31</t>
+  </si>
+  <si>
+    <t>SEP-31</t>
+  </si>
+  <si>
+    <t>DEC-31</t>
+  </si>
+  <si>
+    <t>COLOUR</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>PINK</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>COPPER</t>
+  </si>
+  <si>
+    <t>Futures Chain: Three-Month SOFR Futures</t>
+  </si>
 </sst>
 </file>
 
@@ -697,7 +1026,7 @@
     <numFmt numFmtId="169" formatCode="_+#,##0;_-\(#,##0\)"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,8 +1168,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC2CACE"/>
+      <name val="Averta-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF25323C"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCC00"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF9933"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF25323C"/>
+      <name val="Roboto-Mono-Regular"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,8 +1288,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF112B4A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F5F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1228,12 +1645,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1586,6 +2061,39 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1595,24 +2103,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,21 +2115,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1648,6 +2123,229 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1658,10 +2356,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFF9900"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFCCCC00"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF006600"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FF006600"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4309,23 +5013,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>77263</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>91892</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>115367</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB666CE9-D4D2-345A-74C9-023A741DAE81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7764E22A-E89C-BDD1-DD98-709929C95E71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4341,8 +5045,272 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="182880"/>
-          <a:ext cx="12269263" cy="5212532"/>
+          <a:off x="8823960" y="182880"/>
+          <a:ext cx="12307367" cy="4785775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>107744</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>111322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BBEFB6-D7AE-D7F4-58B9-A4A5ED492CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="5742209"/>
+          <a:ext cx="12276884" cy="3415142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>107744</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>61307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00961ED6-7CE9-2808-4407-484FD5FAEC43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8846820" y="8260080"/>
+          <a:ext cx="12276884" cy="4008467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>107743</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>91790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66297E07-FB06-B924-06C2-EF00B8C4710A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8854440" y="12230100"/>
+          <a:ext cx="12269263" cy="4031329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>122986</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>99464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1834AFBD-B769-C0A0-0253-A4C3725A9738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="16230600"/>
+          <a:ext cx="12299746" cy="4671465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>251460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>115365</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>129947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64069D1-7C22-391A-923C-23F79A7515F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8846820" y="20871180"/>
+          <a:ext cx="12284505" cy="4701947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>130605</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>68761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A505EF8A-FDDD-CB7C-89B1-E3E08EAABD4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8854440" y="25504140"/>
+          <a:ext cx="12292125" cy="2103302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6112,7 +7080,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="14"/>
     <col min="2" max="2" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -6128,19 +7096,19 @@
     <col min="22" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20">
       <c r="B2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="13"/>
       <c r="I2" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="17.399999999999999">
       <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
@@ -6149,10 +7117,10 @@
         <v>USD 3M SOFR Futures</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
       <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
@@ -6162,10 +7130,10 @@
       </c>
       <c r="D4" s="13"/>
       <c r="I4" s="38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="17.399999999999999">
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
@@ -6175,25 +7143,25 @@
       </c>
       <c r="D5" s="13"/>
       <c r="I5" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" ht="16.2" thickBot="1">
       <c r="B7" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="I7" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="18" thickBot="1">
       <c r="B8" s="17" t="s">
         <v>36</v>
       </c>
@@ -6221,20 +7189,20 @@
         <v>46</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20">
       <c r="B9" s="19">
         <v>44732</v>
       </c>
@@ -6264,7 +7232,7 @@
         <v>1000000</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" s="26">
         <v>25</v>
@@ -6273,11 +7241,11 @@
         <v>2500</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T9" s="15"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20">
       <c r="B10" s="19">
         <v>44729</v>
       </c>
@@ -6307,7 +7275,7 @@
         <v>5000000</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O10" s="28">
         <v>41.67</v>
@@ -6320,7 +7288,7 @@
       </c>
       <c r="T10" s="15"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20">
       <c r="B11" s="19">
         <v>44728</v>
       </c>
@@ -6350,7 +7318,7 @@
         <v>1000000</v>
       </c>
       <c r="N11" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O11" s="47">
         <v>25</v>
@@ -6363,7 +7331,7 @@
       </c>
       <c r="T11" s="15"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20">
       <c r="B12" s="19">
         <v>44727</v>
       </c>
@@ -6393,7 +7361,7 @@
         <v>1000000</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O12" s="28">
         <v>12.5</v>
@@ -6402,11 +7370,11 @@
         <v>2500</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20">
       <c r="B13" s="19">
         <v>44726</v>
       </c>
@@ -6436,7 +7404,7 @@
         <v>1000000</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O13" s="28">
         <v>25</v>
@@ -6449,7 +7417,7 @@
       </c>
       <c r="T13" s="15"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20">
       <c r="B14" s="19">
         <v>44725</v>
       </c>
@@ -6465,7 +7433,7 @@
         <v>-50</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="108" t="s">
         <v>52</v>
@@ -6479,7 +7447,7 @@
         <v>1000000</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O14" s="51">
         <v>25</v>
@@ -6488,11 +7456,11 @@
         <v>2500</v>
       </c>
       <c r="Q14" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T14" s="15"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20">
       <c r="B15" s="19">
         <v>44722</v>
       </c>
@@ -6522,7 +7490,7 @@
         <v>1000000</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O15" s="47">
         <v>25</v>
@@ -6535,7 +7503,7 @@
       </c>
       <c r="T15" s="15"/>
     </row>
-    <row r="16" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" ht="16.2" thickBot="1">
       <c r="B16" s="19">
         <v>44721</v>
       </c>
@@ -6551,7 +7519,7 @@
         <v>75</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="112" t="s">
         <v>54</v>
@@ -6565,7 +7533,7 @@
         <v>100000000</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O16" s="37">
         <v>2500</v>
@@ -6574,10 +7542,10 @@
         <v>250000</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="17.399999999999999">
       <c r="B17" s="19">
         <v>44720</v>
       </c>
@@ -6593,14 +7561,14 @@
         <v>75</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18" s="19">
         <v>44719</v>
       </c>
@@ -6621,7 +7589,7 @@
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16">
       <c r="B19" s="19">
         <v>44718</v>
       </c>
@@ -6637,14 +7605,14 @@
         <v>25</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16">
       <c r="B20" s="19">
         <v>44715</v>
       </c>
@@ -6660,17 +7628,17 @@
         <v>-125</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L20" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="B21" s="19">
         <v>44714</v>
       </c>
@@ -6686,17 +7654,17 @@
         <v>50</v>
       </c>
       <c r="H21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="39" t="s">
         <v>83</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>84</v>
       </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="B22" s="19">
         <v>44713</v>
       </c>
@@ -6712,13 +7680,13 @@
         <v>200</v>
       </c>
       <c r="H22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="19">
         <v>44712</v>
       </c>
@@ -6732,20 +7700,20 @@
         <v>38</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" s="19"/>
       <c r="C24" s="15"/>
       <c r="D24" s="22"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16">
       <c r="B25" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="15">
         <f>C9</f>
@@ -6753,12 +7721,12 @@
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="15">
         <f>C23</f>
@@ -6769,16 +7737,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" ht="16.2" thickBot="1">
       <c r="B27" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="52">
         <f>TickValue*(C25-C26)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:16" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="I13:K13"/>
@@ -6809,7 +7777,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="14"/>
     <col min="2" max="2" width="15.77734375" style="14" customWidth="1"/>
@@ -6825,16 +7793,16 @@
     <col min="13" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="I1" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J1" s="119"/>
       <c r="K1" s="120"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="B2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>44</v>
@@ -6843,7 +7811,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
@@ -6856,7 +7824,7 @@
       <c r="J3" s="66"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
@@ -6869,7 +7837,7 @@
       <c r="J4" s="67"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="16"/>
       <c r="B5" s="12" t="s">
         <v>45</v>
@@ -6879,73 +7847,73 @@
         <v>25</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="62">
         <f>VLOOKUP($C$2,FuturesTable,9,0)</f>
         <v>2500</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.2" thickBot="1"/>
+    <row r="8" spans="1:13" ht="16.2" thickBot="1">
       <c r="B8" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>90</v>
-      </c>
       <c r="F8" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" ht="31.2">
       <c r="B9" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="70"/>
       <c r="E9" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="71">
         <v>25000</v>
       </c>
       <c r="H9" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="80">
@@ -6953,20 +7921,20 @@
         <v>-25000</v>
       </c>
       <c r="K9" s="81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L9" s="82">
         <f>-J9</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="31.2">
       <c r="B10" s="69"/>
       <c r="C10" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="71">
@@ -6985,12 +7953,12 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="31.8" thickBot="1">
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="74"/>
       <c r="E11" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="75">
         <f>F10-J11</f>
@@ -7003,22 +7971,22 @@
         <v>8000</v>
       </c>
       <c r="K11" s="86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" s="87">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="31.2">
       <c r="B12" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="71">
@@ -7026,7 +7994,7 @@
         <v>22500</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12" s="80">
         <f>(9932-9942)*25*10</f>
@@ -7039,12 +8007,12 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="31.8" thickBot="1">
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="76"/>
       <c r="E13" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="75">
         <f>F12-J13</f>
@@ -7057,22 +8025,22 @@
         <v>-2500</v>
       </c>
       <c r="K13" s="86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="87">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="31.2">
       <c r="B14" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="70"/>
       <c r="F14" s="71">
@@ -7080,7 +8048,7 @@
         <v>24250</v>
       </c>
       <c r="H14" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I14" s="80">
         <f>(9927-9932)*25*6</f>
@@ -7093,13 +8061,13 @@
         <v>24250</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="31.2">
       <c r="B15" s="69"/>
       <c r="C15" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="70"/>
       <c r="F15" s="71">
@@ -7119,12 +8087,12 @@
       </c>
       <c r="M15" s="92"/>
     </row>
-    <row r="16" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="46.8">
       <c r="B16" s="69"/>
       <c r="C16" s="70"/>
       <c r="D16" s="72"/>
       <c r="E16" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="71">
         <f>F15-J16</f>
@@ -7137,19 +8105,19 @@
         <v>-1450</v>
       </c>
       <c r="K16" s="88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L16" s="84">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="31.8" thickBot="1">
       <c r="B17" s="73"/>
       <c r="C17" s="74"/>
       <c r="D17" s="76"/>
       <c r="E17" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="75">
         <f>F16-J17</f>
@@ -7161,22 +8129,22 @@
         <v>15000</v>
       </c>
       <c r="K17" s="86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L17" s="87">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="31.2">
       <c r="B18" s="91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="93"/>
       <c r="F18" s="95">
@@ -7184,7 +8152,7 @@
         <v>11300</v>
       </c>
       <c r="H18" s="91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I18" s="80">
         <f>(9938-9925)*25*4</f>
@@ -7197,12 +8165,12 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="47.4" thickBot="1">
       <c r="B19" s="96"/>
       <c r="C19" s="97"/>
       <c r="D19" s="76"/>
       <c r="E19" s="74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="75">
         <v>0</v>
@@ -7213,44 +8181,44 @@
         <v>11300</v>
       </c>
       <c r="K19" s="86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="16.2" thickBot="1"/>
+    <row r="22" spans="2:12" ht="16.2" thickBot="1">
       <c r="B22" s="33"/>
       <c r="C22" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="E22" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>99</v>
-      </c>
       <c r="F22" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="89" t="s">
         <v>98</v>
-      </c>
-      <c r="J22" s="89" t="s">
-        <v>99</v>
       </c>
       <c r="K22" s="89"/>
       <c r="L22" s="90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="16.2" thickBot="1">
       <c r="B23" s="77"/>
       <c r="C23" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="79">
         <f>8000-2500-750-700+1300</f>
@@ -7297,124 +8265,124 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="124" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="132"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="141" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="126"/>
       <c r="C3" s="127"/>
       <c r="D3" s="127"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="145"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="128" t="s">
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" s="139" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="127"/>
       <c r="D4" s="127"/>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="136"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="146">
         <v>23</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="145"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="140"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="138"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
       <c r="H5" s="147"/>
       <c r="I5" s="147"/>
       <c r="J5" s="148"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="124" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="125"/>
       <c r="D8" s="125"/>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="141" t="s">
+      <c r="F8" s="129"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="135"/>
+      <c r="J8" s="136"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="126"/>
       <c r="C9" s="127"/>
       <c r="D9" s="127"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="128" t="s">
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="139" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="127"/>
       <c r="D10" s="127"/>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="135"/>
-      <c r="G10" s="136"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="146">
         <v>3</v>
       </c>
-      <c r="I10" s="144"/>
-      <c r="J10" s="145"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="140"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="138"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="140"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="147"/>
       <c r="I11" s="147"/>
       <c r="J11" s="148"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" s="104" t="s">
         <v>28</v>
       </c>
@@ -7430,7 +8398,7 @@
       <c r="F14" s="122"/>
       <c r="G14" s="122"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" s="105" t="s">
         <v>26</v>
       </c>
@@ -7442,12 +8410,12 @@
         <v>EDH3</v>
       </c>
       <c r="E15" s="123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="123"/>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="B16" s="105" t="s">
         <v>26</v>
       </c>
@@ -7459,12 +8427,12 @@
         <v>EDM3</v>
       </c>
       <c r="E16" s="123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="123"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="105" t="s">
         <v>26</v>
       </c>
@@ -7476,12 +8444,12 @@
         <v>EDU3</v>
       </c>
       <c r="E17" s="123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="123"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="105" t="s">
         <v>26</v>
       </c>
@@ -7493,12 +8461,12 @@
         <v>EDZ3</v>
       </c>
       <c r="E18" s="123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="123"/>
       <c r="G18" s="123"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="104" t="s">
         <v>28</v>
       </c>
@@ -7514,7 +8482,7 @@
       <c r="F21" s="122"/>
       <c r="G21" s="122"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="105" t="s">
         <v>44</v>
       </c>
@@ -7526,12 +8494,12 @@
         <v>SR3H3</v>
       </c>
       <c r="E22" s="123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="105" t="s">
         <v>44</v>
       </c>
@@ -7543,12 +8511,12 @@
         <v>SR3M3</v>
       </c>
       <c r="E23" s="123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="105" t="s">
         <v>44</v>
       </c>
@@ -7560,12 +8528,12 @@
         <v>SR3U3</v>
       </c>
       <c r="E24" s="123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" s="123"/>
       <c r="G24" s="123"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" s="105" t="s">
         <v>44</v>
       </c>
@@ -7577,35 +8545,35 @@
         <v>SR3Z3</v>
       </c>
       <c r="E25" s="123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="123"/>
       <c r="G25" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H2:J3"/>
+    <mergeCell ref="H4:J5"/>
     <mergeCell ref="B8:D9"/>
     <mergeCell ref="E8:G9"/>
     <mergeCell ref="H8:J9"/>
     <mergeCell ref="B10:D11"/>
     <mergeCell ref="E10:G11"/>
     <mergeCell ref="H10:J11"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H2:J3"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7619,7 +8587,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
@@ -7628,21 +8596,21 @@
     <col min="6" max="6" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="98"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -7650,31 +8618,31 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="101">
         <v>98.5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="102">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -7682,22 +8650,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="4">
         <f>B13+Tick_Size*100</f>
         <v>98.550000000000026</v>
@@ -7716,7 +8684,7 @@
       </c>
       <c r="F12" s="99"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="4">
         <f>B14+Tick_Size*100</f>
         <v>98.54000000000002</v>
@@ -7735,7 +8703,7 @@
       </c>
       <c r="F13" s="99"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="4">
         <f>B15+Tick_Size*100</f>
         <v>98.530000000000015</v>
@@ -7754,7 +8722,7 @@
       </c>
       <c r="F14" s="99"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="4">
         <f>B16+Tick_Size*100</f>
         <v>98.52000000000001</v>
@@ -7773,7 +8741,7 @@
       </c>
       <c r="F15" s="99"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6">
       <c r="B16" s="4">
         <f>B17+Tick_Size*100</f>
         <v>98.51</v>
@@ -7792,7 +8760,7 @@
       </c>
       <c r="F16" s="99"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="101">
         <f>Futures_Price</f>
         <v>98.5</v>
@@ -7811,7 +8779,7 @@
       </c>
       <c r="F17" s="99"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18" s="4">
         <f>B17-Tick_Size*100</f>
         <v>98.49</v>
@@ -7830,7 +8798,7 @@
       </c>
       <c r="F18" s="99"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19" s="4">
         <f>B18-Tick_Size*100</f>
         <v>98.47999999999999</v>
@@ -7849,7 +8817,7 @@
       </c>
       <c r="F19" s="99"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20" s="4">
         <f>B19-Tick_Size*100</f>
         <v>98.469999999999985</v>
@@ -7868,7 +8836,7 @@
       </c>
       <c r="F20" s="99"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21" s="4">
         <f>B20-Tick_Size*100</f>
         <v>98.45999999999998</v>
@@ -7887,7 +8855,7 @@
       </c>
       <c r="F21" s="99"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22" s="4">
         <f>B21-Tick_Size*100</f>
         <v>98.449999999999974</v>
@@ -7914,21 +8882,2284 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09AD1A9-5428-4C82-A9BD-6D4983407C24}">
-  <dimension ref="B32:B33"/>
+  <dimension ref="B2:AQ89"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="149" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
+    <row r="2" spans="2:13">
+      <c r="M2" s="98" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="M3" s="223" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="M4" s="24"/>
+    </row>
+    <row r="6" spans="2:13" ht="27.6">
+      <c r="B6" s="222" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="221"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="215" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="216" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="216" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="216" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="216" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="216" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="216" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="216" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="216" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="216" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="220"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="217"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="220"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="150" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="150">
+        <v>98.117500000000007</v>
+      </c>
+      <c r="E12" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="150">
+        <v>98.122500000000002</v>
+      </c>
+      <c r="G12" s="150">
+        <v>98.122500000000002</v>
+      </c>
+      <c r="H12" s="150">
+        <v>98.147499999999994</v>
+      </c>
+      <c r="I12" s="150">
+        <v>98.11</v>
+      </c>
+      <c r="J12" s="152">
+        <v>45593</v>
+      </c>
+      <c r="K12" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="220"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="192"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="220"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="193" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="153" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="153">
+        <v>97.06</v>
+      </c>
+      <c r="E14" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="153">
+        <v>97.045000000000002</v>
+      </c>
+      <c r="G14" s="153">
+        <v>97.034999999999997</v>
+      </c>
+      <c r="H14" s="153">
+        <v>97.18</v>
+      </c>
+      <c r="I14" s="153">
+        <v>97.03</v>
+      </c>
+      <c r="J14" s="154">
+        <v>236774</v>
+      </c>
+      <c r="K14" s="153" t="s">
+        <v>261</v>
+      </c>
+      <c r="L14" s="220"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="193"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="220"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="192" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="150" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="150">
+        <v>96.71</v>
+      </c>
+      <c r="E16" s="151" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="150">
+        <v>96.67</v>
+      </c>
+      <c r="G16" s="150">
+        <v>96.63</v>
+      </c>
+      <c r="H16" s="150">
+        <v>96.87</v>
+      </c>
+      <c r="I16" s="150">
+        <v>96.605000000000004</v>
+      </c>
+      <c r="J16" s="152">
+        <v>339455</v>
+      </c>
+      <c r="K16" s="152" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" s="220"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="192"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="220"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="193" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="153" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="153">
+        <v>96.734999999999999</v>
+      </c>
+      <c r="E18" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="153">
+        <v>96.63</v>
+      </c>
+      <c r="G18" s="153">
+        <v>96.58</v>
+      </c>
+      <c r="H18" s="153">
+        <v>96.88</v>
+      </c>
+      <c r="I18" s="153">
+        <v>96.54</v>
+      </c>
+      <c r="J18" s="154">
+        <v>305759</v>
+      </c>
+      <c r="K18" s="154" t="s">
+        <v>261</v>
+      </c>
+      <c r="L18" s="220"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="193"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="220"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="194" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="156" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="156">
+        <v>96.97</v>
+      </c>
+      <c r="E20" s="156" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="156">
+        <v>96.825000000000003</v>
+      </c>
+      <c r="G20" s="156">
+        <v>96.77</v>
+      </c>
+      <c r="H20" s="156">
+        <v>97.1</v>
+      </c>
+      <c r="I20" s="156">
+        <v>96.734999999999999</v>
+      </c>
+      <c r="J20" s="157">
+        <v>255183</v>
+      </c>
+      <c r="K20" s="157" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="220"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="194"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="220"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="195" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="158" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="158">
+        <v>97.194999999999993</v>
+      </c>
+      <c r="E22" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="158">
+        <v>97.015000000000001</v>
+      </c>
+      <c r="G22" s="158">
+        <v>96.965000000000003</v>
+      </c>
+      <c r="H22" s="158">
+        <v>97.314999999999998</v>
+      </c>
+      <c r="I22" s="158">
+        <v>96.935000000000002</v>
+      </c>
+      <c r="J22" s="159">
+        <v>199337</v>
+      </c>
+      <c r="K22" s="159" t="s">
+        <v>262</v>
+      </c>
+      <c r="L22" s="220"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="195"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="220"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="194" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="156" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="156">
+        <v>97.364999999999995</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="156">
+        <v>97.165000000000006</v>
+      </c>
+      <c r="G24" s="156">
+        <v>97.13</v>
+      </c>
+      <c r="H24" s="156">
+        <v>97.474999999999994</v>
+      </c>
+      <c r="I24" s="156">
+        <v>97.094999999999999</v>
+      </c>
+      <c r="J24" s="157">
+        <v>185140</v>
+      </c>
+      <c r="K24" s="157" t="s">
+        <v>262</v>
+      </c>
+      <c r="L24" s="220"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="194"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="220"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="195" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="158" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="158">
+        <v>97.49</v>
+      </c>
+      <c r="E26" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="158">
+        <v>97.28</v>
+      </c>
+      <c r="G26" s="158">
+        <v>97.24</v>
+      </c>
+      <c r="H26" s="158">
+        <v>97.594999999999999</v>
+      </c>
+      <c r="I26" s="158">
+        <v>97.22</v>
+      </c>
+      <c r="J26" s="159">
+        <v>152166</v>
+      </c>
+      <c r="K26" s="159" t="s">
+        <v>262</v>
+      </c>
+      <c r="L26" s="220"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="195"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="220"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="196" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="160" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="160">
+        <v>97.594999999999999</v>
+      </c>
+      <c r="E28" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="160">
+        <v>97.37</v>
+      </c>
+      <c r="G28" s="160">
+        <v>97.34</v>
+      </c>
+      <c r="H28" s="160">
+        <v>97.68</v>
+      </c>
+      <c r="I28" s="160">
+        <v>97.314999999999998</v>
+      </c>
+      <c r="J28" s="161">
+        <v>112246</v>
+      </c>
+      <c r="K28" s="161" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" s="220"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="196"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="220"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="197" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="162" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="162">
+        <v>97.625</v>
+      </c>
+      <c r="E30" s="162" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="162">
+        <v>97.415000000000006</v>
+      </c>
+      <c r="G30" s="162">
+        <v>97.375</v>
+      </c>
+      <c r="H30" s="162">
+        <v>97.715000000000003</v>
+      </c>
+      <c r="I30" s="162">
+        <v>97.37</v>
+      </c>
+      <c r="J30" s="163">
+        <v>72282</v>
+      </c>
+      <c r="K30" s="163" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" s="220"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="197"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="220"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="196" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="160" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="160">
+        <v>97.62</v>
+      </c>
+      <c r="E32" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="160">
+        <v>97.424999999999997</v>
+      </c>
+      <c r="G32" s="160">
+        <v>97.39</v>
+      </c>
+      <c r="H32" s="160">
+        <v>97.71</v>
+      </c>
+      <c r="I32" s="160">
+        <v>97.38</v>
+      </c>
+      <c r="J32" s="161">
+        <v>68370</v>
+      </c>
+      <c r="K32" s="161" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" s="220"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="196"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="220"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="197" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="162" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="162">
+        <v>97.614999999999995</v>
+      </c>
+      <c r="E34" s="162" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="162">
+        <v>97.44</v>
+      </c>
+      <c r="G34" s="162">
+        <v>97.405000000000001</v>
+      </c>
+      <c r="H34" s="162">
+        <v>97.704999999999998</v>
+      </c>
+      <c r="I34" s="162">
+        <v>97.394999999999996</v>
+      </c>
+      <c r="J34" s="163">
+        <v>52353</v>
+      </c>
+      <c r="K34" s="163" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" s="220"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="197"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="163"/>
+      <c r="L35" s="220"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="164" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="164">
+        <v>97.58</v>
+      </c>
+      <c r="E36" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="164">
+        <v>97.424999999999997</v>
+      </c>
+      <c r="G36" s="164">
+        <v>97.39</v>
+      </c>
+      <c r="H36" s="164">
+        <v>97.674999999999997</v>
+      </c>
+      <c r="I36" s="164">
+        <v>97.38</v>
+      </c>
+      <c r="J36" s="165">
+        <v>49777</v>
+      </c>
+      <c r="K36" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" s="220"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="198"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="220"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="199" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="166" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="166">
+        <v>97.534999999999997</v>
+      </c>
+      <c r="E38" s="166" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="166">
+        <v>97.394999999999996</v>
+      </c>
+      <c r="G38" s="166">
+        <v>97.355000000000004</v>
+      </c>
+      <c r="H38" s="166">
+        <v>97.62</v>
+      </c>
+      <c r="I38" s="166">
+        <v>97.344999999999999</v>
+      </c>
+      <c r="J38" s="167">
+        <v>19103</v>
+      </c>
+      <c r="K38" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="L38" s="220"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="199"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="220"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="198" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="164" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="164">
+        <v>97.47</v>
+      </c>
+      <c r="E40" s="164" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="164">
+        <v>97.35</v>
+      </c>
+      <c r="G40" s="164">
+        <v>97.31</v>
+      </c>
+      <c r="H40" s="164">
+        <v>97.56</v>
+      </c>
+      <c r="I40" s="164">
+        <v>97.305000000000007</v>
+      </c>
+      <c r="J40" s="165">
+        <v>15861</v>
+      </c>
+      <c r="K40" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="L40" s="220"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="198"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="220"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="199" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="166" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="166">
+        <v>97.41</v>
+      </c>
+      <c r="E42" s="166" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="166">
+        <v>97.31</v>
+      </c>
+      <c r="G42" s="166">
+        <v>97.265000000000001</v>
+      </c>
+      <c r="H42" s="166">
+        <v>97.504999999999995</v>
+      </c>
+      <c r="I42" s="166">
+        <v>97.26</v>
+      </c>
+      <c r="J42" s="167">
+        <v>12703</v>
+      </c>
+      <c r="K42" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="L42" s="220"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="199"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="167"/>
+      <c r="L43" s="220"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="200" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="168" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="168">
+        <v>97.355000000000004</v>
+      </c>
+      <c r="E44" s="168" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="168">
+        <v>97.27</v>
+      </c>
+      <c r="G44" s="168">
+        <v>97.224999999999994</v>
+      </c>
+      <c r="H44" s="168">
+        <v>97.454999999999998</v>
+      </c>
+      <c r="I44" s="168">
+        <v>97.22</v>
+      </c>
+      <c r="J44" s="169">
+        <v>10425</v>
+      </c>
+      <c r="K44" s="169" t="s">
+        <v>265</v>
+      </c>
+      <c r="L44" s="220"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="200"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="168"/>
+      <c r="J45" s="169"/>
+      <c r="K45" s="169"/>
+      <c r="L45" s="220"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="201" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="170">
+        <v>97.32</v>
+      </c>
+      <c r="E46" s="170" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="170">
+        <v>97.24</v>
+      </c>
+      <c r="G46" s="170">
+        <v>97.19</v>
+      </c>
+      <c r="H46" s="170">
+        <v>97.42</v>
+      </c>
+      <c r="I46" s="170">
+        <v>97.185000000000002</v>
+      </c>
+      <c r="J46" s="171">
+        <v>2435</v>
+      </c>
+      <c r="K46" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="L46" s="220"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="201"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="171"/>
+      <c r="L47" s="220"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="200" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="168" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="168">
+        <v>97.27</v>
+      </c>
+      <c r="E48" s="168" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="168">
+        <v>97.2</v>
+      </c>
+      <c r="G48" s="168">
+        <v>97.15</v>
+      </c>
+      <c r="H48" s="168">
+        <v>97.37</v>
+      </c>
+      <c r="I48" s="168">
+        <v>97.15</v>
+      </c>
+      <c r="J48" s="169">
+        <v>3040</v>
+      </c>
+      <c r="K48" s="169" t="s">
+        <v>265</v>
+      </c>
+      <c r="L48" s="220"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="200"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="169"/>
+      <c r="L49" s="220"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="201" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="170" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="170">
+        <v>97.224999999999994</v>
+      </c>
+      <c r="E50" s="170" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="170">
+        <v>97.165000000000006</v>
+      </c>
+      <c r="G50" s="170">
+        <v>97.114999999999995</v>
+      </c>
+      <c r="H50" s="170">
+        <v>97.33</v>
+      </c>
+      <c r="I50" s="170">
+        <v>97.11</v>
+      </c>
+      <c r="J50" s="171">
+        <v>1867</v>
+      </c>
+      <c r="K50" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="L50" s="220"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="201"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="170"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="220"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="172" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="172">
+        <v>97.18</v>
+      </c>
+      <c r="E52" s="172" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="172">
+        <v>97.13</v>
+      </c>
+      <c r="G52" s="172">
+        <v>97.09</v>
+      </c>
+      <c r="H52" s="172">
+        <v>97.29</v>
+      </c>
+      <c r="I52" s="172">
+        <v>97.075000000000003</v>
+      </c>
+      <c r="J52" s="173">
+        <v>1810</v>
+      </c>
+      <c r="K52" s="173" t="s">
+        <v>266</v>
+      </c>
+      <c r="L52" s="220"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="202"/>
+      <c r="C53" s="172"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="172"/>
+      <c r="G53" s="172"/>
+      <c r="H53" s="172"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="173"/>
+      <c r="K53" s="173"/>
+      <c r="L53" s="220"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="203" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="174" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="174">
+        <v>97.135000000000005</v>
+      </c>
+      <c r="E54" s="174" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="174">
+        <v>97.094999999999999</v>
+      </c>
+      <c r="G54" s="174">
+        <v>97.05</v>
+      </c>
+      <c r="H54" s="174">
+        <v>97.18</v>
+      </c>
+      <c r="I54" s="174">
+        <v>97.05</v>
+      </c>
+      <c r="J54" s="175">
+        <v>158</v>
+      </c>
+      <c r="K54" s="175" t="s">
+        <v>266</v>
+      </c>
+      <c r="L54" s="220"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="203"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
+      <c r="E55" s="174"/>
+      <c r="F55" s="174"/>
+      <c r="G55" s="174"/>
+      <c r="H55" s="174"/>
+      <c r="I55" s="174"/>
+      <c r="J55" s="175"/>
+      <c r="K55" s="175"/>
+      <c r="L55" s="220"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="202" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="172" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="172">
+        <v>97.135000000000005</v>
+      </c>
+      <c r="E56" s="172" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56" s="172">
+        <v>97.055000000000007</v>
+      </c>
+      <c r="G56" s="172">
+        <v>97.19</v>
+      </c>
+      <c r="H56" s="172">
+        <v>97.19</v>
+      </c>
+      <c r="I56" s="172">
+        <v>97.135000000000005</v>
+      </c>
+      <c r="J56" s="173">
+        <v>34</v>
+      </c>
+      <c r="K56" s="173" t="s">
+        <v>266</v>
+      </c>
+      <c r="L56" s="220"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="202"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="172"/>
+      <c r="F57" s="172"/>
+      <c r="G57" s="172"/>
+      <c r="H57" s="172"/>
+      <c r="I57" s="172"/>
+      <c r="J57" s="173"/>
+      <c r="K57" s="173"/>
+      <c r="L57" s="220"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="203" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="174" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="174">
+        <v>97.03</v>
+      </c>
+      <c r="G58" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="175">
+        <v>0</v>
+      </c>
+      <c r="K58" s="175" t="s">
+        <v>266</v>
+      </c>
+      <c r="L58" s="220"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="203"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
+      <c r="E59" s="174"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="174"/>
+      <c r="H59" s="174"/>
+      <c r="I59" s="174"/>
+      <c r="J59" s="175"/>
+      <c r="K59" s="175"/>
+      <c r="L59" s="220"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="204" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="176" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="176">
+        <v>96.995000000000005</v>
+      </c>
+      <c r="G60" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="177">
+        <v>0</v>
+      </c>
+      <c r="K60" s="177" t="s">
+        <v>267</v>
+      </c>
+      <c r="L60" s="220"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="204"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="176"/>
+      <c r="G61" s="176"/>
+      <c r="H61" s="176"/>
+      <c r="I61" s="176"/>
+      <c r="J61" s="177"/>
+      <c r="K61" s="177"/>
+      <c r="L61" s="220"/>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="205" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="178" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="178">
+        <v>96.96</v>
+      </c>
+      <c r="G62" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="179">
+        <v>0</v>
+      </c>
+      <c r="K62" s="179" t="s">
+        <v>267</v>
+      </c>
+      <c r="L62" s="220"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="205"/>
+      <c r="C63" s="178"/>
+      <c r="D63" s="178"/>
+      <c r="E63" s="178"/>
+      <c r="F63" s="178"/>
+      <c r="G63" s="178"/>
+      <c r="H63" s="178"/>
+      <c r="I63" s="178"/>
+      <c r="J63" s="179"/>
+      <c r="K63" s="179"/>
+      <c r="L63" s="220"/>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="176" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="176">
+        <v>96.92</v>
+      </c>
+      <c r="G64" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="177">
+        <v>19</v>
+      </c>
+      <c r="K64" s="177" t="s">
+        <v>267</v>
+      </c>
+      <c r="L64" s="220"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="204"/>
+      <c r="C65" s="176"/>
+      <c r="D65" s="176"/>
+      <c r="E65" s="176"/>
+      <c r="F65" s="176"/>
+      <c r="G65" s="176"/>
+      <c r="H65" s="176"/>
+      <c r="I65" s="176"/>
+      <c r="J65" s="177"/>
+      <c r="K65" s="177"/>
+      <c r="L65" s="220"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="205" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="178" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="178">
+        <v>96.89</v>
+      </c>
+      <c r="G66" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" s="179">
+        <v>0</v>
+      </c>
+      <c r="K66" s="179" t="s">
+        <v>267</v>
+      </c>
+      <c r="L66" s="220"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="205"/>
+      <c r="C67" s="178"/>
+      <c r="D67" s="178"/>
+      <c r="E67" s="178"/>
+      <c r="F67" s="178"/>
+      <c r="G67" s="178"/>
+      <c r="H67" s="178"/>
+      <c r="I67" s="178"/>
+      <c r="J67" s="179"/>
+      <c r="K67" s="179"/>
+      <c r="L67" s="220"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="206" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="180" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="180">
+        <v>96.85</v>
+      </c>
+      <c r="G68" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" s="181">
+        <v>0</v>
+      </c>
+      <c r="K68" s="181" t="s">
+        <v>268</v>
+      </c>
+      <c r="L68" s="220"/>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="206"/>
+      <c r="C69" s="180"/>
+      <c r="D69" s="180"/>
+      <c r="E69" s="180"/>
+      <c r="F69" s="180"/>
+      <c r="G69" s="180"/>
+      <c r="H69" s="180"/>
+      <c r="I69" s="180"/>
+      <c r="J69" s="181"/>
+      <c r="K69" s="181"/>
+      <c r="L69" s="220"/>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="207" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="182" t="s">
+        <v>250</v>
+      </c>
+      <c r="D70" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="182">
+        <v>96.82</v>
+      </c>
+      <c r="G70" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="183">
+        <v>0</v>
+      </c>
+      <c r="K70" s="183" t="s">
+        <v>268</v>
+      </c>
+      <c r="L70" s="220"/>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="207"/>
+      <c r="C71" s="182"/>
+      <c r="D71" s="182"/>
+      <c r="E71" s="182"/>
+      <c r="F71" s="182"/>
+      <c r="G71" s="182"/>
+      <c r="H71" s="182"/>
+      <c r="I71" s="182"/>
+      <c r="J71" s="183"/>
+      <c r="K71" s="183"/>
+      <c r="L71" s="220"/>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="206" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="180" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="180">
+        <v>96.79</v>
+      </c>
+      <c r="G72" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="180" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="181">
+        <v>0</v>
+      </c>
+      <c r="K72" s="181" t="s">
+        <v>268</v>
+      </c>
+      <c r="L72" s="220"/>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="206"/>
+      <c r="C73" s="180"/>
+      <c r="D73" s="180"/>
+      <c r="E73" s="180"/>
+      <c r="F73" s="180"/>
+      <c r="G73" s="180"/>
+      <c r="H73" s="180"/>
+      <c r="I73" s="180"/>
+      <c r="J73" s="181"/>
+      <c r="K73" s="181"/>
+      <c r="L73" s="220"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="207" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="182">
+        <v>96.765000000000001</v>
+      </c>
+      <c r="G74" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="182" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="183">
+        <v>0</v>
+      </c>
+      <c r="K74" s="183" t="s">
+        <v>268</v>
+      </c>
+      <c r="L74" s="220"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="207"/>
+      <c r="C75" s="182"/>
+      <c r="D75" s="182"/>
+      <c r="E75" s="182"/>
+      <c r="F75" s="182"/>
+      <c r="G75" s="182"/>
+      <c r="H75" s="182"/>
+      <c r="I75" s="182"/>
+      <c r="J75" s="183"/>
+      <c r="K75" s="183"/>
+      <c r="L75" s="220"/>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="208" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="184">
+        <v>96.724999999999994</v>
+      </c>
+      <c r="G76" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="J76" s="185">
+        <v>0</v>
+      </c>
+      <c r="K76" s="185" t="s">
+        <v>269</v>
+      </c>
+      <c r="L76" s="220"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="208"/>
+      <c r="C77" s="184"/>
+      <c r="D77" s="184"/>
+      <c r="E77" s="184"/>
+      <c r="F77" s="184"/>
+      <c r="G77" s="184"/>
+      <c r="H77" s="184"/>
+      <c r="I77" s="184"/>
+      <c r="J77" s="185"/>
+      <c r="K77" s="185"/>
+      <c r="L77" s="220"/>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="209" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="186" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="186">
+        <v>96.685000000000002</v>
+      </c>
+      <c r="G78" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="187">
+        <v>0</v>
+      </c>
+      <c r="K78" s="187" t="s">
+        <v>269</v>
+      </c>
+      <c r="L78" s="220"/>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="209"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
+      <c r="E79" s="186"/>
+      <c r="F79" s="186"/>
+      <c r="G79" s="186"/>
+      <c r="H79" s="186"/>
+      <c r="I79" s="186"/>
+      <c r="J79" s="187"/>
+      <c r="K79" s="187"/>
+      <c r="L79" s="220"/>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="208" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="184" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="184">
+        <v>96.67</v>
+      </c>
+      <c r="G80" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="185">
+        <v>0</v>
+      </c>
+      <c r="K80" s="185" t="s">
+        <v>269</v>
+      </c>
+      <c r="L80" s="220"/>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="208"/>
+      <c r="C81" s="184"/>
+      <c r="D81" s="184"/>
+      <c r="E81" s="184"/>
+      <c r="F81" s="184"/>
+      <c r="G81" s="184"/>
+      <c r="H81" s="184"/>
+      <c r="I81" s="184"/>
+      <c r="J81" s="185"/>
+      <c r="K81" s="185"/>
+      <c r="L81" s="220"/>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="209" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="186">
+        <v>96.644999999999996</v>
+      </c>
+      <c r="G82" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="187">
+        <v>0</v>
+      </c>
+      <c r="K82" s="187" t="s">
+        <v>269</v>
+      </c>
+      <c r="L82" s="220"/>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="209"/>
+      <c r="C83" s="186"/>
+      <c r="D83" s="186"/>
+      <c r="E83" s="186"/>
+      <c r="F83" s="186"/>
+      <c r="G83" s="186"/>
+      <c r="H83" s="186"/>
+      <c r="I83" s="186"/>
+      <c r="J83" s="187"/>
+      <c r="K83" s="187"/>
+      <c r="L83" s="220"/>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="210" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="188" t="s">
+        <v>257</v>
+      </c>
+      <c r="D84" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="188">
+        <v>96.62</v>
+      </c>
+      <c r="G84" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="189">
+        <v>0</v>
+      </c>
+      <c r="K84" s="189" t="s">
+        <v>270</v>
+      </c>
+      <c r="L84" s="220"/>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="210"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
+      <c r="F85" s="188"/>
+      <c r="G85" s="188"/>
+      <c r="H85" s="188"/>
+      <c r="I85" s="188"/>
+      <c r="J85" s="189"/>
+      <c r="K85" s="189"/>
+      <c r="L85" s="220"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="211" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="190" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="190" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="190">
+        <v>96.6</v>
+      </c>
+      <c r="G86" s="190" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" s="190" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="190" t="s">
+        <v>38</v>
+      </c>
+      <c r="J86" s="191">
+        <v>0</v>
+      </c>
+      <c r="K86" s="191" t="s">
+        <v>270</v>
+      </c>
+      <c r="L86" s="220"/>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="211"/>
+      <c r="C87" s="190"/>
+      <c r="D87" s="190"/>
+      <c r="E87" s="190"/>
+      <c r="F87" s="190"/>
+      <c r="G87" s="190"/>
+      <c r="H87" s="190"/>
+      <c r="I87" s="190"/>
+      <c r="J87" s="191"/>
+      <c r="K87" s="191"/>
+      <c r="L87" s="220"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="210" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="188" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="188">
+        <v>96.59</v>
+      </c>
+      <c r="G88" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="J88" s="189">
+        <v>0</v>
+      </c>
+      <c r="K88" s="189" t="s">
+        <v>270</v>
+      </c>
+      <c r="L88" s="220"/>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="212"/>
+      <c r="C89" s="213"/>
+      <c r="D89" s="213"/>
+      <c r="E89" s="213"/>
+      <c r="F89" s="213"/>
+      <c r="G89" s="213"/>
+      <c r="H89" s="213"/>
+      <c r="I89" s="213"/>
+      <c r="J89" s="214"/>
+      <c r="K89" s="214"/>
+      <c r="L89" s="220"/>
     </row>
   </sheetData>
+  <mergeCells count="400">
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7940,23 +11171,23 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="G3" s="98"/>
     </row>
-    <row r="4" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="16.2" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -7970,10 +11201,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="98" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickTop="1">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7982,17 +11213,17 @@
       </c>
       <c r="D5" s="4">
         <f ca="1">2*RAND()*$D$2</f>
-        <v>3.8106559132000672E-3</v>
+        <v>3.0426698232312663</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E14" ca="1" si="0">(1+C5/360*D5/100)</f>
-        <v>1.0000001058515531</v>
+        <v>1.0000845186062008</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8001,15 +11232,15 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ref="D6:D14" ca="1" si="1">2*RAND()*$D$2</f>
-        <v>8.1891728623348676</v>
+        <v>1.4978984690818209</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002274770239536</v>
+        <v>1.0000416082908079</v>
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8018,14 +11249,14 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21205582677847001</v>
+        <v>0.82875756819927093</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000058904396327</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.000023021043561</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8034,14 +11265,14 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5230093476630699</v>
+        <v>2.0501083420696151</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002367502596574</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.0000569474539465</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -8050,14 +11281,14 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7498199908231489</v>
+        <v>4.5843124247741374</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0003124849992353</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.0003820260353979</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -8066,14 +11297,14 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3634112522896107</v>
+        <v>0.4175914066931341</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.000148983645897</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.0000115997612971</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -8082,14 +11313,14 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6450292088425797</v>
+        <v>5.8408983984493865</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001568063669124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.0001622471777347</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8098,14 +11329,14 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8825565779408215</v>
+        <v>5.9729027185419294</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.000191182127165</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.0001659139644039</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -8114,17 +11345,17 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4327579789014608</v>
+        <v>1.8521011460784731</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002064654994138</v>
+        <v>1.0000514472540578</v>
       </c>
       <c r="G13" s="98" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -8133,22 +11364,22 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6506765863540662</v>
+        <v>0.89480928472235766</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001375563821961</v>
+        <v>1.0000745674403935</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="G15" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.6">
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -8159,22 +11390,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" ht="15" thickBot="1">
       <c r="C17" s="3">
         <f>SUM(C5:C15)</f>
         <v>14</v>
       </c>
       <c r="D17" s="6">
         <f ca="1">SUMPRODUCT(D5:D14,C5:C14)/C17</f>
-        <v>4.1752352458711233</v>
+        <v>2.7100209286310277</v>
       </c>
       <c r="E17" s="6">
         <f ca="1">(PRODUCT(E5:E15)-1)*(360/C17)*100</f>
-        <v>4.1781756225674247</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+        <v>2.7111653631049268</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="15" thickTop="1"/>
+    <row r="19" spans="3:5">
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
@@ -8185,7 +11416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
@@ -8196,7 +11427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" ht="15.6">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -8207,20 +11438,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:5" ht="15" thickBot="1">
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="6">
         <f ca="1">100-D17</f>
-        <v>95.824764754128879</v>
+        <v>97.289979071368975</v>
       </c>
       <c r="E23" s="6">
         <f ca="1">100-E17</f>
-        <v>95.821824377432577</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>97.288834636895075</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15" thickTop="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/03 Products & Pricing/09 Futures/Futures.xlsx
+++ b/03 Products & Pricing/09 Futures/Futures.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\09 Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49FFDBA-373F-4417-8235-68D5C0C80A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF565A4-85D6-453D-87B3-146BEC67D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts &amp; Margin" sheetId="3" r:id="rId1"/>
     <sheet name="Trading" sheetId="5" r:id="rId2"/>
-    <sheet name="Tickers" sheetId="2" r:id="rId3"/>
-    <sheet name="Payoff" sheetId="7" r:id="rId4"/>
-    <sheet name="USD 3M SOFR Futures Chain" sheetId="4" r:id="rId5"/>
-    <sheet name="Compound Interest" sheetId="1" r:id="rId6"/>
+    <sheet name="Hedging" sheetId="8" r:id="rId3"/>
+    <sheet name="Tickers" sheetId="2" r:id="rId4"/>
+    <sheet name="Payoff" sheetId="7" r:id="rId5"/>
+    <sheet name="USD 3M SOFR Futures Chain" sheetId="4" r:id="rId6"/>
+    <sheet name="Compound Interest" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Contract_Size">Payoff!$C$5</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="292">
   <si>
     <t>Weekday</t>
   </si>
@@ -463,24 +464,6 @@
     <t>Futures Profit / Loss Formula</t>
   </si>
   <si>
-    <t>Buy 10 Futures @ 9910</t>
-  </si>
-  <si>
-    <t>Settlement Price @ 9942</t>
-  </si>
-  <si>
-    <t>Settlement Price @ 9932</t>
-  </si>
-  <si>
-    <t>Sell 6 Futures @ 9927</t>
-  </si>
-  <si>
-    <t>Settlement Price @ 9925</t>
-  </si>
-  <si>
-    <t>Sell 4 Futures @ 9938</t>
-  </si>
-  <si>
     <t>P&amp;L, Cash Flow and Margin Calculations</t>
   </si>
   <si>
@@ -1012,6 +995,90 @@
   <si>
     <t>Futures Chain: Three-Month SOFR Futures</t>
   </si>
+  <si>
+    <t>Hedge</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Year Fraction</t>
+  </si>
+  <si>
+    <t>Loan 6m</t>
+  </si>
+  <si>
+    <t>Funding 3m</t>
+  </si>
+  <si>
+    <t>Breakeven</t>
+  </si>
+  <si>
+    <t>Futures Hedge</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Sell Future (Entry)</t>
+  </si>
+  <si>
+    <t>Buy Future (Close)</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Position P&amp;L</t>
+  </si>
+  <si>
+    <t>Hedge P&amp;L</t>
+  </si>
+  <si>
+    <t>Rollover Funding</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Loan Position</t>
+  </si>
+  <si>
+    <t>Buy 10 Futures
+@ 9910</t>
+  </si>
+  <si>
+    <t>Settlement Price
+@ 9942</t>
+  </si>
+  <si>
+    <t>Settlement Price
+@ 9932</t>
+  </si>
+  <si>
+    <t>Sell 6 Futures
+@ 9927</t>
+  </si>
+  <si>
+    <t>Settlement Price
+@ 9925</t>
+  </si>
+  <si>
+    <t>Sell 4 Futures
+@ 9938</t>
+  </si>
 </sst>
 </file>
 
@@ -1026,7 +1093,7 @@
     <numFmt numFmtId="169" formatCode="_+#,##0;_-\(#,##0\)"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,6 +1304,36 @@
       <sz val="22"/>
       <color rgb="FF25323C"/>
       <name val="Roboto-Mono-Regular"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1708,7 +1805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1870,9 +1967,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1894,21 +1988,12 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1927,54 +2012,19 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="10" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1995,347 +2045,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2346,6 +2057,499 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="35" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="34" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2356,16 +2560,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFCC9900"/>
       <color rgb="FFDDDDDD"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCCCC00"/>
-      <color rgb="FFFFCC00"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF006600"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4539,14 +4743,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>42916</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>980176</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>195103</xdr:rowOff>
+      <xdr:rowOff>172243</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4248817" cy="246857"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -4560,7 +4764,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10086076" y="393223"/>
+              <a:off x="10299436" y="370363"/>
               <a:ext cx="4248817" cy="246857"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4763,7 +4967,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -4777,7 +4981,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10086076" y="393223"/>
+              <a:off x="10299436" y="370363"/>
               <a:ext cx="4248817" cy="246857"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7100,7 +7304,7 @@
       <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="13"/>
@@ -7153,7 +7357,7 @@
     </row>
     <row r="7" spans="2:20" ht="16.2" thickBot="1">
       <c r="B7" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -7177,11 +7381,11 @@
       <c r="H8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="114" t="s">
+      <c r="I8" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
       <c r="L8" s="34" t="s">
         <v>56</v>
       </c>
@@ -7220,11 +7424,11 @@
       <c r="H9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="116" t="s">
+      <c r="I9" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
       <c r="L9" s="30" t="s">
         <v>57</v>
       </c>
@@ -7263,11 +7467,11 @@
       <c r="H10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
       <c r="L10" s="31" t="s">
         <v>57</v>
       </c>
@@ -7306,11 +7510,11 @@
       <c r="H11" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
       <c r="L11" s="44" t="s">
         <v>57</v>
       </c>
@@ -7349,11 +7553,11 @@
       <c r="H12" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="106" t="s">
+      <c r="I12" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
       <c r="L12" s="36" t="s">
         <v>58</v>
       </c>
@@ -7392,11 +7596,11 @@
       <c r="H13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="106" t="s">
+      <c r="I13" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
       <c r="L13" s="31" t="s">
         <v>58</v>
       </c>
@@ -7435,11 +7639,11 @@
       <c r="H14" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="108" t="s">
+      <c r="I14" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
       <c r="L14" s="49" t="s">
         <v>59</v>
       </c>
@@ -7478,11 +7682,11 @@
       <c r="H15" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
       <c r="L15" s="44" t="s">
         <v>59</v>
       </c>
@@ -7521,11 +7725,11 @@
       <c r="H16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="112" t="s">
+      <c r="I16" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
       <c r="L16" s="37" t="s">
         <v>60</v>
       </c>
@@ -7561,7 +7765,7 @@
         <v>75</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -7780,89 +7984,98 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="15.77734375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="24" style="14" customWidth="1"/>
     <col min="4" max="4" width="27.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="14" customWidth="1"/>
-    <col min="9" max="10" width="18.77734375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14" style="14" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="14" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="I1" s="118" t="s">
+      <c r="H1" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="58"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="61" t="str">
+      <c r="C3" s="221" t="str">
         <f>VLOOKUP($C$2,FuturesTable,2,0)</f>
         <v>USD 3M SOFR Futures</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="61">
         <f>VLOOKUP($C$2,FuturesTable,6,0)</f>
         <v>1000000</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="60"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="16"/>
       <c r="B5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="62">
         <f>VLOOKUP($C$2,FuturesTable,8,0)</f>
         <v>25</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="61">
         <f>VLOOKUP($C$2,FuturesTable,9,0)</f>
         <v>2500</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.2" thickBot="1"/>
@@ -7892,298 +8105,298 @@
         <v>89</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="31.2">
-      <c r="B9" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70" t="s">
+      <c r="B9" s="251" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="257">
         <v>25000</v>
       </c>
-      <c r="H9" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80">
+      <c r="H9" s="254" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245">
         <f>-10*2500</f>
         <v>-25000</v>
       </c>
-      <c r="K9" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="82">
+      <c r="K9" s="246" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="260">
         <f>-J9</f>
         <v>25000</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="31.2">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="71">
+      <c r="B10" s="252"/>
+      <c r="C10" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="258">
         <f>F9+I10</f>
         <v>33000</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="83">
+      <c r="H10" s="255"/>
+      <c r="I10" s="247">
         <f>(9942-9910)*25*10</f>
         <v>8000</v>
       </c>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84">
+      <c r="J10" s="247"/>
+      <c r="K10" s="247"/>
+      <c r="L10" s="261">
         <f t="shared" ref="L10:L19" si="0">L9+I10-J10</f>
         <v>33000</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.8" thickBot="1">
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="75">
+      <c r="B11" s="253"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="259">
         <f>F10-J11</f>
         <v>25000</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85">
+      <c r="H11" s="256"/>
+      <c r="I11" s="248"/>
+      <c r="J11" s="248">
         <f>I10</f>
         <v>8000</v>
       </c>
-      <c r="K11" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="87">
+      <c r="K11" s="249" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="262">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="31.2">
-      <c r="B12" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71">
+      <c r="B12" s="235" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="228" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="229" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="228"/>
+      <c r="F12" s="236">
         <f>F11+I12</f>
         <v>22500</v>
       </c>
-      <c r="H12" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="80">
+      <c r="H12" s="235" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="242">
         <f>(9932-9942)*25*10</f>
         <v>-2500</v>
       </c>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="82">
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="263">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.8" thickBot="1">
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="75">
+      <c r="B13" s="237"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="230" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="238">
         <f>F12-J13</f>
         <v>25000</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85">
+      <c r="H13" s="237"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="243">
         <f>I12</f>
         <v>-2500</v>
       </c>
-      <c r="K13" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="87">
+      <c r="K13" s="244" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="264">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.2">
-      <c r="B14" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71">
+      <c r="B14" s="252" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="258">
         <f>F13+I14</f>
         <v>24250</v>
       </c>
-      <c r="H14" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="80">
+      <c r="H14" s="255" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="245">
         <f>(9927-9932)*25*6</f>
         <v>-750</v>
       </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="82">
+      <c r="J14" s="245"/>
+      <c r="K14" s="245"/>
+      <c r="L14" s="260">
         <f t="shared" si="0"/>
         <v>24250</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.2">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71">
+      <c r="B15" s="252"/>
+      <c r="C15" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="258">
         <f>F14+I15</f>
         <v>23550</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="83">
+      <c r="H15" s="255"/>
+      <c r="I15" s="247">
         <f>(9925-9932)*25*4</f>
         <v>-700</v>
       </c>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84">
+      <c r="J15" s="247"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="261">
         <f t="shared" si="0"/>
         <v>23550</v>
       </c>
-      <c r="M15" s="92"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13" ht="46.8">
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="71">
+      <c r="B16" s="252"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="258">
         <f>F15-J16</f>
         <v>25000</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83">
+      <c r="H16" s="255"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="247">
         <f>I14+I15</f>
         <v>-1450</v>
       </c>
-      <c r="K16" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="84">
+      <c r="K16" s="250" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="261">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="31.8" thickBot="1">
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="75">
+      <c r="B17" s="253"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="259">
         <f>F16-J17</f>
         <v>10000</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85">
+      <c r="H17" s="256"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="248">
         <v>15000</v>
       </c>
-      <c r="K17" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="87">
+      <c r="K17" s="249" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="262">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="31.2">
-      <c r="B18" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="95">
+      <c r="B18" s="239" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="232" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="233" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="232"/>
+      <c r="F18" s="240">
         <f>F17+I18</f>
         <v>11300</v>
       </c>
-      <c r="H18" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="80">
+      <c r="H18" s="239" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="242">
         <f>(9938-9925)*25*4</f>
         <v>1300</v>
       </c>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="82">
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="263">
         <f t="shared" si="0"/>
         <v>11300</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="47.4" thickBot="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="75">
+      <c r="B19" s="241"/>
+      <c r="C19" s="234"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="230" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="238">
         <v>0</v>
       </c>
-      <c r="H19" s="96"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85">
+      <c r="H19" s="241"/>
+      <c r="I19" s="243"/>
+      <c r="J19" s="243">
         <v>11300</v>
       </c>
-      <c r="K19" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="87">
+      <c r="K19" s="244" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8204,62 +8417,285 @@
         <v>95</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="89" t="s">
+      <c r="I22" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="89" t="s">
+      <c r="J22" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90" t="s">
+      <c r="K22" s="78"/>
+      <c r="L22" s="79" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78" t="s">
+      <c r="B23" s="73"/>
+      <c r="C23" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="75">
         <f>8000-2500-750-700+1300</f>
         <v>5350</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="75">
         <f>-25000+8000-2500-1450+15000+11300</f>
         <v>5350</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="71">
         <v>0</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="85">
+      <c r="H23" s="73"/>
+      <c r="I23" s="76">
         <f>SUM(I9:I19)</f>
         <v>5350</v>
       </c>
-      <c r="J23" s="85">
+      <c r="J23" s="76">
         <f>SUM(J9:J19)</f>
         <v>5350</v>
       </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="87">
+      <c r="K23" s="76"/>
+      <c r="L23" s="77">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 G2:H2" xr:uid="{93E04E14-0128-4890-B428-E87354E1F1FA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 G2" xr:uid="{93E04E14-0128-4890-B428-E87354E1F1FA}">
       <formula1>FuturesTickers</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F11 F13" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E0FDA-295D-453D-830E-FDFD564068EC}">
+  <dimension ref="B2:K16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="10" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="98">
+        <v>20000000</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="98">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="G4" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="101">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="108">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D8" s="98">
+        <v>181</v>
+      </c>
+      <c r="E8" s="99">
+        <f>D8/360</f>
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="G8" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="98">
+        <f>I8*100</f>
+        <v>9705</v>
+      </c>
+      <c r="I8" s="107">
+        <v>97.05</v>
+      </c>
+      <c r="J8" s="97">
+        <f>(100-I8)/100</f>
+        <v>2.950000000000003E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="108">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D9" s="98">
+        <v>91</v>
+      </c>
+      <c r="E9" s="99">
+        <f>D9/360</f>
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="G9" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="98">
+        <f>I9*100</f>
+        <v>9750</v>
+      </c>
+      <c r="I9" s="107">
+        <v>97.5</v>
+      </c>
+      <c r="J9" s="97">
+        <f>(100-I9)/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="100">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D10" s="98">
+        <v>90</v>
+      </c>
+      <c r="E10" s="99">
+        <f>D10/360</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="9"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="F12" s="4"/>
+      <c r="G12" s="109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="110">
+        <f>(C14-C10)*E10*C3</f>
+        <v>-25239.370165899727</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="110">
+        <f>IF($G$12="Short Future",-1,1)*(H8-H9)*H4*H14</f>
+        <v>22500</v>
+      </c>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="102">
+        <f>((1+C8*E8)/(1+C9*E9)-1)/E10</f>
+        <v>1.9952125966820056E-2</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="104" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="102">
+        <f>C8-C9</f>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="F16" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12" xr:uid="{02E6814C-0B71-42F0-B737-B269CCF6926A}">
+      <formula1>"Long Future, Short Future"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J25"/>
   <sheetViews>
@@ -8271,284 +8707,284 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="128" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="134" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="138"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="142" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="146">
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="148">
         <v>23</v>
       </c>
-      <c r="I4" s="137"/>
-      <c r="J4" s="138"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="150"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="128" t="s">
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="134" t="s">
+      <c r="F8" s="131"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="140"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="142" t="s">
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="146">
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="148">
         <v>3</v>
       </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="138"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="140"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="105" t="str">
+      <c r="D15" s="88" t="str">
         <f t="shared" ref="D15:D18" si="0">B15&amp;C15</f>
         <v>EDH3</v>
       </c>
-      <c r="E15" s="123" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
+      <c r="E15" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="105" t="str">
+      <c r="D16" s="88" t="str">
         <f t="shared" si="0"/>
         <v>EDM3</v>
       </c>
-      <c r="E16" s="123" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
+      <c r="E16" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="105" t="str">
+      <c r="D17" s="88" t="str">
         <f t="shared" si="0"/>
         <v>EDU3</v>
       </c>
-      <c r="E17" s="123" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
+      <c r="E17" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="105" t="str">
+      <c r="D18" s="88" t="str">
         <f t="shared" si="0"/>
         <v>EDZ3</v>
       </c>
-      <c r="E18" s="123" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
+      <c r="E18" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="121" t="s">
+      <c r="E21" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="105" t="str">
+      <c r="D22" s="88" t="str">
         <f t="shared" ref="D22:D25" si="1">B22&amp;C22</f>
         <v>SR3H3</v>
       </c>
-      <c r="E22" s="123" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
+      <c r="E22" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="105" t="str">
+      <c r="D23" s="88" t="str">
         <f t="shared" si="1"/>
         <v>SR3M3</v>
       </c>
-      <c r="E23" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
+      <c r="E23" s="125" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="105" t="str">
+      <c r="D24" s="88" t="str">
         <f t="shared" si="1"/>
         <v>SR3U3</v>
       </c>
-      <c r="E24" s="123" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
+      <c r="E24" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="105" t="str">
+      <c r="D25" s="88" t="str">
         <f t="shared" si="1"/>
         <v>SR3Z3</v>
       </c>
-      <c r="E25" s="123" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
+      <c r="E25" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8581,7 +9017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB94BC4B-E0C6-4C42-B716-DBBB47A3AF27}">
   <dimension ref="B2:F22"/>
   <sheetViews>
@@ -8597,32 +9033,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="98"/>
+      <c r="B2" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="81"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="82">
         <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="101">
+        <v>130</v>
+      </c>
+      <c r="C6" s="84">
         <v>98.5</v>
       </c>
     </row>
@@ -8635,10 +9071,10 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="102">
+      <c r="B8" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="85">
         <v>1E-4</v>
       </c>
     </row>
@@ -8652,16 +9088,16 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -8678,11 +9114,11 @@
         <f t="shared" ref="D12:D22" si="0">(B12-Futures_Price)*Tick_Value*100</f>
         <v>125.00000000006395</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="82">
         <f t="shared" ref="E12:E22" si="1">-(B12-Futures_Price)*Tick_Value*100</f>
         <v>-125.00000000006395</v>
       </c>
-      <c r="F12" s="99"/>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="4">
@@ -8697,11 +9133,11 @@
         <f t="shared" si="0"/>
         <v>100.00000000005116</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="82">
         <f t="shared" si="1"/>
         <v>-100.00000000005116</v>
       </c>
-      <c r="F13" s="99"/>
+      <c r="F13" s="82"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="4">
@@ -8716,11 +9152,11 @@
         <f t="shared" si="0"/>
         <v>75.000000000038369</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="82">
         <f t="shared" si="1"/>
         <v>-75.000000000038369</v>
       </c>
-      <c r="F14" s="99"/>
+      <c r="F14" s="82"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="4">
@@ -8735,11 +9171,11 @@
         <f t="shared" si="0"/>
         <v>50.00000000002558</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="82">
         <f t="shared" si="1"/>
         <v>-50.00000000002558</v>
       </c>
-      <c r="F15" s="99"/>
+      <c r="F15" s="82"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="4">
@@ -8754,30 +9190,30 @@
         <f t="shared" si="0"/>
         <v>25.00000000001279</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="82">
         <f t="shared" si="1"/>
         <v>-25.00000000001279</v>
       </c>
-      <c r="F16" s="99"/>
+      <c r="F16" s="82"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="101">
+      <c r="B17" s="84">
         <f>Futures_Price</f>
         <v>98.5</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="84">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="99"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="4">
@@ -8792,11 +9228,11 @@
         <f t="shared" si="0"/>
         <v>-25.00000000001279</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="82">
         <f t="shared" si="1"/>
         <v>25.00000000001279</v>
       </c>
-      <c r="F18" s="99"/>
+      <c r="F18" s="82"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="4">
@@ -8811,11 +9247,11 @@
         <f t="shared" si="0"/>
         <v>-50.00000000002558</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="82">
         <f t="shared" si="1"/>
         <v>50.00000000002558</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="82"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="4">
@@ -8830,11 +9266,11 @@
         <f t="shared" si="0"/>
         <v>-75.000000000038369</v>
       </c>
-      <c r="E20" s="99">
+      <c r="E20" s="82">
         <f t="shared" si="1"/>
         <v>75.000000000038369</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="82"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="4">
@@ -8849,11 +9285,11 @@
         <f t="shared" si="0"/>
         <v>-100.00000000005116</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="82">
         <f t="shared" si="1"/>
         <v>100.00000000005116</v>
       </c>
-      <c r="F21" s="99"/>
+      <c r="F21" s="82"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="4">
@@ -8868,11 +9304,11 @@
         <f t="shared" si="0"/>
         <v>-125.00000000006395</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="82">
         <f t="shared" si="1"/>
         <v>125.00000000006395</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8880,9 +9316,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09AD1A9-5428-4C82-A9BD-6D4983407C24}">
-  <dimension ref="B2:AQ89"/>
+  <dimension ref="B2:M89"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -8890,137 +9326,137 @@
   <cols>
     <col min="2" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="149" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="89" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
     <col min="7" max="10" width="10.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="M2" s="98" t="s">
-        <v>217</v>
+      <c r="M2" s="81" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="M3" s="223" t="s">
-        <v>216</v>
+      <c r="M3" s="93" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="M4" s="24"/>
     </row>
     <row r="6" spans="2:13" ht="27.6">
-      <c r="B6" s="222" t="s">
-        <v>271</v>
+      <c r="B6" s="92" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="221"/>
+      <c r="B7" s="91"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="215" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="216" t="s">
+      <c r="B10" s="196" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="154" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="154" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="154" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" s="90"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="197"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="90"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="198" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="216" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="216" t="s">
+      <c r="C12" s="151" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="151">
+        <v>98.117500000000007</v>
+      </c>
+      <c r="E12" s="156" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="216" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="216" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="216" t="s">
-        <v>154</v>
-      </c>
-      <c r="I10" s="216" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="216" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" s="216" t="s">
-        <v>260</v>
-      </c>
-      <c r="L10" s="220"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="217"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="220"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="192" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="150" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="150">
-        <v>98.117500000000007</v>
-      </c>
-      <c r="E12" s="151" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="150">
+      <c r="F12" s="151">
         <v>98.122500000000002</v>
       </c>
-      <c r="G12" s="150">
+      <c r="G12" s="151">
         <v>98.122500000000002</v>
       </c>
-      <c r="H12" s="150">
+      <c r="H12" s="151">
         <v>98.147499999999994</v>
       </c>
-      <c r="I12" s="150">
+      <c r="I12" s="151">
         <v>98.11</v>
       </c>
       <c r="J12" s="152">
         <v>45593</v>
       </c>
-      <c r="K12" s="150" t="s">
-        <v>261</v>
-      </c>
-      <c r="L12" s="220"/>
+      <c r="K12" s="151" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="90"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="192"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
       <c r="J13" s="152"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="220"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="90"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="193" t="s">
-        <v>159</v>
+      <c r="B14" s="199" t="s">
+        <v>153</v>
       </c>
       <c r="C14" s="153" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D14" s="153">
         <v>97.06</v>
       </c>
       <c r="E14" s="153" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F14" s="153">
         <v>97.045000000000002</v>
@@ -9034,16 +9470,16 @@
       <c r="I14" s="153">
         <v>97.03</v>
       </c>
-      <c r="J14" s="154">
+      <c r="J14" s="158">
         <v>236774</v>
       </c>
       <c r="K14" s="153" t="s">
-        <v>261</v>
-      </c>
-      <c r="L14" s="220"/>
+        <v>255</v>
+      </c>
+      <c r="L14" s="90"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="193"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="153"/>
       <c r="D15" s="153"/>
       <c r="E15" s="153"/>
@@ -9051,68 +9487,68 @@
       <c r="G15" s="153"/>
       <c r="H15" s="153"/>
       <c r="I15" s="153"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="158"/>
       <c r="K15" s="153"/>
-      <c r="L15" s="220"/>
+      <c r="L15" s="90"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="192" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="150" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="150">
+      <c r="B16" s="198" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="151" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="151">
         <v>96.71</v>
       </c>
-      <c r="E16" s="151" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="150">
+      <c r="E16" s="156" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="151">
         <v>96.67</v>
       </c>
-      <c r="G16" s="150">
+      <c r="G16" s="151">
         <v>96.63</v>
       </c>
-      <c r="H16" s="150">
+      <c r="H16" s="151">
         <v>96.87</v>
       </c>
-      <c r="I16" s="150">
+      <c r="I16" s="151">
         <v>96.605000000000004</v>
       </c>
       <c r="J16" s="152">
         <v>339455</v>
       </c>
       <c r="K16" s="152" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" s="220"/>
+        <v>255</v>
+      </c>
+      <c r="L16" s="90"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="192"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
       <c r="J17" s="152"/>
       <c r="K17" s="152"/>
-      <c r="L17" s="220"/>
+      <c r="L17" s="90"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="193" t="s">
-        <v>163</v>
+      <c r="B18" s="199" t="s">
+        <v>157</v>
       </c>
       <c r="C18" s="153" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D18" s="153">
         <v>96.734999999999999</v>
       </c>
-      <c r="E18" s="155" t="s">
-        <v>164</v>
+      <c r="E18" s="157" t="s">
+        <v>158</v>
       </c>
       <c r="F18" s="153">
         <v>96.63</v>
@@ -9126,1636 +9562,1636 @@
       <c r="I18" s="153">
         <v>96.54</v>
       </c>
-      <c r="J18" s="154">
+      <c r="J18" s="158">
         <v>305759</v>
       </c>
-      <c r="K18" s="154" t="s">
-        <v>261</v>
-      </c>
-      <c r="L18" s="220"/>
+      <c r="K18" s="158" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" s="90"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="193"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="153"/>
       <c r="D19" s="153"/>
-      <c r="E19" s="155"/>
+      <c r="E19" s="157"/>
       <c r="F19" s="153"/>
       <c r="G19" s="153"/>
       <c r="H19" s="153"/>
       <c r="I19" s="153"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="220"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="90"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="194" t="s">
+      <c r="B20" s="205" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="159" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="159">
+        <v>96.97</v>
+      </c>
+      <c r="E20" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="159">
+        <v>96.825000000000003</v>
+      </c>
+      <c r="G20" s="159">
+        <v>96.77</v>
+      </c>
+      <c r="H20" s="159">
+        <v>97.1</v>
+      </c>
+      <c r="I20" s="159">
+        <v>96.734999999999999</v>
+      </c>
+      <c r="J20" s="160">
+        <v>255183</v>
+      </c>
+      <c r="K20" s="160" t="s">
+        <v>256</v>
+      </c>
+      <c r="L20" s="90"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="205"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="90"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="161" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="161">
+        <v>97.194999999999993</v>
+      </c>
+      <c r="E22" s="161" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="161">
+        <v>97.015000000000001</v>
+      </c>
+      <c r="G22" s="161">
+        <v>96.965000000000003</v>
+      </c>
+      <c r="H22" s="161">
+        <v>97.314999999999998</v>
+      </c>
+      <c r="I22" s="161">
+        <v>96.935000000000002</v>
+      </c>
+      <c r="J22" s="162">
+        <v>199337</v>
+      </c>
+      <c r="K22" s="162" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="90"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="202"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="90"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="205" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="159">
+        <v>97.364999999999995</v>
+      </c>
+      <c r="E24" s="159" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="159">
+        <v>97.165000000000006</v>
+      </c>
+      <c r="G24" s="159">
+        <v>97.13</v>
+      </c>
+      <c r="H24" s="159">
+        <v>97.474999999999994</v>
+      </c>
+      <c r="I24" s="159">
+        <v>97.094999999999999</v>
+      </c>
+      <c r="J24" s="160">
+        <v>185140</v>
+      </c>
+      <c r="K24" s="160" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="90"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="205"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="90"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="202" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C26" s="161" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26" s="161">
+        <v>97.49</v>
+      </c>
+      <c r="E26" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="161">
+        <v>97.28</v>
+      </c>
+      <c r="G26" s="161">
+        <v>97.24</v>
+      </c>
+      <c r="H26" s="161">
+        <v>97.594999999999999</v>
+      </c>
+      <c r="I26" s="161">
+        <v>97.22</v>
+      </c>
+      <c r="J26" s="162">
+        <v>152166</v>
+      </c>
+      <c r="K26" s="162" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" s="90"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="202"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="90"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="203" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="163" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="163">
+        <v>97.594999999999999</v>
+      </c>
+      <c r="E28" s="163" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="163">
+        <v>97.37</v>
+      </c>
+      <c r="G28" s="163">
+        <v>97.34</v>
+      </c>
+      <c r="H28" s="163">
+        <v>97.68</v>
+      </c>
+      <c r="I28" s="163">
+        <v>97.314999999999998</v>
+      </c>
+      <c r="J28" s="164">
+        <v>112246</v>
+      </c>
+      <c r="K28" s="164" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" s="90"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="203"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="90"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="204" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="165" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="165">
+        <v>97.625</v>
+      </c>
+      <c r="E30" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="165">
+        <v>97.415000000000006</v>
+      </c>
+      <c r="G30" s="165">
+        <v>97.375</v>
+      </c>
+      <c r="H30" s="165">
+        <v>97.715000000000003</v>
+      </c>
+      <c r="I30" s="165">
+        <v>97.37</v>
+      </c>
+      <c r="J30" s="166">
+        <v>72282</v>
+      </c>
+      <c r="K30" s="166" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" s="90"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="204"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="90"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="203" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="156">
-        <v>96.97</v>
-      </c>
-      <c r="E20" s="156" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="156">
-        <v>96.825000000000003</v>
-      </c>
-      <c r="G20" s="156">
-        <v>96.77</v>
-      </c>
-      <c r="H20" s="156">
-        <v>97.1</v>
-      </c>
-      <c r="I20" s="156">
-        <v>96.734999999999999</v>
-      </c>
-      <c r="J20" s="157">
-        <v>255183</v>
-      </c>
-      <c r="K20" s="157" t="s">
+      <c r="D32" s="163">
+        <v>97.62</v>
+      </c>
+      <c r="E32" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="163">
+        <v>97.424999999999997</v>
+      </c>
+      <c r="G32" s="163">
+        <v>97.39</v>
+      </c>
+      <c r="H32" s="163">
+        <v>97.71</v>
+      </c>
+      <c r="I32" s="163">
+        <v>97.38</v>
+      </c>
+      <c r="J32" s="164">
+        <v>68370</v>
+      </c>
+      <c r="K32" s="164" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" s="90"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="203"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="90"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="204" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="165" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="165">
+        <v>97.614999999999995</v>
+      </c>
+      <c r="E34" s="165" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="165">
+        <v>97.44</v>
+      </c>
+      <c r="G34" s="165">
+        <v>97.405000000000001</v>
+      </c>
+      <c r="H34" s="165">
+        <v>97.704999999999998</v>
+      </c>
+      <c r="I34" s="165">
+        <v>97.394999999999996</v>
+      </c>
+      <c r="J34" s="166">
+        <v>52353</v>
+      </c>
+      <c r="K34" s="166" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" s="90"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="204"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="166"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="90"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="206" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="167" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="167">
+        <v>97.58</v>
+      </c>
+      <c r="E36" s="167" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="167">
+        <v>97.424999999999997</v>
+      </c>
+      <c r="G36" s="167">
+        <v>97.39</v>
+      </c>
+      <c r="H36" s="167">
+        <v>97.674999999999997</v>
+      </c>
+      <c r="I36" s="167">
+        <v>97.38</v>
+      </c>
+      <c r="J36" s="168">
+        <v>49777</v>
+      </c>
+      <c r="K36" s="168" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" s="90"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="206"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="168"/>
+      <c r="K37" s="168"/>
+      <c r="L37" s="90"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="207" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="169" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="169">
+        <v>97.534999999999997</v>
+      </c>
+      <c r="E38" s="169" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="169">
+        <v>97.394999999999996</v>
+      </c>
+      <c r="G38" s="169">
+        <v>97.355000000000004</v>
+      </c>
+      <c r="H38" s="169">
+        <v>97.62</v>
+      </c>
+      <c r="I38" s="169">
+        <v>97.344999999999999</v>
+      </c>
+      <c r="J38" s="170">
+        <v>19103</v>
+      </c>
+      <c r="K38" s="170" t="s">
+        <v>258</v>
+      </c>
+      <c r="L38" s="90"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="207"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="169"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="90"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="206" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="167" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="167">
+        <v>97.47</v>
+      </c>
+      <c r="E40" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="167">
+        <v>97.35</v>
+      </c>
+      <c r="G40" s="167">
+        <v>97.31</v>
+      </c>
+      <c r="H40" s="167">
+        <v>97.56</v>
+      </c>
+      <c r="I40" s="167">
+        <v>97.305000000000007</v>
+      </c>
+      <c r="J40" s="168">
+        <v>15861</v>
+      </c>
+      <c r="K40" s="168" t="s">
+        <v>258</v>
+      </c>
+      <c r="L40" s="90"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="206"/>
+      <c r="C41" s="167"/>
+      <c r="D41" s="167"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
+      <c r="L41" s="90"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="207" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="169" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="169">
+        <v>97.41</v>
+      </c>
+      <c r="E42" s="169" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="169">
+        <v>97.31</v>
+      </c>
+      <c r="G42" s="169">
+        <v>97.265000000000001</v>
+      </c>
+      <c r="H42" s="169">
+        <v>97.504999999999995</v>
+      </c>
+      <c r="I42" s="169">
+        <v>97.26</v>
+      </c>
+      <c r="J42" s="170">
+        <v>12703</v>
+      </c>
+      <c r="K42" s="170" t="s">
+        <v>258</v>
+      </c>
+      <c r="L42" s="90"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="207"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="169"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
+      <c r="L43" s="90"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="208" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="171" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="171">
+        <v>97.355000000000004</v>
+      </c>
+      <c r="E44" s="171" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="171">
+        <v>97.27</v>
+      </c>
+      <c r="G44" s="171">
+        <v>97.224999999999994</v>
+      </c>
+      <c r="H44" s="171">
+        <v>97.454999999999998</v>
+      </c>
+      <c r="I44" s="171">
+        <v>97.22</v>
+      </c>
+      <c r="J44" s="172">
+        <v>10425</v>
+      </c>
+      <c r="K44" s="172" t="s">
+        <v>259</v>
+      </c>
+      <c r="L44" s="90"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="208"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="172"/>
+      <c r="K45" s="172"/>
+      <c r="L45" s="90"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="209" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="173" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="173">
+        <v>97.32</v>
+      </c>
+      <c r="E46" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="173">
+        <v>97.24</v>
+      </c>
+      <c r="G46" s="173">
+        <v>97.19</v>
+      </c>
+      <c r="H46" s="173">
+        <v>97.42</v>
+      </c>
+      <c r="I46" s="173">
+        <v>97.185000000000002</v>
+      </c>
+      <c r="J46" s="174">
+        <v>2435</v>
+      </c>
+      <c r="K46" s="174" t="s">
+        <v>259</v>
+      </c>
+      <c r="L46" s="90"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="209"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="173"/>
+      <c r="E47" s="173"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="173"/>
+      <c r="H47" s="173"/>
+      <c r="I47" s="173"/>
+      <c r="J47" s="174"/>
+      <c r="K47" s="174"/>
+      <c r="L47" s="90"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="208" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="171" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="171">
+        <v>97.27</v>
+      </c>
+      <c r="E48" s="171" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="171">
+        <v>97.2</v>
+      </c>
+      <c r="G48" s="171">
+        <v>97.15</v>
+      </c>
+      <c r="H48" s="171">
+        <v>97.37</v>
+      </c>
+      <c r="I48" s="171">
+        <v>97.15</v>
+      </c>
+      <c r="J48" s="172">
+        <v>3040</v>
+      </c>
+      <c r="K48" s="172" t="s">
+        <v>259</v>
+      </c>
+      <c r="L48" s="90"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="208"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="171"/>
+      <c r="F49" s="171"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="90"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="209" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="173" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="173">
+        <v>97.224999999999994</v>
+      </c>
+      <c r="E50" s="173" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="173">
+        <v>97.165000000000006</v>
+      </c>
+      <c r="G50" s="173">
+        <v>97.114999999999995</v>
+      </c>
+      <c r="H50" s="173">
+        <v>97.33</v>
+      </c>
+      <c r="I50" s="173">
+        <v>97.11</v>
+      </c>
+      <c r="J50" s="174">
+        <v>1867</v>
+      </c>
+      <c r="K50" s="174" t="s">
+        <v>259</v>
+      </c>
+      <c r="L50" s="90"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="209"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="173"/>
+      <c r="E51" s="173"/>
+      <c r="F51" s="173"/>
+      <c r="G51" s="173"/>
+      <c r="H51" s="173"/>
+      <c r="I51" s="173"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="174"/>
+      <c r="L51" s="90"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="210" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="175" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="175">
+        <v>97.18</v>
+      </c>
+      <c r="E52" s="175" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" s="175">
+        <v>97.13</v>
+      </c>
+      <c r="G52" s="175">
+        <v>97.09</v>
+      </c>
+      <c r="H52" s="175">
+        <v>97.29</v>
+      </c>
+      <c r="I52" s="175">
+        <v>97.075000000000003</v>
+      </c>
+      <c r="J52" s="176">
+        <v>1810</v>
+      </c>
+      <c r="K52" s="176" t="s">
+        <v>260</v>
+      </c>
+      <c r="L52" s="90"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="210"/>
+      <c r="C53" s="175"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="175"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="175"/>
+      <c r="I53" s="175"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
+      <c r="L53" s="90"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="211" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="177" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="177">
+        <v>97.135000000000005</v>
+      </c>
+      <c r="E54" s="177" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="177">
+        <v>97.094999999999999</v>
+      </c>
+      <c r="G54" s="177">
+        <v>97.05</v>
+      </c>
+      <c r="H54" s="177">
+        <v>97.18</v>
+      </c>
+      <c r="I54" s="177">
+        <v>97.05</v>
+      </c>
+      <c r="J54" s="178">
+        <v>158</v>
+      </c>
+      <c r="K54" s="178" t="s">
+        <v>260</v>
+      </c>
+      <c r="L54" s="90"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="211"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="177"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="178"/>
+      <c r="L55" s="90"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="210" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="175" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="175">
+        <v>97.135000000000005</v>
+      </c>
+      <c r="E56" s="175" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="175">
+        <v>97.055000000000007</v>
+      </c>
+      <c r="G56" s="175">
+        <v>97.19</v>
+      </c>
+      <c r="H56" s="175">
+        <v>97.19</v>
+      </c>
+      <c r="I56" s="175">
+        <v>97.135000000000005</v>
+      </c>
+      <c r="J56" s="176">
+        <v>34</v>
+      </c>
+      <c r="K56" s="176" t="s">
+        <v>260</v>
+      </c>
+      <c r="L56" s="90"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="210"/>
+      <c r="C57" s="175"/>
+      <c r="D57" s="175"/>
+      <c r="E57" s="175"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="175"/>
+      <c r="H57" s="175"/>
+      <c r="I57" s="175"/>
+      <c r="J57" s="176"/>
+      <c r="K57" s="176"/>
+      <c r="L57" s="90"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="211" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="177" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="177">
+        <v>97.03</v>
+      </c>
+      <c r="G58" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="178">
+        <v>0</v>
+      </c>
+      <c r="K58" s="178" t="s">
+        <v>260</v>
+      </c>
+      <c r="L58" s="90"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="211"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
+      <c r="E59" s="177"/>
+      <c r="F59" s="177"/>
+      <c r="G59" s="177"/>
+      <c r="H59" s="177"/>
+      <c r="I59" s="177"/>
+      <c r="J59" s="178"/>
+      <c r="K59" s="178"/>
+      <c r="L59" s="90"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="212" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="179" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="179">
+        <v>96.995000000000005</v>
+      </c>
+      <c r="G60" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="180">
+        <v>0</v>
+      </c>
+      <c r="K60" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="L60" s="90"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="212"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="179"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="179"/>
+      <c r="H61" s="179"/>
+      <c r="I61" s="179"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="180"/>
+      <c r="L61" s="90"/>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="213" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="181" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="181">
+        <v>96.96</v>
+      </c>
+      <c r="G62" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="182">
+        <v>0</v>
+      </c>
+      <c r="K62" s="182" t="s">
+        <v>261</v>
+      </c>
+      <c r="L62" s="90"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="213"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="181"/>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
+      <c r="H63" s="181"/>
+      <c r="I63" s="181"/>
+      <c r="J63" s="182"/>
+      <c r="K63" s="182"/>
+      <c r="L63" s="90"/>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="212" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="179" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="179">
+        <v>96.92</v>
+      </c>
+      <c r="G64" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="180">
+        <v>19</v>
+      </c>
+      <c r="K64" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="L64" s="90"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="212"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="179"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="179"/>
+      <c r="J65" s="180"/>
+      <c r="K65" s="180"/>
+      <c r="L65" s="90"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="213" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="181" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="181">
+        <v>96.89</v>
+      </c>
+      <c r="G66" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" s="182">
+        <v>0</v>
+      </c>
+      <c r="K66" s="182" t="s">
+        <v>261</v>
+      </c>
+      <c r="L66" s="90"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="213"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
+      <c r="E67" s="181"/>
+      <c r="F67" s="181"/>
+      <c r="G67" s="181"/>
+      <c r="H67" s="181"/>
+      <c r="I67" s="181"/>
+      <c r="J67" s="182"/>
+      <c r="K67" s="182"/>
+      <c r="L67" s="90"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="217" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="183" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="183">
+        <v>96.85</v>
+      </c>
+      <c r="G68" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" s="184">
+        <v>0</v>
+      </c>
+      <c r="K68" s="184" t="s">
         <v>262</v>
       </c>
-      <c r="L20" s="220"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="194"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="220"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="195" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="158" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="158">
-        <v>97.194999999999993</v>
-      </c>
-      <c r="E22" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="158">
-        <v>97.015000000000001</v>
-      </c>
-      <c r="G22" s="158">
-        <v>96.965000000000003</v>
-      </c>
-      <c r="H22" s="158">
-        <v>97.314999999999998</v>
-      </c>
-      <c r="I22" s="158">
-        <v>96.935000000000002</v>
-      </c>
-      <c r="J22" s="159">
-        <v>199337</v>
-      </c>
-      <c r="K22" s="159" t="s">
+      <c r="L68" s="90"/>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="217"/>
+      <c r="C69" s="183"/>
+      <c r="D69" s="183"/>
+      <c r="E69" s="183"/>
+      <c r="F69" s="183"/>
+      <c r="G69" s="183"/>
+      <c r="H69" s="183"/>
+      <c r="I69" s="183"/>
+      <c r="J69" s="184"/>
+      <c r="K69" s="184"/>
+      <c r="L69" s="90"/>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="214" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="185" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="185">
+        <v>96.82</v>
+      </c>
+      <c r="G70" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="186">
+        <v>0</v>
+      </c>
+      <c r="K70" s="186" t="s">
         <v>262</v>
       </c>
-      <c r="L22" s="220"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="195"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="220"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="194" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="156" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="156">
-        <v>97.364999999999995</v>
-      </c>
-      <c r="E24" s="156" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="156">
-        <v>97.165000000000006</v>
-      </c>
-      <c r="G24" s="156">
-        <v>97.13</v>
-      </c>
-      <c r="H24" s="156">
-        <v>97.474999999999994</v>
-      </c>
-      <c r="I24" s="156">
-        <v>97.094999999999999</v>
-      </c>
-      <c r="J24" s="157">
-        <v>185140</v>
-      </c>
-      <c r="K24" s="157" t="s">
+      <c r="L70" s="90"/>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="214"/>
+      <c r="C71" s="185"/>
+      <c r="D71" s="185"/>
+      <c r="E71" s="185"/>
+      <c r="F71" s="185"/>
+      <c r="G71" s="185"/>
+      <c r="H71" s="185"/>
+      <c r="I71" s="185"/>
+      <c r="J71" s="186"/>
+      <c r="K71" s="186"/>
+      <c r="L71" s="90"/>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="217" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="183" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="183">
+        <v>96.79</v>
+      </c>
+      <c r="G72" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="184">
+        <v>0</v>
+      </c>
+      <c r="K72" s="184" t="s">
         <v>262</v>
       </c>
-      <c r="L24" s="220"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="194"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="220"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="195" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="158" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" s="158">
-        <v>97.49</v>
-      </c>
-      <c r="E26" s="158" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="158">
-        <v>97.28</v>
-      </c>
-      <c r="G26" s="158">
-        <v>97.24</v>
-      </c>
-      <c r="H26" s="158">
-        <v>97.594999999999999</v>
-      </c>
-      <c r="I26" s="158">
-        <v>97.22</v>
-      </c>
-      <c r="J26" s="159">
-        <v>152166</v>
-      </c>
-      <c r="K26" s="159" t="s">
+      <c r="L72" s="90"/>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="217"/>
+      <c r="C73" s="183"/>
+      <c r="D73" s="183"/>
+      <c r="E73" s="183"/>
+      <c r="F73" s="183"/>
+      <c r="G73" s="183"/>
+      <c r="H73" s="183"/>
+      <c r="I73" s="183"/>
+      <c r="J73" s="184"/>
+      <c r="K73" s="184"/>
+      <c r="L73" s="90"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="214" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="185" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="185">
+        <v>96.765000000000001</v>
+      </c>
+      <c r="G74" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="186">
+        <v>0</v>
+      </c>
+      <c r="K74" s="186" t="s">
         <v>262</v>
       </c>
-      <c r="L26" s="220"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="195"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="220"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="196" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="160" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="160">
-        <v>97.594999999999999</v>
-      </c>
-      <c r="E28" s="160" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="160">
-        <v>97.37</v>
-      </c>
-      <c r="G28" s="160">
-        <v>97.34</v>
-      </c>
-      <c r="H28" s="160">
-        <v>97.68</v>
-      </c>
-      <c r="I28" s="160">
-        <v>97.314999999999998</v>
-      </c>
-      <c r="J28" s="161">
-        <v>112246</v>
-      </c>
-      <c r="K28" s="161" t="s">
+      <c r="L74" s="90"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="214"/>
+      <c r="C75" s="185"/>
+      <c r="D75" s="185"/>
+      <c r="E75" s="185"/>
+      <c r="F75" s="185"/>
+      <c r="G75" s="185"/>
+      <c r="H75" s="185"/>
+      <c r="I75" s="185"/>
+      <c r="J75" s="186"/>
+      <c r="K75" s="186"/>
+      <c r="L75" s="90"/>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="215" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="189" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="189">
+        <v>96.724999999999994</v>
+      </c>
+      <c r="G76" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="J76" s="190">
+        <v>0</v>
+      </c>
+      <c r="K76" s="190" t="s">
         <v>263</v>
       </c>
-      <c r="L28" s="220"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="196"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="220"/>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="197" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="162" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="162">
-        <v>97.625</v>
-      </c>
-      <c r="E30" s="162" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="162">
-        <v>97.415000000000006</v>
-      </c>
-      <c r="G30" s="162">
-        <v>97.375</v>
-      </c>
-      <c r="H30" s="162">
-        <v>97.715000000000003</v>
-      </c>
-      <c r="I30" s="162">
-        <v>97.37</v>
-      </c>
-      <c r="J30" s="163">
-        <v>72282</v>
-      </c>
-      <c r="K30" s="163" t="s">
+      <c r="L76" s="90"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="215"/>
+      <c r="C77" s="189"/>
+      <c r="D77" s="189"/>
+      <c r="E77" s="189"/>
+      <c r="F77" s="189"/>
+      <c r="G77" s="189"/>
+      <c r="H77" s="189"/>
+      <c r="I77" s="189"/>
+      <c r="J77" s="190"/>
+      <c r="K77" s="190"/>
+      <c r="L77" s="90"/>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="216" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="187" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="187">
+        <v>96.685000000000002</v>
+      </c>
+      <c r="G78" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="188">
+        <v>0</v>
+      </c>
+      <c r="K78" s="188" t="s">
         <v>263</v>
       </c>
-      <c r="L30" s="220"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="197"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="220"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="196" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="160" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="160">
-        <v>97.62</v>
-      </c>
-      <c r="E32" s="160" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="160">
-        <v>97.424999999999997</v>
-      </c>
-      <c r="G32" s="160">
-        <v>97.39</v>
-      </c>
-      <c r="H32" s="160">
-        <v>97.71</v>
-      </c>
-      <c r="I32" s="160">
-        <v>97.38</v>
-      </c>
-      <c r="J32" s="161">
-        <v>68370</v>
-      </c>
-      <c r="K32" s="161" t="s">
+      <c r="L78" s="90"/>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="216"/>
+      <c r="C79" s="187"/>
+      <c r="D79" s="187"/>
+      <c r="E79" s="187"/>
+      <c r="F79" s="187"/>
+      <c r="G79" s="187"/>
+      <c r="H79" s="187"/>
+      <c r="I79" s="187"/>
+      <c r="J79" s="188"/>
+      <c r="K79" s="188"/>
+      <c r="L79" s="90"/>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="215" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="189" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="189">
+        <v>96.67</v>
+      </c>
+      <c r="G80" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="190">
+        <v>0</v>
+      </c>
+      <c r="K80" s="190" t="s">
         <v>263</v>
       </c>
-      <c r="L32" s="220"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="196"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="220"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="197" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="162" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" s="162">
-        <v>97.614999999999995</v>
-      </c>
-      <c r="E34" s="162" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34" s="162">
-        <v>97.44</v>
-      </c>
-      <c r="G34" s="162">
-        <v>97.405000000000001</v>
-      </c>
-      <c r="H34" s="162">
-        <v>97.704999999999998</v>
-      </c>
-      <c r="I34" s="162">
-        <v>97.394999999999996</v>
-      </c>
-      <c r="J34" s="163">
-        <v>52353</v>
-      </c>
-      <c r="K34" s="163" t="s">
+      <c r="L80" s="90"/>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="215"/>
+      <c r="C81" s="189"/>
+      <c r="D81" s="189"/>
+      <c r="E81" s="189"/>
+      <c r="F81" s="189"/>
+      <c r="G81" s="189"/>
+      <c r="H81" s="189"/>
+      <c r="I81" s="189"/>
+      <c r="J81" s="190"/>
+      <c r="K81" s="190"/>
+      <c r="L81" s="90"/>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="216" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="187" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="187">
+        <v>96.644999999999996</v>
+      </c>
+      <c r="G82" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="187" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="188">
+        <v>0</v>
+      </c>
+      <c r="K82" s="188" t="s">
         <v>263</v>
       </c>
-      <c r="L34" s="220"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="197"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="163"/>
-      <c r="K35" s="163"/>
-      <c r="L35" s="220"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="164" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="164">
-        <v>97.58</v>
-      </c>
-      <c r="E36" s="164" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="164">
-        <v>97.424999999999997</v>
-      </c>
-      <c r="G36" s="164">
-        <v>97.39</v>
-      </c>
-      <c r="H36" s="164">
-        <v>97.674999999999997</v>
-      </c>
-      <c r="I36" s="164">
-        <v>97.38</v>
-      </c>
-      <c r="J36" s="165">
-        <v>49777</v>
-      </c>
-      <c r="K36" s="165" t="s">
+      <c r="L82" s="90"/>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="216"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="187"/>
+      <c r="E83" s="187"/>
+      <c r="F83" s="187"/>
+      <c r="G83" s="187"/>
+      <c r="H83" s="187"/>
+      <c r="I83" s="187"/>
+      <c r="J83" s="188"/>
+      <c r="K83" s="188"/>
+      <c r="L83" s="90"/>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="218" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="192" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="192">
+        <v>96.62</v>
+      </c>
+      <c r="G84" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="193">
+        <v>0</v>
+      </c>
+      <c r="K84" s="193" t="s">
         <v>264</v>
       </c>
-      <c r="L36" s="220"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="198"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="165"/>
-      <c r="L37" s="220"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="199" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="166" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="166">
-        <v>97.534999999999997</v>
-      </c>
-      <c r="E38" s="166" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="166">
-        <v>97.394999999999996</v>
-      </c>
-      <c r="G38" s="166">
-        <v>97.355000000000004</v>
-      </c>
-      <c r="H38" s="166">
-        <v>97.62</v>
-      </c>
-      <c r="I38" s="166">
-        <v>97.344999999999999</v>
-      </c>
-      <c r="J38" s="167">
-        <v>19103</v>
-      </c>
-      <c r="K38" s="167" t="s">
+      <c r="L84" s="90"/>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="218"/>
+      <c r="C85" s="192"/>
+      <c r="D85" s="192"/>
+      <c r="E85" s="192"/>
+      <c r="F85" s="192"/>
+      <c r="G85" s="192"/>
+      <c r="H85" s="192"/>
+      <c r="I85" s="192"/>
+      <c r="J85" s="193"/>
+      <c r="K85" s="193"/>
+      <c r="L85" s="90"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="220" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="191" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="191" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="191" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="191">
+        <v>96.6</v>
+      </c>
+      <c r="G86" s="191" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" s="191" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="191" t="s">
+        <v>38</v>
+      </c>
+      <c r="J86" s="200">
+        <v>0</v>
+      </c>
+      <c r="K86" s="200" t="s">
         <v>264</v>
       </c>
-      <c r="L38" s="220"/>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="199"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="220"/>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="164" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" s="164">
-        <v>97.47</v>
-      </c>
-      <c r="E40" s="164" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" s="164">
-        <v>97.35</v>
-      </c>
-      <c r="G40" s="164">
-        <v>97.31</v>
-      </c>
-      <c r="H40" s="164">
-        <v>97.56</v>
-      </c>
-      <c r="I40" s="164">
-        <v>97.305000000000007</v>
-      </c>
-      <c r="J40" s="165">
-        <v>15861</v>
-      </c>
-      <c r="K40" s="165" t="s">
+      <c r="L86" s="90"/>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="220"/>
+      <c r="C87" s="191"/>
+      <c r="D87" s="191"/>
+      <c r="E87" s="191"/>
+      <c r="F87" s="191"/>
+      <c r="G87" s="191"/>
+      <c r="H87" s="191"/>
+      <c r="I87" s="191"/>
+      <c r="J87" s="200"/>
+      <c r="K87" s="200"/>
+      <c r="L87" s="90"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="218" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="192" t="s">
+        <v>253</v>
+      </c>
+      <c r="D88" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="192">
+        <v>96.59</v>
+      </c>
+      <c r="G88" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="J88" s="193">
+        <v>0</v>
+      </c>
+      <c r="K88" s="193" t="s">
         <v>264</v>
       </c>
-      <c r="L40" s="220"/>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="198"/>
-      <c r="C41" s="164"/>
-      <c r="D41" s="164"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="165"/>
-      <c r="L41" s="220"/>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="199" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="166" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="166">
-        <v>97.41</v>
-      </c>
-      <c r="E42" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="166">
-        <v>97.31</v>
-      </c>
-      <c r="G42" s="166">
-        <v>97.265000000000001</v>
-      </c>
-      <c r="H42" s="166">
-        <v>97.504999999999995</v>
-      </c>
-      <c r="I42" s="166">
-        <v>97.26</v>
-      </c>
-      <c r="J42" s="167">
-        <v>12703</v>
-      </c>
-      <c r="K42" s="167" t="s">
-        <v>264</v>
-      </c>
-      <c r="L42" s="220"/>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43" s="199"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="220"/>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="200" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="168" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="168">
-        <v>97.355000000000004</v>
-      </c>
-      <c r="E44" s="168" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="168">
-        <v>97.27</v>
-      </c>
-      <c r="G44" s="168">
-        <v>97.224999999999994</v>
-      </c>
-      <c r="H44" s="168">
-        <v>97.454999999999998</v>
-      </c>
-      <c r="I44" s="168">
-        <v>97.22</v>
-      </c>
-      <c r="J44" s="169">
-        <v>10425</v>
-      </c>
-      <c r="K44" s="169" t="s">
-        <v>265</v>
-      </c>
-      <c r="L44" s="220"/>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45" s="200"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="168"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="168"/>
-      <c r="J45" s="169"/>
-      <c r="K45" s="169"/>
-      <c r="L45" s="220"/>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="201" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="170" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" s="170">
-        <v>97.32</v>
-      </c>
-      <c r="E46" s="170" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="170">
-        <v>97.24</v>
-      </c>
-      <c r="G46" s="170">
-        <v>97.19</v>
-      </c>
-      <c r="H46" s="170">
-        <v>97.42</v>
-      </c>
-      <c r="I46" s="170">
-        <v>97.185000000000002</v>
-      </c>
-      <c r="J46" s="171">
-        <v>2435</v>
-      </c>
-      <c r="K46" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="L46" s="220"/>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="B47" s="201"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="220"/>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="B48" s="200" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="168" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="168">
-        <v>97.27</v>
-      </c>
-      <c r="E48" s="168" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="168">
-        <v>97.2</v>
-      </c>
-      <c r="G48" s="168">
-        <v>97.15</v>
-      </c>
-      <c r="H48" s="168">
-        <v>97.37</v>
-      </c>
-      <c r="I48" s="168">
-        <v>97.15</v>
-      </c>
-      <c r="J48" s="169">
-        <v>3040</v>
-      </c>
-      <c r="K48" s="169" t="s">
-        <v>265</v>
-      </c>
-      <c r="L48" s="220"/>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="200"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="169"/>
-      <c r="K49" s="169"/>
-      <c r="L49" s="220"/>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="B50" s="201" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="170" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="170">
-        <v>97.224999999999994</v>
-      </c>
-      <c r="E50" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="170">
-        <v>97.165000000000006</v>
-      </c>
-      <c r="G50" s="170">
-        <v>97.114999999999995</v>
-      </c>
-      <c r="H50" s="170">
-        <v>97.33</v>
-      </c>
-      <c r="I50" s="170">
-        <v>97.11</v>
-      </c>
-      <c r="J50" s="171">
-        <v>1867</v>
-      </c>
-      <c r="K50" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="L50" s="220"/>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="201"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="170"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="220"/>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="202" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="172" t="s">
-        <v>241</v>
-      </c>
-      <c r="D52" s="172">
-        <v>97.18</v>
-      </c>
-      <c r="E52" s="172" t="s">
-        <v>197</v>
-      </c>
-      <c r="F52" s="172">
-        <v>97.13</v>
-      </c>
-      <c r="G52" s="172">
-        <v>97.09</v>
-      </c>
-      <c r="H52" s="172">
-        <v>97.29</v>
-      </c>
-      <c r="I52" s="172">
-        <v>97.075000000000003</v>
-      </c>
-      <c r="J52" s="173">
-        <v>1810</v>
-      </c>
-      <c r="K52" s="173" t="s">
-        <v>266</v>
-      </c>
-      <c r="L52" s="220"/>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="202"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="172"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="173"/>
-      <c r="K53" s="173"/>
-      <c r="L53" s="220"/>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="203" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="174" t="s">
-        <v>242</v>
-      </c>
-      <c r="D54" s="174">
-        <v>97.135000000000005</v>
-      </c>
-      <c r="E54" s="174" t="s">
-        <v>162</v>
-      </c>
-      <c r="F54" s="174">
-        <v>97.094999999999999</v>
-      </c>
-      <c r="G54" s="174">
-        <v>97.05</v>
-      </c>
-      <c r="H54" s="174">
-        <v>97.18</v>
-      </c>
-      <c r="I54" s="174">
-        <v>97.05</v>
-      </c>
-      <c r="J54" s="175">
-        <v>158</v>
-      </c>
-      <c r="K54" s="175" t="s">
-        <v>266</v>
-      </c>
-      <c r="L54" s="220"/>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="203"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
-      <c r="E55" s="174"/>
-      <c r="F55" s="174"/>
-      <c r="G55" s="174"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="175"/>
-      <c r="K55" s="175"/>
-      <c r="L55" s="220"/>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="202" t="s">
-        <v>199</v>
-      </c>
-      <c r="C56" s="172" t="s">
-        <v>243</v>
-      </c>
-      <c r="D56" s="172">
-        <v>97.135000000000005</v>
-      </c>
-      <c r="E56" s="172" t="s">
-        <v>191</v>
-      </c>
-      <c r="F56" s="172">
-        <v>97.055000000000007</v>
-      </c>
-      <c r="G56" s="172">
-        <v>97.19</v>
-      </c>
-      <c r="H56" s="172">
-        <v>97.19</v>
-      </c>
-      <c r="I56" s="172">
-        <v>97.135000000000005</v>
-      </c>
-      <c r="J56" s="173">
-        <v>34</v>
-      </c>
-      <c r="K56" s="173" t="s">
-        <v>266</v>
-      </c>
-      <c r="L56" s="220"/>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="202"/>
-      <c r="C57" s="172"/>
-      <c r="D57" s="172"/>
-      <c r="E57" s="172"/>
-      <c r="F57" s="172"/>
-      <c r="G57" s="172"/>
-      <c r="H57" s="172"/>
-      <c r="I57" s="172"/>
-      <c r="J57" s="173"/>
-      <c r="K57" s="173"/>
-      <c r="L57" s="220"/>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="203" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="174" t="s">
-        <v>244</v>
-      </c>
-      <c r="D58" s="174" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="174" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="174">
-        <v>97.03</v>
-      </c>
-      <c r="G58" s="174" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="174" t="s">
-        <v>38</v>
-      </c>
-      <c r="I58" s="174" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="175">
-        <v>0</v>
-      </c>
-      <c r="K58" s="175" t="s">
-        <v>266</v>
-      </c>
-      <c r="L58" s="220"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="203"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="175"/>
-      <c r="K59" s="175"/>
-      <c r="L59" s="220"/>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="204" t="s">
-        <v>201</v>
-      </c>
-      <c r="C60" s="176" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="176">
-        <v>96.995000000000005</v>
-      </c>
-      <c r="G60" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="177">
-        <v>0</v>
-      </c>
-      <c r="K60" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="L60" s="220"/>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" s="204"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="176"/>
-      <c r="G61" s="176"/>
-      <c r="H61" s="176"/>
-      <c r="I61" s="176"/>
-      <c r="J61" s="177"/>
-      <c r="K61" s="177"/>
-      <c r="L61" s="220"/>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="B62" s="205" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" s="178" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="178">
-        <v>96.96</v>
-      </c>
-      <c r="G62" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="I62" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="J62" s="179">
-        <v>0</v>
-      </c>
-      <c r="K62" s="179" t="s">
-        <v>267</v>
-      </c>
-      <c r="L62" s="220"/>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="B63" s="205"/>
-      <c r="C63" s="178"/>
-      <c r="D63" s="178"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="178"/>
-      <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="178"/>
-      <c r="J63" s="179"/>
-      <c r="K63" s="179"/>
-      <c r="L63" s="220"/>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="B64" s="204" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" s="176" t="s">
-        <v>247</v>
-      </c>
-      <c r="D64" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="176">
-        <v>96.92</v>
-      </c>
-      <c r="G64" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="H64" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="I64" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="J64" s="177">
-        <v>19</v>
-      </c>
-      <c r="K64" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="L64" s="220"/>
-    </row>
-    <row r="65" spans="2:12">
-      <c r="B65" s="204"/>
-      <c r="C65" s="176"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="176"/>
-      <c r="F65" s="176"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="176"/>
-      <c r="I65" s="176"/>
-      <c r="J65" s="177"/>
-      <c r="K65" s="177"/>
-      <c r="L65" s="220"/>
-    </row>
-    <row r="66" spans="2:12">
-      <c r="B66" s="205" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" s="178" t="s">
-        <v>248</v>
-      </c>
-      <c r="D66" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="178">
-        <v>96.89</v>
-      </c>
-      <c r="G66" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="I66" s="178" t="s">
-        <v>38</v>
-      </c>
-      <c r="J66" s="179">
-        <v>0</v>
-      </c>
-      <c r="K66" s="179" t="s">
-        <v>267</v>
-      </c>
-      <c r="L66" s="220"/>
-    </row>
-    <row r="67" spans="2:12">
-      <c r="B67" s="205"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="178"/>
-      <c r="J67" s="179"/>
-      <c r="K67" s="179"/>
-      <c r="L67" s="220"/>
-    </row>
-    <row r="68" spans="2:12">
-      <c r="B68" s="206" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="180" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="180">
-        <v>96.85</v>
-      </c>
-      <c r="G68" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="I68" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68" s="181">
-        <v>0</v>
-      </c>
-      <c r="K68" s="181" t="s">
-        <v>268</v>
-      </c>
-      <c r="L68" s="220"/>
-    </row>
-    <row r="69" spans="2:12">
-      <c r="B69" s="206"/>
-      <c r="C69" s="180"/>
-      <c r="D69" s="180"/>
-      <c r="E69" s="180"/>
-      <c r="F69" s="180"/>
-      <c r="G69" s="180"/>
-      <c r="H69" s="180"/>
-      <c r="I69" s="180"/>
-      <c r="J69" s="181"/>
-      <c r="K69" s="181"/>
-      <c r="L69" s="220"/>
-    </row>
-    <row r="70" spans="2:12">
-      <c r="B70" s="207" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="182" t="s">
-        <v>250</v>
-      </c>
-      <c r="D70" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="182">
-        <v>96.82</v>
-      </c>
-      <c r="G70" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="H70" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="J70" s="183">
-        <v>0</v>
-      </c>
-      <c r="K70" s="183" t="s">
-        <v>268</v>
-      </c>
-      <c r="L70" s="220"/>
-    </row>
-    <row r="71" spans="2:12">
-      <c r="B71" s="207"/>
-      <c r="C71" s="182"/>
-      <c r="D71" s="182"/>
-      <c r="E71" s="182"/>
-      <c r="F71" s="182"/>
-      <c r="G71" s="182"/>
-      <c r="H71" s="182"/>
-      <c r="I71" s="182"/>
-      <c r="J71" s="183"/>
-      <c r="K71" s="183"/>
-      <c r="L71" s="220"/>
-    </row>
-    <row r="72" spans="2:12">
-      <c r="B72" s="206" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="180" t="s">
-        <v>251</v>
-      </c>
-      <c r="D72" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="180">
-        <v>96.79</v>
-      </c>
-      <c r="G72" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="H72" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="I72" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="J72" s="181">
-        <v>0</v>
-      </c>
-      <c r="K72" s="181" t="s">
-        <v>268</v>
-      </c>
-      <c r="L72" s="220"/>
-    </row>
-    <row r="73" spans="2:12">
-      <c r="B73" s="206"/>
-      <c r="C73" s="180"/>
-      <c r="D73" s="180"/>
-      <c r="E73" s="180"/>
-      <c r="F73" s="180"/>
-      <c r="G73" s="180"/>
-      <c r="H73" s="180"/>
-      <c r="I73" s="180"/>
-      <c r="J73" s="181"/>
-      <c r="K73" s="181"/>
-      <c r="L73" s="220"/>
-    </row>
-    <row r="74" spans="2:12">
-      <c r="B74" s="207" t="s">
-        <v>208</v>
-      </c>
-      <c r="C74" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="D74" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="182">
-        <v>96.765000000000001</v>
-      </c>
-      <c r="G74" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" s="182" t="s">
-        <v>38</v>
-      </c>
-      <c r="J74" s="183">
-        <v>0</v>
-      </c>
-      <c r="K74" s="183" t="s">
-        <v>268</v>
-      </c>
-      <c r="L74" s="220"/>
-    </row>
-    <row r="75" spans="2:12">
-      <c r="B75" s="207"/>
-      <c r="C75" s="182"/>
-      <c r="D75" s="182"/>
-      <c r="E75" s="182"/>
-      <c r="F75" s="182"/>
-      <c r="G75" s="182"/>
-      <c r="H75" s="182"/>
-      <c r="I75" s="182"/>
-      <c r="J75" s="183"/>
-      <c r="K75" s="183"/>
-      <c r="L75" s="220"/>
-    </row>
-    <row r="76" spans="2:12">
-      <c r="B76" s="208" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="184" t="s">
-        <v>253</v>
-      </c>
-      <c r="D76" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" s="184">
-        <v>96.724999999999994</v>
-      </c>
-      <c r="G76" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="H76" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="I76" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="J76" s="185">
-        <v>0</v>
-      </c>
-      <c r="K76" s="185" t="s">
-        <v>269</v>
-      </c>
-      <c r="L76" s="220"/>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="B77" s="208"/>
-      <c r="C77" s="184"/>
-      <c r="D77" s="184"/>
-      <c r="E77" s="184"/>
-      <c r="F77" s="184"/>
-      <c r="G77" s="184"/>
-      <c r="H77" s="184"/>
-      <c r="I77" s="184"/>
-      <c r="J77" s="185"/>
-      <c r="K77" s="185"/>
-      <c r="L77" s="220"/>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="B78" s="209" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="186" t="s">
-        <v>254</v>
-      </c>
-      <c r="D78" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="186">
-        <v>96.685000000000002</v>
-      </c>
-      <c r="G78" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="I78" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="J78" s="187">
-        <v>0</v>
-      </c>
-      <c r="K78" s="187" t="s">
-        <v>269</v>
-      </c>
-      <c r="L78" s="220"/>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="B79" s="209"/>
-      <c r="C79" s="186"/>
-      <c r="D79" s="186"/>
-      <c r="E79" s="186"/>
-      <c r="F79" s="186"/>
-      <c r="G79" s="186"/>
-      <c r="H79" s="186"/>
-      <c r="I79" s="186"/>
-      <c r="J79" s="187"/>
-      <c r="K79" s="187"/>
-      <c r="L79" s="220"/>
-    </row>
-    <row r="80" spans="2:12">
-      <c r="B80" s="208" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" s="184" t="s">
-        <v>255</v>
-      </c>
-      <c r="D80" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="184">
-        <v>96.67</v>
-      </c>
-      <c r="G80" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="H80" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="I80" s="184" t="s">
-        <v>38</v>
-      </c>
-      <c r="J80" s="185">
-        <v>0</v>
-      </c>
-      <c r="K80" s="185" t="s">
-        <v>269</v>
-      </c>
-      <c r="L80" s="220"/>
-    </row>
-    <row r="81" spans="2:12">
-      <c r="B81" s="208"/>
-      <c r="C81" s="184"/>
-      <c r="D81" s="184"/>
-      <c r="E81" s="184"/>
-      <c r="F81" s="184"/>
-      <c r="G81" s="184"/>
-      <c r="H81" s="184"/>
-      <c r="I81" s="184"/>
-      <c r="J81" s="185"/>
-      <c r="K81" s="185"/>
-      <c r="L81" s="220"/>
-    </row>
-    <row r="82" spans="2:12">
-      <c r="B82" s="209" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" s="186" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" s="186">
-        <v>96.644999999999996</v>
-      </c>
-      <c r="G82" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="I82" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="J82" s="187">
-        <v>0</v>
-      </c>
-      <c r="K82" s="187" t="s">
-        <v>269</v>
-      </c>
-      <c r="L82" s="220"/>
-    </row>
-    <row r="83" spans="2:12">
-      <c r="B83" s="209"/>
-      <c r="C83" s="186"/>
-      <c r="D83" s="186"/>
-      <c r="E83" s="186"/>
-      <c r="F83" s="186"/>
-      <c r="G83" s="186"/>
-      <c r="H83" s="186"/>
-      <c r="I83" s="186"/>
-      <c r="J83" s="187"/>
-      <c r="K83" s="187"/>
-      <c r="L83" s="220"/>
-    </row>
-    <row r="84" spans="2:12">
-      <c r="B84" s="210" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="188" t="s">
-        <v>257</v>
-      </c>
-      <c r="D84" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="188">
-        <v>96.62</v>
-      </c>
-      <c r="G84" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="H84" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="I84" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="189">
-        <v>0</v>
-      </c>
-      <c r="K84" s="189" t="s">
-        <v>270</v>
-      </c>
-      <c r="L84" s="220"/>
-    </row>
-    <row r="85" spans="2:12">
-      <c r="B85" s="210"/>
-      <c r="C85" s="188"/>
-      <c r="D85" s="188"/>
-      <c r="E85" s="188"/>
-      <c r="F85" s="188"/>
-      <c r="G85" s="188"/>
-      <c r="H85" s="188"/>
-      <c r="I85" s="188"/>
-      <c r="J85" s="189"/>
-      <c r="K85" s="189"/>
-      <c r="L85" s="220"/>
-    </row>
-    <row r="86" spans="2:12">
-      <c r="B86" s="211" t="s">
-        <v>214</v>
-      </c>
-      <c r="C86" s="190" t="s">
-        <v>258</v>
-      </c>
-      <c r="D86" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="190">
-        <v>96.6</v>
-      </c>
-      <c r="G86" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="H86" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="I86" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="J86" s="191">
-        <v>0</v>
-      </c>
-      <c r="K86" s="191" t="s">
-        <v>270</v>
-      </c>
-      <c r="L86" s="220"/>
-    </row>
-    <row r="87" spans="2:12">
-      <c r="B87" s="211"/>
-      <c r="C87" s="190"/>
-      <c r="D87" s="190"/>
-      <c r="E87" s="190"/>
-      <c r="F87" s="190"/>
-      <c r="G87" s="190"/>
-      <c r="H87" s="190"/>
-      <c r="I87" s="190"/>
-      <c r="J87" s="191"/>
-      <c r="K87" s="191"/>
-      <c r="L87" s="220"/>
-    </row>
-    <row r="88" spans="2:12">
-      <c r="B88" s="210" t="s">
-        <v>215</v>
-      </c>
-      <c r="C88" s="188" t="s">
-        <v>259</v>
-      </c>
-      <c r="D88" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" s="188">
-        <v>96.59</v>
-      </c>
-      <c r="G88" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="H88" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="I88" s="188" t="s">
-        <v>38</v>
-      </c>
-      <c r="J88" s="189">
-        <v>0</v>
-      </c>
-      <c r="K88" s="189" t="s">
-        <v>270</v>
-      </c>
-      <c r="L88" s="220"/>
+      <c r="L88" s="90"/>
     </row>
     <row r="89" spans="2:12">
-      <c r="B89" s="212"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="213"/>
-      <c r="E89" s="213"/>
-      <c r="F89" s="213"/>
-      <c r="G89" s="213"/>
-      <c r="H89" s="213"/>
-      <c r="I89" s="213"/>
-      <c r="J89" s="214"/>
-      <c r="K89" s="214"/>
-      <c r="L89" s="220"/>
+      <c r="B89" s="219"/>
+      <c r="C89" s="201"/>
+      <c r="D89" s="201"/>
+      <c r="E89" s="201"/>
+      <c r="F89" s="201"/>
+      <c r="G89" s="201"/>
+      <c r="H89" s="201"/>
+      <c r="I89" s="201"/>
+      <c r="J89" s="194"/>
+      <c r="K89" s="194"/>
+      <c r="L89" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="400">
@@ -10822,6 +11258,7 @@
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="B58:B59"/>
@@ -10917,7 +11354,6 @@
     <mergeCell ref="F78:F79"/>
     <mergeCell ref="G78:G79"/>
     <mergeCell ref="H78:H79"/>
-    <mergeCell ref="C76:C77"/>
     <mergeCell ref="D76:D77"/>
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
@@ -11165,7 +11601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G24"/>
   <sheetViews>
@@ -11178,14 +11614,14 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="G3" s="98"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="2:7" ht="16.2" thickBot="1">
       <c r="B4" s="3" t="s">
@@ -11200,8 +11636,8 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="98" t="s">
-        <v>142</v>
+      <c r="G4" s="81" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" thickTop="1">
@@ -11213,11 +11649,11 @@
       </c>
       <c r="D5" s="4">
         <f ca="1">2*RAND()*$D$2</f>
-        <v>3.0426698232312663</v>
+        <v>4.5195261424759314</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E14" ca="1" si="0">(1+C5/360*D5/100)</f>
-        <v>1.0000845186062008</v>
+        <v>1.0001255423928466</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>65</v>
@@ -11232,11 +11668,11 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ref="D6:D14" ca="1" si="1">2*RAND()*$D$2</f>
-        <v>1.4978984690818209</v>
+        <v>2.1110811055228451</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000416082908079</v>
+        <v>1.00005864114182</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -11249,11 +11685,11 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82875756819927093</v>
+        <v>9.4337032751544037</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.000023021043561</v>
+        <v>1.0002620473131987</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -11265,11 +11701,11 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0501083420696151</v>
+        <v>7.0787227986113974</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000569474539465</v>
+        <v>1.0001966311888504</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -11281,11 +11717,11 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5843124247741374</v>
+        <v>2.755558577058832</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0003820260353979</v>
+        <v>1.0002296298814215</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -11297,11 +11733,11 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4175914066931341</v>
+        <v>2.0777744288233113</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000115997612971</v>
+        <v>1.0000577159563562</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -11313,11 +11749,11 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8408983984493865</v>
+        <v>5.1571257984674261</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001622471777347</v>
+        <v>1.0001432534944019</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -11329,11 +11765,11 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9729027185419294</v>
+        <v>2.6998889841814098</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001659139644039</v>
+        <v>1.0000749969162273</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -11345,14 +11781,14 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8521011460784731</v>
+        <v>1.0107011318714787</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000514472540578</v>
-      </c>
-      <c r="G13" s="98" t="s">
-        <v>141</v>
+        <v>1.000028075031441</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -11364,11 +11800,11 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89480928472235766</v>
+        <v>8.5754632481714115</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000745674403935</v>
+        <v>1.0007146219373477</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>21</v>
@@ -11397,11 +11833,11 @@
       </c>
       <c r="D17" s="6">
         <f ca="1">SUMPRODUCT(D5:D14,C5:C14)/C17</f>
-        <v>2.7100209286310277</v>
+        <v>4.8629706529142096</v>
       </c>
       <c r="E17" s="6">
         <f ca="1">(PRODUCT(E5:E15)-1)*(360/C17)*100</f>
-        <v>2.7111653631049268</v>
+        <v>4.8666444800974213</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="15" thickTop="1"/>
@@ -11444,11 +11880,11 @@
       </c>
       <c r="D23" s="6">
         <f ca="1">100-D17</f>
-        <v>97.289979071368975</v>
+        <v>95.137029347085786</v>
       </c>
       <c r="E23" s="6">
         <f ca="1">100-E17</f>
-        <v>97.288834636895075</v>
+        <v>95.13335551990258</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="15" thickTop="1"/>

--- a/03 Products & Pricing/09 Futures/Futures.xlsx
+++ b/03 Products & Pricing/09 Futures/Futures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\09 Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF565A4-85D6-453D-87B3-146BEC67D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD6A25A-4F51-4DD6-B914-F50E5D2DCE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <definedName name="Ticker">'Contracts &amp; Margin'!$C$2</definedName>
     <definedName name="TickValue">'Contracts &amp; Margin'!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1805,7 +1805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2099,349 +2099,9 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2550,6 +2210,352 @@
     </xf>
     <xf numFmtId="169" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4749,8 +4755,8 @@
       <xdr:rowOff>172243</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4248817" cy="246857"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -4967,7 +4973,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7381,11 +7387,11 @@
       <c r="H8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="119" t="s">
+      <c r="I8" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
       <c r="L8" s="34" t="s">
         <v>56</v>
       </c>
@@ -7424,11 +7430,11 @@
       <c r="H9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
       <c r="L9" s="30" t="s">
         <v>57</v>
       </c>
@@ -7467,11 +7473,11 @@
       <c r="H10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
       <c r="L10" s="31" t="s">
         <v>57</v>
       </c>
@@ -7510,11 +7516,11 @@
       <c r="H11" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
       <c r="L11" s="44" t="s">
         <v>57</v>
       </c>
@@ -7553,11 +7559,11 @@
       <c r="H12" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="36" t="s">
         <v>58</v>
       </c>
@@ -7596,11 +7602,11 @@
       <c r="H13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="31" t="s">
         <v>58</v>
       </c>
@@ -7639,11 +7645,11 @@
       <c r="H14" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
       <c r="L14" s="49" t="s">
         <v>59</v>
       </c>
@@ -7682,11 +7688,11 @@
       <c r="H15" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
       <c r="L15" s="44" t="s">
         <v>59</v>
       </c>
@@ -7725,11 +7731,11 @@
       <c r="H16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="117" t="s">
+      <c r="I16" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
       <c r="L16" s="37" t="s">
         <v>60</v>
       </c>
@@ -7999,13 +8005,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="H1" s="222" t="s">
+      <c r="H1" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="223"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="12" t="s">
@@ -8016,7 +8022,7 @@
       </c>
       <c r="H2" s="57"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="226"/>
+      <c r="J2" s="112"/>
       <c r="K2" s="64"/>
       <c r="L2" s="58"/>
     </row>
@@ -8024,14 +8030,14 @@
       <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="221" t="str">
+      <c r="C3" s="111" t="str">
         <f>VLOOKUP($C$2,FuturesTable,2,0)</f>
         <v>USD 3M SOFR Futures</v>
       </c>
       <c r="D3" s="23"/>
       <c r="H3" s="59"/>
       <c r="I3" s="65"/>
-      <c r="J3" s="226"/>
+      <c r="J3" s="112"/>
       <c r="K3" s="65"/>
       <c r="L3" s="58"/>
     </row>
@@ -8046,7 +8052,7 @@
       <c r="D4" s="15"/>
       <c r="H4" s="63"/>
       <c r="I4" s="66"/>
-      <c r="J4" s="227"/>
+      <c r="J4" s="113"/>
       <c r="K4" s="66"/>
       <c r="L4" s="60"/>
     </row>
@@ -8112,7 +8118,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="31.2">
-      <c r="B9" s="251" t="s">
+      <c r="B9" s="137" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="68" t="s">
@@ -8122,27 +8128,27 @@
       <c r="E9" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="257">
+      <c r="F9" s="143">
         <v>25000</v>
       </c>
-      <c r="H9" s="254" t="s">
+      <c r="H9" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245">
+      <c r="I9" s="131"/>
+      <c r="J9" s="131">
         <f>-10*2500</f>
         <v>-25000</v>
       </c>
-      <c r="K9" s="246" t="s">
+      <c r="K9" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="260">
+      <c r="L9" s="146">
         <f>-J9</f>
         <v>25000</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="31.2">
-      <c r="B10" s="252"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="68" t="s">
         <v>287</v>
       </c>
@@ -8150,103 +8156,103 @@
         <v>111</v>
       </c>
       <c r="E10" s="68"/>
-      <c r="F10" s="258">
+      <c r="F10" s="144">
         <f>F9+I10</f>
         <v>33000</v>
       </c>
-      <c r="H10" s="255"/>
-      <c r="I10" s="247">
+      <c r="H10" s="141"/>
+      <c r="I10" s="133">
         <f>(9942-9910)*25*10</f>
         <v>8000</v>
       </c>
-      <c r="J10" s="247"/>
-      <c r="K10" s="247"/>
-      <c r="L10" s="261">
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="147">
         <f t="shared" ref="L10:L19" si="0">L9+I10-J10</f>
         <v>33000</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.8" thickBot="1">
-      <c r="B11" s="253"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
       <c r="E11" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="259">
+      <c r="F11" s="145">
         <f>F10-J11</f>
         <v>25000</v>
       </c>
-      <c r="H11" s="256"/>
-      <c r="I11" s="248"/>
-      <c r="J11" s="248">
+      <c r="H11" s="142"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134">
         <f>I10</f>
         <v>8000</v>
       </c>
-      <c r="K11" s="249" t="s">
+      <c r="K11" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="262">
+      <c r="L11" s="148">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="31.2">
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="228" t="s">
+      <c r="C12" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="229" t="s">
+      <c r="D12" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="228"/>
-      <c r="F12" s="236">
+      <c r="E12" s="114"/>
+      <c r="F12" s="122">
         <f>F11+I12</f>
         <v>22500</v>
       </c>
-      <c r="H12" s="235" t="s">
+      <c r="H12" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="242">
+      <c r="I12" s="128">
         <f>(9932-9942)*25*10</f>
         <v>-2500</v>
       </c>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="263">
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="149">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.8" thickBot="1">
-      <c r="B13" s="237"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="230" t="s">
+      <c r="B13" s="123"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="238">
+      <c r="F13" s="124">
         <f>F12-J13</f>
         <v>25000</v>
       </c>
-      <c r="H13" s="237"/>
-      <c r="I13" s="243"/>
-      <c r="J13" s="243">
+      <c r="H13" s="123"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129">
         <f>I12</f>
         <v>-2500</v>
       </c>
-      <c r="K13" s="244" t="s">
+      <c r="K13" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="264">
+      <c r="L13" s="150">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="31.2">
-      <c r="B14" s="252" t="s">
+      <c r="B14" s="138" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="68" t="s">
@@ -8256,26 +8262,26 @@
         <v>113</v>
       </c>
       <c r="E14" s="68"/>
-      <c r="F14" s="258">
+      <c r="F14" s="144">
         <f>F13+I14</f>
         <v>24250</v>
       </c>
-      <c r="H14" s="255" t="s">
+      <c r="H14" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="245">
+      <c r="I14" s="131">
         <f>(9927-9932)*25*6</f>
         <v>-750</v>
       </c>
-      <c r="J14" s="245"/>
-      <c r="K14" s="245"/>
-      <c r="L14" s="260">
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="146">
         <f t="shared" si="0"/>
         <v>24250</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.2">
-      <c r="B15" s="252"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="68" t="s">
         <v>290</v>
       </c>
@@ -8283,120 +8289,120 @@
         <v>114</v>
       </c>
       <c r="E15" s="68"/>
-      <c r="F15" s="258">
+      <c r="F15" s="144">
         <f>F14+I15</f>
         <v>23550</v>
       </c>
-      <c r="H15" s="255"/>
-      <c r="I15" s="247">
+      <c r="H15" s="141"/>
+      <c r="I15" s="133">
         <f>(9925-9932)*25*4</f>
         <v>-700</v>
       </c>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="261">
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="147">
         <f t="shared" si="0"/>
         <v>23550</v>
       </c>
       <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13" ht="46.8">
-      <c r="B16" s="252"/>
+      <c r="B16" s="138"/>
       <c r="C16" s="68"/>
       <c r="D16" s="69"/>
       <c r="E16" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="258">
+      <c r="F16" s="144">
         <f>F15-J16</f>
         <v>25000</v>
       </c>
-      <c r="H16" s="255"/>
-      <c r="I16" s="247"/>
-      <c r="J16" s="247">
+      <c r="H16" s="141"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133">
         <f>I14+I15</f>
         <v>-1450</v>
       </c>
-      <c r="K16" s="250" t="s">
+      <c r="K16" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="261">
+      <c r="L16" s="147">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="31.8" thickBot="1">
-      <c r="B17" s="253"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="70"/>
       <c r="D17" s="72"/>
       <c r="E17" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="259">
+      <c r="F17" s="145">
         <f>F16-J17</f>
         <v>10000</v>
       </c>
-      <c r="H17" s="256"/>
-      <c r="I17" s="248"/>
-      <c r="J17" s="248">
+      <c r="H17" s="142"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134">
         <v>15000</v>
       </c>
-      <c r="K17" s="249" t="s">
+      <c r="K17" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="262">
+      <c r="L17" s="148">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="31.2">
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="232" t="s">
+      <c r="C18" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="233" t="s">
+      <c r="D18" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="232"/>
-      <c r="F18" s="240">
+      <c r="E18" s="118"/>
+      <c r="F18" s="126">
         <f>F17+I18</f>
         <v>11300</v>
       </c>
-      <c r="H18" s="239" t="s">
+      <c r="H18" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="242">
+      <c r="I18" s="128">
         <f>(9938-9925)*25*4</f>
         <v>1300</v>
       </c>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="263">
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="149">
         <f t="shared" si="0"/>
         <v>11300</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="47.4" thickBot="1">
-      <c r="B19" s="241"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="230" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="238">
+      <c r="F19" s="124">
         <v>0</v>
       </c>
-      <c r="H19" s="241"/>
-      <c r="I19" s="243"/>
-      <c r="J19" s="243">
+      <c r="H19" s="127"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129">
         <v>11300</v>
       </c>
-      <c r="K19" s="244" t="s">
+      <c r="K19" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="264">
+      <c r="L19" s="150">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8477,7 +8483,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E0FDA-295D-453D-830E-FDFD564068EC}">
-  <dimension ref="B2:K16"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -8626,7 +8632,9 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="9"/>
-      <c r="C11" s="94"/>
+      <c r="C11" s="94">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="D11" s="82"/>
       <c r="E11" s="4"/>
     </row>
@@ -8644,7 +8652,8 @@
         <f>(C14-C10)*E10*C3</f>
         <v>-25239.370165899727</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="151"/>
       <c r="F13" s="4"/>
       <c r="G13" s="95" t="s">
         <v>281</v>
@@ -8663,6 +8672,8 @@
         <f>((1+C8*E8)/(1+C9*E9)-1)/E10</f>
         <v>1.9952125966820056E-2</v>
       </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="151"/>
       <c r="F14" s="4"/>
       <c r="G14" s="104" t="s">
         <v>278</v>
@@ -8679,13 +8690,26 @@
         <f>C8-C9</f>
         <v>2.5000000000000022E-3</v>
       </c>
+      <c r="D15" s="152"/>
+      <c r="E15" s="151"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:11">
       <c r="F16" s="4"/>
     </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="86"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="D22" s="86"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12" xr:uid="{02E6814C-0B71-42F0-B737-B269CCF6926A}">
       <formula1>"Long Future, Short Future"</formula1>
     </dataValidation>
@@ -8707,116 +8731,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="130" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="136" t="s">
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="186"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="144" t="s">
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="148">
+      <c r="F4" s="180"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="194">
         <v>23</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="140"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="142"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="150"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="196"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="130" t="s">
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="136" t="s">
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="140"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="144" t="s">
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="148">
+      <c r="F10" s="180"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="194">
         <v>3</v>
       </c>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="142"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="196"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="87" t="s">
@@ -8828,11 +8852,11 @@
       <c r="D14" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="88" t="s">
@@ -8845,11 +8869,11 @@
         <f t="shared" ref="D15:D18" si="0">B15&amp;C15</f>
         <v>EDH3</v>
       </c>
-      <c r="E15" s="125" t="s">
+      <c r="E15" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="88" t="s">
@@ -8862,11 +8886,11 @@
         <f t="shared" si="0"/>
         <v>EDM3</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="88" t="s">
@@ -8879,11 +8903,11 @@
         <f t="shared" si="0"/>
         <v>EDU3</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="88" t="s">
@@ -8896,11 +8920,11 @@
         <f t="shared" si="0"/>
         <v>EDZ3</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="87" t="s">
@@ -8912,11 +8936,11 @@
       <c r="D21" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="88" t="s">
@@ -8929,11 +8953,11 @@
         <f t="shared" ref="D22:D25" si="1">B22&amp;C22</f>
         <v>SR3H3</v>
       </c>
-      <c r="E22" s="125" t="s">
+      <c r="E22" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="88" t="s">
@@ -8946,11 +8970,11 @@
         <f t="shared" si="1"/>
         <v>SR3M3</v>
       </c>
-      <c r="E23" s="125" t="s">
+      <c r="E23" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="88" t="s">
@@ -8963,11 +8987,11 @@
         <f t="shared" si="1"/>
         <v>SR3U3</v>
       </c>
-      <c r="E24" s="125" t="s">
+      <c r="E24" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="88" t="s">
@@ -8980,11 +9004,11 @@
         <f t="shared" si="1"/>
         <v>SR3Z3</v>
       </c>
-      <c r="E25" s="125" t="s">
+      <c r="E25" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -9354,1843 +9378,1843 @@
       <c r="B7" s="91"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="242" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="200" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="200" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="154" t="s">
+      <c r="E10" s="200" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="200" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="200" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="154" t="s">
+      <c r="H10" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="154" t="s">
+      <c r="I10" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="154" t="s">
+      <c r="J10" s="200" t="s">
         <v>150</v>
       </c>
-      <c r="K10" s="154" t="s">
+      <c r="K10" s="200" t="s">
         <v>254</v>
       </c>
       <c r="L10" s="90"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="197"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
       <c r="L11" s="90"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="244" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="197" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="151">
+      <c r="D12" s="197">
         <v>98.117500000000007</v>
       </c>
-      <c r="E12" s="156" t="s">
+      <c r="E12" s="202" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="197">
         <v>98.122500000000002</v>
       </c>
-      <c r="G12" s="151">
+      <c r="G12" s="197">
         <v>98.122500000000002</v>
       </c>
-      <c r="H12" s="151">
+      <c r="H12" s="197">
         <v>98.147499999999994</v>
       </c>
-      <c r="I12" s="151">
+      <c r="I12" s="197">
         <v>98.11</v>
       </c>
-      <c r="J12" s="152">
+      <c r="J12" s="198">
         <v>45593</v>
       </c>
-      <c r="K12" s="151" t="s">
+      <c r="K12" s="197" t="s">
         <v>255</v>
       </c>
       <c r="L12" s="90"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="198"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="151"/>
+      <c r="B13" s="244"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="197"/>
       <c r="L13" s="90"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="199" t="s">
+      <c r="B14" s="245" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="199" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="153">
+      <c r="D14" s="199">
         <v>97.06</v>
       </c>
-      <c r="E14" s="153" t="s">
+      <c r="E14" s="199" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="153">
+      <c r="F14" s="199">
         <v>97.045000000000002</v>
       </c>
-      <c r="G14" s="153">
+      <c r="G14" s="199">
         <v>97.034999999999997</v>
       </c>
-      <c r="H14" s="153">
+      <c r="H14" s="199">
         <v>97.18</v>
       </c>
-      <c r="I14" s="153">
+      <c r="I14" s="199">
         <v>97.03</v>
       </c>
-      <c r="J14" s="158">
+      <c r="J14" s="204">
         <v>236774</v>
       </c>
-      <c r="K14" s="153" t="s">
+      <c r="K14" s="199" t="s">
         <v>255</v>
       </c>
       <c r="L14" s="90"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="199"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="153"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="199"/>
       <c r="L15" s="90"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="197" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="151">
+      <c r="D16" s="197">
         <v>96.71</v>
       </c>
-      <c r="E16" s="156" t="s">
+      <c r="E16" s="202" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="151">
+      <c r="F16" s="197">
         <v>96.67</v>
       </c>
-      <c r="G16" s="151">
+      <c r="G16" s="197">
         <v>96.63</v>
       </c>
-      <c r="H16" s="151">
+      <c r="H16" s="197">
         <v>96.87</v>
       </c>
-      <c r="I16" s="151">
+      <c r="I16" s="197">
         <v>96.605000000000004</v>
       </c>
-      <c r="J16" s="152">
+      <c r="J16" s="198">
         <v>339455</v>
       </c>
-      <c r="K16" s="152" t="s">
+      <c r="K16" s="198" t="s">
         <v>255</v>
       </c>
       <c r="L16" s="90"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="198"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
       <c r="L17" s="90"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="245" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="199" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="199">
         <v>96.734999999999999</v>
       </c>
-      <c r="E18" s="157" t="s">
+      <c r="E18" s="203" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="153">
+      <c r="F18" s="199">
         <v>96.63</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="199">
         <v>96.58</v>
       </c>
-      <c r="H18" s="153">
+      <c r="H18" s="199">
         <v>96.88</v>
       </c>
-      <c r="I18" s="153">
+      <c r="I18" s="199">
         <v>96.54</v>
       </c>
-      <c r="J18" s="158">
+      <c r="J18" s="204">
         <v>305759</v>
       </c>
-      <c r="K18" s="158" t="s">
+      <c r="K18" s="204" t="s">
         <v>255</v>
       </c>
       <c r="L18" s="90"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="199"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="204"/>
       <c r="L19" s="90"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="205" t="s">
+      <c r="B20" s="251" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="205" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="159">
+      <c r="D20" s="205">
         <v>96.97</v>
       </c>
-      <c r="E20" s="159" t="s">
+      <c r="E20" s="205" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="159">
+      <c r="F20" s="205">
         <v>96.825000000000003</v>
       </c>
-      <c r="G20" s="159">
+      <c r="G20" s="205">
         <v>96.77</v>
       </c>
-      <c r="H20" s="159">
+      <c r="H20" s="205">
         <v>97.1</v>
       </c>
-      <c r="I20" s="159">
+      <c r="I20" s="205">
         <v>96.734999999999999</v>
       </c>
-      <c r="J20" s="160">
+      <c r="J20" s="206">
         <v>255183</v>
       </c>
-      <c r="K20" s="160" t="s">
+      <c r="K20" s="206" t="s">
         <v>256</v>
       </c>
       <c r="L20" s="90"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="205"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
+      <c r="B21" s="251"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
       <c r="L21" s="90"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="202" t="s">
+      <c r="B22" s="248" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="161" t="s">
+      <c r="C22" s="207" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="207">
         <v>97.194999999999993</v>
       </c>
-      <c r="E22" s="161" t="s">
+      <c r="E22" s="207" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="207">
         <v>97.015000000000001</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="207">
         <v>96.965000000000003</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="207">
         <v>97.314999999999998</v>
       </c>
-      <c r="I22" s="161">
+      <c r="I22" s="207">
         <v>96.935000000000002</v>
       </c>
-      <c r="J22" s="162">
+      <c r="J22" s="208">
         <v>199337</v>
       </c>
-      <c r="K22" s="162" t="s">
+      <c r="K22" s="208" t="s">
         <v>256</v>
       </c>
       <c r="L22" s="90"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="202"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
+      <c r="B23" s="248"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
       <c r="L23" s="90"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="205" t="s">
+      <c r="B24" s="251" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="159" t="s">
+      <c r="C24" s="205" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="159">
+      <c r="D24" s="205">
         <v>97.364999999999995</v>
       </c>
-      <c r="E24" s="159" t="s">
+      <c r="E24" s="205" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="159">
+      <c r="F24" s="205">
         <v>97.165000000000006</v>
       </c>
-      <c r="G24" s="159">
+      <c r="G24" s="205">
         <v>97.13</v>
       </c>
-      <c r="H24" s="159">
+      <c r="H24" s="205">
         <v>97.474999999999994</v>
       </c>
-      <c r="I24" s="159">
+      <c r="I24" s="205">
         <v>97.094999999999999</v>
       </c>
-      <c r="J24" s="160">
+      <c r="J24" s="206">
         <v>185140</v>
       </c>
-      <c r="K24" s="160" t="s">
+      <c r="K24" s="206" t="s">
         <v>256</v>
       </c>
       <c r="L24" s="90"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="205"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
+      <c r="B25" s="251"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
       <c r="L25" s="90"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="202" t="s">
+      <c r="B26" s="248" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="161" t="s">
+      <c r="C26" s="207" t="s">
         <v>222</v>
       </c>
-      <c r="D26" s="161">
+      <c r="D26" s="207">
         <v>97.49</v>
       </c>
-      <c r="E26" s="161" t="s">
+      <c r="E26" s="207" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="161">
+      <c r="F26" s="207">
         <v>97.28</v>
       </c>
-      <c r="G26" s="161">
+      <c r="G26" s="207">
         <v>97.24</v>
       </c>
-      <c r="H26" s="161">
+      <c r="H26" s="207">
         <v>97.594999999999999</v>
       </c>
-      <c r="I26" s="161">
+      <c r="I26" s="207">
         <v>97.22</v>
       </c>
-      <c r="J26" s="162">
+      <c r="J26" s="208">
         <v>152166</v>
       </c>
-      <c r="K26" s="162" t="s">
+      <c r="K26" s="208" t="s">
         <v>256</v>
       </c>
       <c r="L26" s="90"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="202"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
+      <c r="K27" s="208"/>
       <c r="L27" s="90"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="203" t="s">
+      <c r="B28" s="249" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="163" t="s">
+      <c r="C28" s="209" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="163">
+      <c r="D28" s="209">
         <v>97.594999999999999</v>
       </c>
-      <c r="E28" s="163" t="s">
+      <c r="E28" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="163">
+      <c r="F28" s="209">
         <v>97.37</v>
       </c>
-      <c r="G28" s="163">
+      <c r="G28" s="209">
         <v>97.34</v>
       </c>
-      <c r="H28" s="163">
+      <c r="H28" s="209">
         <v>97.68</v>
       </c>
-      <c r="I28" s="163">
+      <c r="I28" s="209">
         <v>97.314999999999998</v>
       </c>
-      <c r="J28" s="164">
+      <c r="J28" s="210">
         <v>112246</v>
       </c>
-      <c r="K28" s="164" t="s">
+      <c r="K28" s="210" t="s">
         <v>257</v>
       </c>
       <c r="L28" s="90"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="203"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
+      <c r="B29" s="249"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="210"/>
+      <c r="K29" s="210"/>
       <c r="L29" s="90"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="204" t="s">
+      <c r="B30" s="250" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="165" t="s">
+      <c r="C30" s="211" t="s">
         <v>224</v>
       </c>
-      <c r="D30" s="165">
+      <c r="D30" s="211">
         <v>97.625</v>
       </c>
-      <c r="E30" s="165" t="s">
+      <c r="E30" s="211" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="165">
+      <c r="F30" s="211">
         <v>97.415000000000006</v>
       </c>
-      <c r="G30" s="165">
+      <c r="G30" s="211">
         <v>97.375</v>
       </c>
-      <c r="H30" s="165">
+      <c r="H30" s="211">
         <v>97.715000000000003</v>
       </c>
-      <c r="I30" s="165">
+      <c r="I30" s="211">
         <v>97.37</v>
       </c>
-      <c r="J30" s="166">
+      <c r="J30" s="212">
         <v>72282</v>
       </c>
-      <c r="K30" s="166" t="s">
+      <c r="K30" s="212" t="s">
         <v>257</v>
       </c>
       <c r="L30" s="90"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="204"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="166"/>
+      <c r="B31" s="250"/>
+      <c r="C31" s="211"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="212"/>
+      <c r="K31" s="212"/>
       <c r="L31" s="90"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="203" t="s">
+      <c r="B32" s="249" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="163" t="s">
+      <c r="C32" s="209" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="163">
+      <c r="D32" s="209">
         <v>97.62</v>
       </c>
-      <c r="E32" s="163" t="s">
+      <c r="E32" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="163">
+      <c r="F32" s="209">
         <v>97.424999999999997</v>
       </c>
-      <c r="G32" s="163">
+      <c r="G32" s="209">
         <v>97.39</v>
       </c>
-      <c r="H32" s="163">
+      <c r="H32" s="209">
         <v>97.71</v>
       </c>
-      <c r="I32" s="163">
+      <c r="I32" s="209">
         <v>97.38</v>
       </c>
-      <c r="J32" s="164">
+      <c r="J32" s="210">
         <v>68370</v>
       </c>
-      <c r="K32" s="164" t="s">
+      <c r="K32" s="210" t="s">
         <v>257</v>
       </c>
       <c r="L32" s="90"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="203"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164"/>
+      <c r="B33" s="249"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="210"/>
+      <c r="K33" s="210"/>
       <c r="L33" s="90"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="204" t="s">
+      <c r="B34" s="250" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="165" t="s">
+      <c r="C34" s="211" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="165">
+      <c r="D34" s="211">
         <v>97.614999999999995</v>
       </c>
-      <c r="E34" s="165" t="s">
+      <c r="E34" s="211" t="s">
         <v>173</v>
       </c>
-      <c r="F34" s="165">
+      <c r="F34" s="211">
         <v>97.44</v>
       </c>
-      <c r="G34" s="165">
+      <c r="G34" s="211">
         <v>97.405000000000001</v>
       </c>
-      <c r="H34" s="165">
+      <c r="H34" s="211">
         <v>97.704999999999998</v>
       </c>
-      <c r="I34" s="165">
+      <c r="I34" s="211">
         <v>97.394999999999996</v>
       </c>
-      <c r="J34" s="166">
+      <c r="J34" s="212">
         <v>52353</v>
       </c>
-      <c r="K34" s="166" t="s">
+      <c r="K34" s="212" t="s">
         <v>257</v>
       </c>
       <c r="L34" s="90"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="204"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="166"/>
-      <c r="K35" s="166"/>
+      <c r="B35" s="250"/>
+      <c r="C35" s="211"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="211"/>
+      <c r="J35" s="212"/>
+      <c r="K35" s="212"/>
       <c r="L35" s="90"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="206" t="s">
+      <c r="B36" s="252" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="167" t="s">
+      <c r="C36" s="213" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="167">
+      <c r="D36" s="213">
         <v>97.58</v>
       </c>
-      <c r="E36" s="167" t="s">
+      <c r="E36" s="213" t="s">
         <v>175</v>
       </c>
-      <c r="F36" s="167">
+      <c r="F36" s="213">
         <v>97.424999999999997</v>
       </c>
-      <c r="G36" s="167">
+      <c r="G36" s="213">
         <v>97.39</v>
       </c>
-      <c r="H36" s="167">
+      <c r="H36" s="213">
         <v>97.674999999999997</v>
       </c>
-      <c r="I36" s="167">
+      <c r="I36" s="213">
         <v>97.38</v>
       </c>
-      <c r="J36" s="168">
+      <c r="J36" s="214">
         <v>49777</v>
       </c>
-      <c r="K36" s="168" t="s">
+      <c r="K36" s="214" t="s">
         <v>258</v>
       </c>
       <c r="L36" s="90"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="206"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="168"/>
-      <c r="K37" s="168"/>
+      <c r="B37" s="252"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="214"/>
+      <c r="K37" s="214"/>
       <c r="L37" s="90"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="207" t="s">
+      <c r="B38" s="253" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="169" t="s">
+      <c r="C38" s="215" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="169">
+      <c r="D38" s="215">
         <v>97.534999999999997</v>
       </c>
-      <c r="E38" s="169" t="s">
+      <c r="E38" s="215" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="169">
+      <c r="F38" s="215">
         <v>97.394999999999996</v>
       </c>
-      <c r="G38" s="169">
+      <c r="G38" s="215">
         <v>97.355000000000004</v>
       </c>
-      <c r="H38" s="169">
+      <c r="H38" s="215">
         <v>97.62</v>
       </c>
-      <c r="I38" s="169">
+      <c r="I38" s="215">
         <v>97.344999999999999</v>
       </c>
-      <c r="J38" s="170">
+      <c r="J38" s="216">
         <v>19103</v>
       </c>
-      <c r="K38" s="170" t="s">
+      <c r="K38" s="216" t="s">
         <v>258</v>
       </c>
       <c r="L38" s="90"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="207"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
+      <c r="B39" s="253"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="216"/>
       <c r="L39" s="90"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="206" t="s">
+      <c r="B40" s="252" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="167" t="s">
+      <c r="C40" s="213" t="s">
         <v>229</v>
       </c>
-      <c r="D40" s="167">
+      <c r="D40" s="213">
         <v>97.47</v>
       </c>
-      <c r="E40" s="167" t="s">
+      <c r="E40" s="213" t="s">
         <v>179</v>
       </c>
-      <c r="F40" s="167">
+      <c r="F40" s="213">
         <v>97.35</v>
       </c>
-      <c r="G40" s="167">
+      <c r="G40" s="213">
         <v>97.31</v>
       </c>
-      <c r="H40" s="167">
+      <c r="H40" s="213">
         <v>97.56</v>
       </c>
-      <c r="I40" s="167">
+      <c r="I40" s="213">
         <v>97.305000000000007</v>
       </c>
-      <c r="J40" s="168">
+      <c r="J40" s="214">
         <v>15861</v>
       </c>
-      <c r="K40" s="168" t="s">
+      <c r="K40" s="214" t="s">
         <v>258</v>
       </c>
       <c r="L40" s="90"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="206"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="168"/>
+      <c r="B41" s="252"/>
+      <c r="C41" s="213"/>
+      <c r="D41" s="213"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="213"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="214"/>
       <c r="L41" s="90"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="207" t="s">
+      <c r="B42" s="253" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="169" t="s">
+      <c r="C42" s="215" t="s">
         <v>230</v>
       </c>
-      <c r="D42" s="169">
+      <c r="D42" s="215">
         <v>97.41</v>
       </c>
-      <c r="E42" s="169" t="s">
+      <c r="E42" s="215" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="169">
+      <c r="F42" s="215">
         <v>97.31</v>
       </c>
-      <c r="G42" s="169">
+      <c r="G42" s="215">
         <v>97.265000000000001</v>
       </c>
-      <c r="H42" s="169">
+      <c r="H42" s="215">
         <v>97.504999999999995</v>
       </c>
-      <c r="I42" s="169">
+      <c r="I42" s="215">
         <v>97.26</v>
       </c>
-      <c r="J42" s="170">
+      <c r="J42" s="216">
         <v>12703</v>
       </c>
-      <c r="K42" s="170" t="s">
+      <c r="K42" s="216" t="s">
         <v>258</v>
       </c>
       <c r="L42" s="90"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="207"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="169"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
+      <c r="B43" s="253"/>
+      <c r="C43" s="215"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="215"/>
+      <c r="G43" s="215"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="216"/>
+      <c r="K43" s="216"/>
       <c r="L43" s="90"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="208" t="s">
+      <c r="B44" s="254" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="171" t="s">
+      <c r="C44" s="217" t="s">
         <v>231</v>
       </c>
-      <c r="D44" s="171">
+      <c r="D44" s="217">
         <v>97.355000000000004</v>
       </c>
-      <c r="E44" s="171" t="s">
+      <c r="E44" s="217" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="171">
+      <c r="F44" s="217">
         <v>97.27</v>
       </c>
-      <c r="G44" s="171">
+      <c r="G44" s="217">
         <v>97.224999999999994</v>
       </c>
-      <c r="H44" s="171">
+      <c r="H44" s="217">
         <v>97.454999999999998</v>
       </c>
-      <c r="I44" s="171">
+      <c r="I44" s="217">
         <v>97.22</v>
       </c>
-      <c r="J44" s="172">
+      <c r="J44" s="218">
         <v>10425</v>
       </c>
-      <c r="K44" s="172" t="s">
+      <c r="K44" s="218" t="s">
         <v>259</v>
       </c>
       <c r="L44" s="90"/>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="208"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="172"/>
-      <c r="K45" s="172"/>
+      <c r="B45" s="254"/>
+      <c r="C45" s="217"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="217"/>
+      <c r="G45" s="217"/>
+      <c r="H45" s="217"/>
+      <c r="I45" s="217"/>
+      <c r="J45" s="218"/>
+      <c r="K45" s="218"/>
       <c r="L45" s="90"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="209" t="s">
+      <c r="B46" s="255" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="173" t="s">
+      <c r="C46" s="219" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="173">
+      <c r="D46" s="219">
         <v>97.32</v>
       </c>
-      <c r="E46" s="173" t="s">
+      <c r="E46" s="219" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="173">
+      <c r="F46" s="219">
         <v>97.24</v>
       </c>
-      <c r="G46" s="173">
+      <c r="G46" s="219">
         <v>97.19</v>
       </c>
-      <c r="H46" s="173">
+      <c r="H46" s="219">
         <v>97.42</v>
       </c>
-      <c r="I46" s="173">
+      <c r="I46" s="219">
         <v>97.185000000000002</v>
       </c>
-      <c r="J46" s="174">
+      <c r="J46" s="220">
         <v>2435</v>
       </c>
-      <c r="K46" s="174" t="s">
+      <c r="K46" s="220" t="s">
         <v>259</v>
       </c>
       <c r="L46" s="90"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="209"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="173"/>
-      <c r="E47" s="173"/>
-      <c r="F47" s="173"/>
-      <c r="G47" s="173"/>
-      <c r="H47" s="173"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="174"/>
-      <c r="K47" s="174"/>
+      <c r="B47" s="255"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="219"/>
+      <c r="F47" s="219"/>
+      <c r="G47" s="219"/>
+      <c r="H47" s="219"/>
+      <c r="I47" s="219"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="220"/>
       <c r="L47" s="90"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="208" t="s">
+      <c r="B48" s="254" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="171" t="s">
+      <c r="C48" s="217" t="s">
         <v>233</v>
       </c>
-      <c r="D48" s="171">
+      <c r="D48" s="217">
         <v>97.27</v>
       </c>
-      <c r="E48" s="171" t="s">
+      <c r="E48" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="F48" s="171">
+      <c r="F48" s="217">
         <v>97.2</v>
       </c>
-      <c r="G48" s="171">
+      <c r="G48" s="217">
         <v>97.15</v>
       </c>
-      <c r="H48" s="171">
+      <c r="H48" s="217">
         <v>97.37</v>
       </c>
-      <c r="I48" s="171">
+      <c r="I48" s="217">
         <v>97.15</v>
       </c>
-      <c r="J48" s="172">
+      <c r="J48" s="218">
         <v>3040</v>
       </c>
-      <c r="K48" s="172" t="s">
+      <c r="K48" s="218" t="s">
         <v>259</v>
       </c>
       <c r="L48" s="90"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="208"/>
-      <c r="C49" s="171"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="172"/>
-      <c r="K49" s="172"/>
+      <c r="B49" s="254"/>
+      <c r="C49" s="217"/>
+      <c r="D49" s="217"/>
+      <c r="E49" s="217"/>
+      <c r="F49" s="217"/>
+      <c r="G49" s="217"/>
+      <c r="H49" s="217"/>
+      <c r="I49" s="217"/>
+      <c r="J49" s="218"/>
+      <c r="K49" s="218"/>
       <c r="L49" s="90"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="209" t="s">
+      <c r="B50" s="255" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="173" t="s">
+      <c r="C50" s="219" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="173">
+      <c r="D50" s="219">
         <v>97.224999999999994</v>
       </c>
-      <c r="E50" s="173" t="s">
+      <c r="E50" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="173">
+      <c r="F50" s="219">
         <v>97.165000000000006</v>
       </c>
-      <c r="G50" s="173">
+      <c r="G50" s="219">
         <v>97.114999999999995</v>
       </c>
-      <c r="H50" s="173">
+      <c r="H50" s="219">
         <v>97.33</v>
       </c>
-      <c r="I50" s="173">
+      <c r="I50" s="219">
         <v>97.11</v>
       </c>
-      <c r="J50" s="174">
+      <c r="J50" s="220">
         <v>1867</v>
       </c>
-      <c r="K50" s="174" t="s">
+      <c r="K50" s="220" t="s">
         <v>259</v>
       </c>
       <c r="L50" s="90"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="209"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="173"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="173"/>
-      <c r="G51" s="173"/>
-      <c r="H51" s="173"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="174"/>
-      <c r="K51" s="174"/>
+      <c r="B51" s="255"/>
+      <c r="C51" s="219"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
+      <c r="F51" s="219"/>
+      <c r="G51" s="219"/>
+      <c r="H51" s="219"/>
+      <c r="I51" s="219"/>
+      <c r="J51" s="220"/>
+      <c r="K51" s="220"/>
       <c r="L51" s="90"/>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="210" t="s">
+      <c r="B52" s="256" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="175" t="s">
+      <c r="C52" s="221" t="s">
         <v>235</v>
       </c>
-      <c r="D52" s="175">
+      <c r="D52" s="221">
         <v>97.18</v>
       </c>
-      <c r="E52" s="175" t="s">
+      <c r="E52" s="221" t="s">
         <v>191</v>
       </c>
-      <c r="F52" s="175">
+      <c r="F52" s="221">
         <v>97.13</v>
       </c>
-      <c r="G52" s="175">
+      <c r="G52" s="221">
         <v>97.09</v>
       </c>
-      <c r="H52" s="175">
+      <c r="H52" s="221">
         <v>97.29</v>
       </c>
-      <c r="I52" s="175">
+      <c r="I52" s="221">
         <v>97.075000000000003</v>
       </c>
-      <c r="J52" s="176">
+      <c r="J52" s="222">
         <v>1810</v>
       </c>
-      <c r="K52" s="176" t="s">
+      <c r="K52" s="222" t="s">
         <v>260</v>
       </c>
       <c r="L52" s="90"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="210"/>
-      <c r="C53" s="175"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="175"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="175"/>
-      <c r="I53" s="175"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="176"/>
+      <c r="B53" s="256"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="221"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="221"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="222"/>
+      <c r="K53" s="222"/>
       <c r="L53" s="90"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="211" t="s">
+      <c r="B54" s="257" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="177" t="s">
+      <c r="C54" s="223" t="s">
         <v>236</v>
       </c>
-      <c r="D54" s="177">
+      <c r="D54" s="223">
         <v>97.135000000000005</v>
       </c>
-      <c r="E54" s="177" t="s">
+      <c r="E54" s="223" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="177">
+      <c r="F54" s="223">
         <v>97.094999999999999</v>
       </c>
-      <c r="G54" s="177">
+      <c r="G54" s="223">
         <v>97.05</v>
       </c>
-      <c r="H54" s="177">
+      <c r="H54" s="223">
         <v>97.18</v>
       </c>
-      <c r="I54" s="177">
+      <c r="I54" s="223">
         <v>97.05</v>
       </c>
-      <c r="J54" s="178">
+      <c r="J54" s="224">
         <v>158</v>
       </c>
-      <c r="K54" s="178" t="s">
+      <c r="K54" s="224" t="s">
         <v>260</v>
       </c>
       <c r="L54" s="90"/>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="211"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="177"/>
-      <c r="J55" s="178"/>
-      <c r="K55" s="178"/>
+      <c r="B55" s="257"/>
+      <c r="C55" s="223"/>
+      <c r="D55" s="223"/>
+      <c r="E55" s="223"/>
+      <c r="F55" s="223"/>
+      <c r="G55" s="223"/>
+      <c r="H55" s="223"/>
+      <c r="I55" s="223"/>
+      <c r="J55" s="224"/>
+      <c r="K55" s="224"/>
       <c r="L55" s="90"/>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="210" t="s">
+      <c r="B56" s="256" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="175" t="s">
+      <c r="C56" s="221" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="175">
+      <c r="D56" s="221">
         <v>97.135000000000005</v>
       </c>
-      <c r="E56" s="175" t="s">
+      <c r="E56" s="221" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="175">
+      <c r="F56" s="221">
         <v>97.055000000000007</v>
       </c>
-      <c r="G56" s="175">
+      <c r="G56" s="221">
         <v>97.19</v>
       </c>
-      <c r="H56" s="175">
+      <c r="H56" s="221">
         <v>97.19</v>
       </c>
-      <c r="I56" s="175">
+      <c r="I56" s="221">
         <v>97.135000000000005</v>
       </c>
-      <c r="J56" s="176">
+      <c r="J56" s="222">
         <v>34</v>
       </c>
-      <c r="K56" s="176" t="s">
+      <c r="K56" s="222" t="s">
         <v>260</v>
       </c>
       <c r="L56" s="90"/>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="210"/>
-      <c r="C57" s="175"/>
-      <c r="D57" s="175"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="175"/>
-      <c r="G57" s="175"/>
-      <c r="H57" s="175"/>
-      <c r="I57" s="175"/>
-      <c r="J57" s="176"/>
-      <c r="K57" s="176"/>
+      <c r="B57" s="256"/>
+      <c r="C57" s="221"/>
+      <c r="D57" s="221"/>
+      <c r="E57" s="221"/>
+      <c r="F57" s="221"/>
+      <c r="G57" s="221"/>
+      <c r="H57" s="221"/>
+      <c r="I57" s="221"/>
+      <c r="J57" s="222"/>
+      <c r="K57" s="222"/>
       <c r="L57" s="90"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="211" t="s">
+      <c r="B58" s="257" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="177" t="s">
+      <c r="C58" s="223" t="s">
         <v>238</v>
       </c>
-      <c r="D58" s="177" t="s">
+      <c r="D58" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="177" t="s">
+      <c r="E58" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="177">
+      <c r="F58" s="223">
         <v>97.03</v>
       </c>
-      <c r="G58" s="177" t="s">
+      <c r="G58" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="177" t="s">
+      <c r="H58" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="I58" s="177" t="s">
+      <c r="I58" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="J58" s="178">
+      <c r="J58" s="224">
         <v>0</v>
       </c>
-      <c r="K58" s="178" t="s">
+      <c r="K58" s="224" t="s">
         <v>260</v>
       </c>
       <c r="L58" s="90"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="211"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
-      <c r="E59" s="177"/>
-      <c r="F59" s="177"/>
-      <c r="G59" s="177"/>
-      <c r="H59" s="177"/>
-      <c r="I59" s="177"/>
-      <c r="J59" s="178"/>
-      <c r="K59" s="178"/>
+      <c r="B59" s="257"/>
+      <c r="C59" s="223"/>
+      <c r="D59" s="223"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="223"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="223"/>
+      <c r="J59" s="224"/>
+      <c r="K59" s="224"/>
       <c r="L59" s="90"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="212" t="s">
+      <c r="B60" s="258" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="179" t="s">
+      <c r="C60" s="225" t="s">
         <v>239</v>
       </c>
-      <c r="D60" s="179" t="s">
+      <c r="D60" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="179" t="s">
+      <c r="E60" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="179">
+      <c r="F60" s="225">
         <v>96.995000000000005</v>
       </c>
-      <c r="G60" s="179" t="s">
+      <c r="G60" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="179" t="s">
+      <c r="H60" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="I60" s="179" t="s">
+      <c r="I60" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="180">
+      <c r="J60" s="226">
         <v>0</v>
       </c>
-      <c r="K60" s="180" t="s">
+      <c r="K60" s="226" t="s">
         <v>261</v>
       </c>
       <c r="L60" s="90"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="212"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
-      <c r="E61" s="179"/>
-      <c r="F61" s="179"/>
-      <c r="G61" s="179"/>
-      <c r="H61" s="179"/>
-      <c r="I61" s="179"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="180"/>
+      <c r="B61" s="258"/>
+      <c r="C61" s="225"/>
+      <c r="D61" s="225"/>
+      <c r="E61" s="225"/>
+      <c r="F61" s="225"/>
+      <c r="G61" s="225"/>
+      <c r="H61" s="225"/>
+      <c r="I61" s="225"/>
+      <c r="J61" s="226"/>
+      <c r="K61" s="226"/>
       <c r="L61" s="90"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="213" t="s">
+      <c r="B62" s="259" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="181" t="s">
+      <c r="C62" s="227" t="s">
         <v>240</v>
       </c>
-      <c r="D62" s="181" t="s">
+      <c r="D62" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="181" t="s">
+      <c r="E62" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="181">
+      <c r="F62" s="227">
         <v>96.96</v>
       </c>
-      <c r="G62" s="181" t="s">
+      <c r="G62" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="181" t="s">
+      <c r="H62" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="181" t="s">
+      <c r="I62" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="J62" s="182">
+      <c r="J62" s="228">
         <v>0</v>
       </c>
-      <c r="K62" s="182" t="s">
+      <c r="K62" s="228" t="s">
         <v>261</v>
       </c>
       <c r="L62" s="90"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="213"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="181"/>
-      <c r="E63" s="181"/>
-      <c r="F63" s="181"/>
-      <c r="G63" s="181"/>
-      <c r="H63" s="181"/>
-      <c r="I63" s="181"/>
-      <c r="J63" s="182"/>
-      <c r="K63" s="182"/>
+      <c r="B63" s="259"/>
+      <c r="C63" s="227"/>
+      <c r="D63" s="227"/>
+      <c r="E63" s="227"/>
+      <c r="F63" s="227"/>
+      <c r="G63" s="227"/>
+      <c r="H63" s="227"/>
+      <c r="I63" s="227"/>
+      <c r="J63" s="228"/>
+      <c r="K63" s="228"/>
       <c r="L63" s="90"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="212" t="s">
+      <c r="B64" s="258" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="179" t="s">
+      <c r="C64" s="225" t="s">
         <v>241</v>
       </c>
-      <c r="D64" s="179" t="s">
+      <c r="D64" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="179" t="s">
+      <c r="E64" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="179">
+      <c r="F64" s="225">
         <v>96.92</v>
       </c>
-      <c r="G64" s="179" t="s">
+      <c r="G64" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="179" t="s">
+      <c r="H64" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="I64" s="179" t="s">
+      <c r="I64" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="J64" s="180">
+      <c r="J64" s="226">
         <v>19</v>
       </c>
-      <c r="K64" s="180" t="s">
+      <c r="K64" s="226" t="s">
         <v>261</v>
       </c>
       <c r="L64" s="90"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="212"/>
-      <c r="C65" s="179"/>
-      <c r="D65" s="179"/>
-      <c r="E65" s="179"/>
-      <c r="F65" s="179"/>
-      <c r="G65" s="179"/>
-      <c r="H65" s="179"/>
-      <c r="I65" s="179"/>
-      <c r="J65" s="180"/>
-      <c r="K65" s="180"/>
+      <c r="B65" s="258"/>
+      <c r="C65" s="225"/>
+      <c r="D65" s="225"/>
+      <c r="E65" s="225"/>
+      <c r="F65" s="225"/>
+      <c r="G65" s="225"/>
+      <c r="H65" s="225"/>
+      <c r="I65" s="225"/>
+      <c r="J65" s="226"/>
+      <c r="K65" s="226"/>
       <c r="L65" s="90"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="213" t="s">
+      <c r="B66" s="259" t="s">
         <v>198</v>
       </c>
-      <c r="C66" s="181" t="s">
+      <c r="C66" s="227" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="181" t="s">
+      <c r="D66" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="181" t="s">
+      <c r="E66" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="181">
+      <c r="F66" s="227">
         <v>96.89</v>
       </c>
-      <c r="G66" s="181" t="s">
+      <c r="G66" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="181" t="s">
+      <c r="H66" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="I66" s="181" t="s">
+      <c r="I66" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="J66" s="182">
+      <c r="J66" s="228">
         <v>0</v>
       </c>
-      <c r="K66" s="182" t="s">
+      <c r="K66" s="228" t="s">
         <v>261</v>
       </c>
       <c r="L66" s="90"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="213"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
-      <c r="E67" s="181"/>
-      <c r="F67" s="181"/>
-      <c r="G67" s="181"/>
-      <c r="H67" s="181"/>
-      <c r="I67" s="181"/>
-      <c r="J67" s="182"/>
-      <c r="K67" s="182"/>
+      <c r="B67" s="259"/>
+      <c r="C67" s="227"/>
+      <c r="D67" s="227"/>
+      <c r="E67" s="227"/>
+      <c r="F67" s="227"/>
+      <c r="G67" s="227"/>
+      <c r="H67" s="227"/>
+      <c r="I67" s="227"/>
+      <c r="J67" s="228"/>
+      <c r="K67" s="228"/>
       <c r="L67" s="90"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="217" t="s">
+      <c r="B68" s="263" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="183" t="s">
+      <c r="C68" s="229" t="s">
         <v>243</v>
       </c>
-      <c r="D68" s="183" t="s">
+      <c r="D68" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="183" t="s">
+      <c r="E68" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="183">
+      <c r="F68" s="229">
         <v>96.85</v>
       </c>
-      <c r="G68" s="183" t="s">
+      <c r="G68" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="H68" s="183" t="s">
+      <c r="H68" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="183" t="s">
+      <c r="I68" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="J68" s="184">
+      <c r="J68" s="230">
         <v>0</v>
       </c>
-      <c r="K68" s="184" t="s">
+      <c r="K68" s="230" t="s">
         <v>262</v>
       </c>
       <c r="L68" s="90"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="217"/>
-      <c r="C69" s="183"/>
-      <c r="D69" s="183"/>
-      <c r="E69" s="183"/>
-      <c r="F69" s="183"/>
-      <c r="G69" s="183"/>
-      <c r="H69" s="183"/>
-      <c r="I69" s="183"/>
-      <c r="J69" s="184"/>
-      <c r="K69" s="184"/>
+      <c r="B69" s="263"/>
+      <c r="C69" s="229"/>
+      <c r="D69" s="229"/>
+      <c r="E69" s="229"/>
+      <c r="F69" s="229"/>
+      <c r="G69" s="229"/>
+      <c r="H69" s="229"/>
+      <c r="I69" s="229"/>
+      <c r="J69" s="230"/>
+      <c r="K69" s="230"/>
       <c r="L69" s="90"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="214" t="s">
+      <c r="B70" s="260" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="185" t="s">
+      <c r="C70" s="231" t="s">
         <v>244</v>
       </c>
-      <c r="D70" s="185" t="s">
+      <c r="D70" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="185" t="s">
+      <c r="E70" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="185">
+      <c r="F70" s="231">
         <v>96.82</v>
       </c>
-      <c r="G70" s="185" t="s">
+      <c r="G70" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="H70" s="185" t="s">
+      <c r="H70" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="I70" s="185" t="s">
+      <c r="I70" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="J70" s="186">
+      <c r="J70" s="232">
         <v>0</v>
       </c>
-      <c r="K70" s="186" t="s">
+      <c r="K70" s="232" t="s">
         <v>262</v>
       </c>
       <c r="L70" s="90"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="214"/>
-      <c r="C71" s="185"/>
-      <c r="D71" s="185"/>
-      <c r="E71" s="185"/>
-      <c r="F71" s="185"/>
-      <c r="G71" s="185"/>
-      <c r="H71" s="185"/>
-      <c r="I71" s="185"/>
-      <c r="J71" s="186"/>
-      <c r="K71" s="186"/>
+      <c r="B71" s="260"/>
+      <c r="C71" s="231"/>
+      <c r="D71" s="231"/>
+      <c r="E71" s="231"/>
+      <c r="F71" s="231"/>
+      <c r="G71" s="231"/>
+      <c r="H71" s="231"/>
+      <c r="I71" s="231"/>
+      <c r="J71" s="232"/>
+      <c r="K71" s="232"/>
       <c r="L71" s="90"/>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="217" t="s">
+      <c r="B72" s="263" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="183" t="s">
+      <c r="C72" s="229" t="s">
         <v>245</v>
       </c>
-      <c r="D72" s="183" t="s">
+      <c r="D72" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="E72" s="183" t="s">
+      <c r="E72" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="183">
+      <c r="F72" s="229">
         <v>96.79</v>
       </c>
-      <c r="G72" s="183" t="s">
+      <c r="G72" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="H72" s="183" t="s">
+      <c r="H72" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="I72" s="183" t="s">
+      <c r="I72" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="J72" s="184">
+      <c r="J72" s="230">
         <v>0</v>
       </c>
-      <c r="K72" s="184" t="s">
+      <c r="K72" s="230" t="s">
         <v>262</v>
       </c>
       <c r="L72" s="90"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="217"/>
-      <c r="C73" s="183"/>
-      <c r="D73" s="183"/>
-      <c r="E73" s="183"/>
-      <c r="F73" s="183"/>
-      <c r="G73" s="183"/>
-      <c r="H73" s="183"/>
-      <c r="I73" s="183"/>
-      <c r="J73" s="184"/>
-      <c r="K73" s="184"/>
+      <c r="B73" s="263"/>
+      <c r="C73" s="229"/>
+      <c r="D73" s="229"/>
+      <c r="E73" s="229"/>
+      <c r="F73" s="229"/>
+      <c r="G73" s="229"/>
+      <c r="H73" s="229"/>
+      <c r="I73" s="229"/>
+      <c r="J73" s="230"/>
+      <c r="K73" s="230"/>
       <c r="L73" s="90"/>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="214" t="s">
+      <c r="B74" s="260" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="185" t="s">
+      <c r="C74" s="231" t="s">
         <v>246</v>
       </c>
-      <c r="D74" s="185" t="s">
+      <c r="D74" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="E74" s="185" t="s">
+      <c r="E74" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="185">
+      <c r="F74" s="231">
         <v>96.765000000000001</v>
       </c>
-      <c r="G74" s="185" t="s">
+      <c r="G74" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="H74" s="185" t="s">
+      <c r="H74" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="185" t="s">
+      <c r="I74" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="J74" s="186">
+      <c r="J74" s="232">
         <v>0</v>
       </c>
-      <c r="K74" s="186" t="s">
+      <c r="K74" s="232" t="s">
         <v>262</v>
       </c>
       <c r="L74" s="90"/>
     </row>
     <row r="75" spans="2:12">
-      <c r="B75" s="214"/>
-      <c r="C75" s="185"/>
-      <c r="D75" s="185"/>
-      <c r="E75" s="185"/>
-      <c r="F75" s="185"/>
-      <c r="G75" s="185"/>
-      <c r="H75" s="185"/>
-      <c r="I75" s="185"/>
-      <c r="J75" s="186"/>
-      <c r="K75" s="186"/>
+      <c r="B75" s="260"/>
+      <c r="C75" s="231"/>
+      <c r="D75" s="231"/>
+      <c r="E75" s="231"/>
+      <c r="F75" s="231"/>
+      <c r="G75" s="231"/>
+      <c r="H75" s="231"/>
+      <c r="I75" s="231"/>
+      <c r="J75" s="232"/>
+      <c r="K75" s="232"/>
       <c r="L75" s="90"/>
     </row>
     <row r="76" spans="2:12">
-      <c r="B76" s="215" t="s">
+      <c r="B76" s="261" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="189" t="s">
+      <c r="C76" s="235" t="s">
         <v>247</v>
       </c>
-      <c r="D76" s="189" t="s">
+      <c r="D76" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="E76" s="189" t="s">
+      <c r="E76" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="189">
+      <c r="F76" s="235">
         <v>96.724999999999994</v>
       </c>
-      <c r="G76" s="189" t="s">
+      <c r="G76" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="H76" s="189" t="s">
+      <c r="H76" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="I76" s="189" t="s">
+      <c r="I76" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="190">
+      <c r="J76" s="236">
         <v>0</v>
       </c>
-      <c r="K76" s="190" t="s">
+      <c r="K76" s="236" t="s">
         <v>263</v>
       </c>
       <c r="L76" s="90"/>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="215"/>
-      <c r="C77" s="189"/>
-      <c r="D77" s="189"/>
-      <c r="E77" s="189"/>
-      <c r="F77" s="189"/>
-      <c r="G77" s="189"/>
-      <c r="H77" s="189"/>
-      <c r="I77" s="189"/>
-      <c r="J77" s="190"/>
-      <c r="K77" s="190"/>
+      <c r="B77" s="261"/>
+      <c r="C77" s="235"/>
+      <c r="D77" s="235"/>
+      <c r="E77" s="235"/>
+      <c r="F77" s="235"/>
+      <c r="G77" s="235"/>
+      <c r="H77" s="235"/>
+      <c r="I77" s="235"/>
+      <c r="J77" s="236"/>
+      <c r="K77" s="236"/>
       <c r="L77" s="90"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="216" t="s">
+      <c r="B78" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="187" t="s">
+      <c r="C78" s="233" t="s">
         <v>248</v>
       </c>
-      <c r="D78" s="187" t="s">
+      <c r="D78" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="E78" s="187" t="s">
+      <c r="E78" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="187">
+      <c r="F78" s="233">
         <v>96.685000000000002</v>
       </c>
-      <c r="G78" s="187" t="s">
+      <c r="G78" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="H78" s="187" t="s">
+      <c r="H78" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="I78" s="187" t="s">
+      <c r="I78" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="J78" s="188">
+      <c r="J78" s="234">
         <v>0</v>
       </c>
-      <c r="K78" s="188" t="s">
+      <c r="K78" s="234" t="s">
         <v>263</v>
       </c>
       <c r="L78" s="90"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="216"/>
-      <c r="C79" s="187"/>
-      <c r="D79" s="187"/>
-      <c r="E79" s="187"/>
-      <c r="F79" s="187"/>
-      <c r="G79" s="187"/>
-      <c r="H79" s="187"/>
-      <c r="I79" s="187"/>
-      <c r="J79" s="188"/>
-      <c r="K79" s="188"/>
+      <c r="B79" s="262"/>
+      <c r="C79" s="233"/>
+      <c r="D79" s="233"/>
+      <c r="E79" s="233"/>
+      <c r="F79" s="233"/>
+      <c r="G79" s="233"/>
+      <c r="H79" s="233"/>
+      <c r="I79" s="233"/>
+      <c r="J79" s="234"/>
+      <c r="K79" s="234"/>
       <c r="L79" s="90"/>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="215" t="s">
+      <c r="B80" s="261" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="189" t="s">
+      <c r="C80" s="235" t="s">
         <v>249</v>
       </c>
-      <c r="D80" s="189" t="s">
+      <c r="D80" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="E80" s="189" t="s">
+      <c r="E80" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="189">
+      <c r="F80" s="235">
         <v>96.67</v>
       </c>
-      <c r="G80" s="189" t="s">
+      <c r="G80" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="H80" s="189" t="s">
+      <c r="H80" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="I80" s="189" t="s">
+      <c r="I80" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="J80" s="190">
+      <c r="J80" s="236">
         <v>0</v>
       </c>
-      <c r="K80" s="190" t="s">
+      <c r="K80" s="236" t="s">
         <v>263</v>
       </c>
       <c r="L80" s="90"/>
     </row>
     <row r="81" spans="2:12">
-      <c r="B81" s="215"/>
-      <c r="C81" s="189"/>
-      <c r="D81" s="189"/>
-      <c r="E81" s="189"/>
-      <c r="F81" s="189"/>
-      <c r="G81" s="189"/>
-      <c r="H81" s="189"/>
-      <c r="I81" s="189"/>
-      <c r="J81" s="190"/>
-      <c r="K81" s="190"/>
+      <c r="B81" s="261"/>
+      <c r="C81" s="235"/>
+      <c r="D81" s="235"/>
+      <c r="E81" s="235"/>
+      <c r="F81" s="235"/>
+      <c r="G81" s="235"/>
+      <c r="H81" s="235"/>
+      <c r="I81" s="235"/>
+      <c r="J81" s="236"/>
+      <c r="K81" s="236"/>
       <c r="L81" s="90"/>
     </row>
     <row r="82" spans="2:12">
-      <c r="B82" s="216" t="s">
+      <c r="B82" s="262" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="187" t="s">
+      <c r="C82" s="233" t="s">
         <v>250</v>
       </c>
-      <c r="D82" s="187" t="s">
+      <c r="D82" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="187" t="s">
+      <c r="E82" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="187">
+      <c r="F82" s="233">
         <v>96.644999999999996</v>
       </c>
-      <c r="G82" s="187" t="s">
+      <c r="G82" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="187" t="s">
+      <c r="H82" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="I82" s="187" t="s">
+      <c r="I82" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="J82" s="188">
+      <c r="J82" s="234">
         <v>0</v>
       </c>
-      <c r="K82" s="188" t="s">
+      <c r="K82" s="234" t="s">
         <v>263</v>
       </c>
       <c r="L82" s="90"/>
     </row>
     <row r="83" spans="2:12">
-      <c r="B83" s="216"/>
-      <c r="C83" s="187"/>
-      <c r="D83" s="187"/>
-      <c r="E83" s="187"/>
-      <c r="F83" s="187"/>
-      <c r="G83" s="187"/>
-      <c r="H83" s="187"/>
-      <c r="I83" s="187"/>
-      <c r="J83" s="188"/>
-      <c r="K83" s="188"/>
+      <c r="B83" s="262"/>
+      <c r="C83" s="233"/>
+      <c r="D83" s="233"/>
+      <c r="E83" s="233"/>
+      <c r="F83" s="233"/>
+      <c r="G83" s="233"/>
+      <c r="H83" s="233"/>
+      <c r="I83" s="233"/>
+      <c r="J83" s="234"/>
+      <c r="K83" s="234"/>
       <c r="L83" s="90"/>
     </row>
     <row r="84" spans="2:12">
-      <c r="B84" s="218" t="s">
+      <c r="B84" s="264" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="192" t="s">
+      <c r="C84" s="238" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="192" t="s">
+      <c r="D84" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="E84" s="192" t="s">
+      <c r="E84" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="192">
+      <c r="F84" s="238">
         <v>96.62</v>
       </c>
-      <c r="G84" s="192" t="s">
+      <c r="G84" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="H84" s="192" t="s">
+      <c r="H84" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="I84" s="192" t="s">
+      <c r="I84" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="J84" s="193">
+      <c r="J84" s="239">
         <v>0</v>
       </c>
-      <c r="K84" s="193" t="s">
+      <c r="K84" s="239" t="s">
         <v>264</v>
       </c>
       <c r="L84" s="90"/>
     </row>
     <row r="85" spans="2:12">
-      <c r="B85" s="218"/>
-      <c r="C85" s="192"/>
-      <c r="D85" s="192"/>
-      <c r="E85" s="192"/>
-      <c r="F85" s="192"/>
-      <c r="G85" s="192"/>
-      <c r="H85" s="192"/>
-      <c r="I85" s="192"/>
-      <c r="J85" s="193"/>
-      <c r="K85" s="193"/>
+      <c r="B85" s="264"/>
+      <c r="C85" s="238"/>
+      <c r="D85" s="238"/>
+      <c r="E85" s="238"/>
+      <c r="F85" s="238"/>
+      <c r="G85" s="238"/>
+      <c r="H85" s="238"/>
+      <c r="I85" s="238"/>
+      <c r="J85" s="239"/>
+      <c r="K85" s="239"/>
       <c r="L85" s="90"/>
     </row>
     <row r="86" spans="2:12">
-      <c r="B86" s="220" t="s">
+      <c r="B86" s="266" t="s">
         <v>208</v>
       </c>
-      <c r="C86" s="191" t="s">
+      <c r="C86" s="237" t="s">
         <v>252</v>
       </c>
-      <c r="D86" s="191" t="s">
+      <c r="D86" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="191" t="s">
+      <c r="E86" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="F86" s="191">
+      <c r="F86" s="237">
         <v>96.6</v>
       </c>
-      <c r="G86" s="191" t="s">
+      <c r="G86" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="H86" s="191" t="s">
+      <c r="H86" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="I86" s="191" t="s">
+      <c r="I86" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="J86" s="200">
+      <c r="J86" s="246">
         <v>0</v>
       </c>
-      <c r="K86" s="200" t="s">
+      <c r="K86" s="246" t="s">
         <v>264</v>
       </c>
       <c r="L86" s="90"/>
     </row>
     <row r="87" spans="2:12">
-      <c r="B87" s="220"/>
-      <c r="C87" s="191"/>
-      <c r="D87" s="191"/>
-      <c r="E87" s="191"/>
-      <c r="F87" s="191"/>
-      <c r="G87" s="191"/>
-      <c r="H87" s="191"/>
-      <c r="I87" s="191"/>
-      <c r="J87" s="200"/>
-      <c r="K87" s="200"/>
+      <c r="B87" s="266"/>
+      <c r="C87" s="237"/>
+      <c r="D87" s="237"/>
+      <c r="E87" s="237"/>
+      <c r="F87" s="237"/>
+      <c r="G87" s="237"/>
+      <c r="H87" s="237"/>
+      <c r="I87" s="237"/>
+      <c r="J87" s="246"/>
+      <c r="K87" s="246"/>
       <c r="L87" s="90"/>
     </row>
     <row r="88" spans="2:12">
-      <c r="B88" s="218" t="s">
+      <c r="B88" s="264" t="s">
         <v>209</v>
       </c>
-      <c r="C88" s="192" t="s">
+      <c r="C88" s="238" t="s">
         <v>253</v>
       </c>
-      <c r="D88" s="192" t="s">
+      <c r="D88" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="192" t="s">
+      <c r="E88" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="192">
+      <c r="F88" s="238">
         <v>96.59</v>
       </c>
-      <c r="G88" s="192" t="s">
+      <c r="G88" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="H88" s="192" t="s">
+      <c r="H88" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="I88" s="192" t="s">
+      <c r="I88" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="J88" s="193">
+      <c r="J88" s="239">
         <v>0</v>
       </c>
-      <c r="K88" s="193" t="s">
+      <c r="K88" s="239" t="s">
         <v>264</v>
       </c>
       <c r="L88" s="90"/>
     </row>
     <row r="89" spans="2:12">
-      <c r="B89" s="219"/>
-      <c r="C89" s="201"/>
-      <c r="D89" s="201"/>
-      <c r="E89" s="201"/>
-      <c r="F89" s="201"/>
-      <c r="G89" s="201"/>
-      <c r="H89" s="201"/>
-      <c r="I89" s="201"/>
-      <c r="J89" s="194"/>
-      <c r="K89" s="194"/>
+      <c r="B89" s="265"/>
+      <c r="C89" s="247"/>
+      <c r="D89" s="247"/>
+      <c r="E89" s="247"/>
+      <c r="F89" s="247"/>
+      <c r="G89" s="247"/>
+      <c r="H89" s="247"/>
+      <c r="I89" s="247"/>
+      <c r="J89" s="240"/>
+      <c r="K89" s="240"/>
       <c r="L89" s="90"/>
     </row>
   </sheetData>
@@ -11649,11 +11673,11 @@
       </c>
       <c r="D5" s="4">
         <f ca="1">2*RAND()*$D$2</f>
-        <v>4.5195261424759314</v>
+        <v>0.28037687508373321</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E14" ca="1" si="0">(1+C5/360*D5/100)</f>
-        <v>1.0001255423928466</v>
+        <v>1.0000077882465301</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>65</v>
@@ -11668,11 +11692,11 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ref="D6:D14" ca="1" si="1">2*RAND()*$D$2</f>
-        <v>2.1110811055228451</v>
+        <v>0.85548160031937437</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.00005864114182</v>
+        <v>1.0000237633777866</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -11685,11 +11709,11 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4337032751544037</v>
+        <v>3.108105649212991</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002620473131987</v>
+        <v>1.0000863362680337</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -11701,11 +11725,11 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0787227986113974</v>
+        <v>3.6018630637265647</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001966311888504</v>
+        <v>1.0001000517517702</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -11717,11 +11741,11 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.755558577058832</v>
+        <v>1.8561865538070232</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0002296298814215</v>
+        <v>1.0001546822128173</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -11733,11 +11757,11 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0777744288233113</v>
+        <v>4.4713229190424002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000577159563562</v>
+        <v>1.0001242034144178</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -11749,11 +11773,11 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1571257984674261</v>
+        <v>3.6357950307211082</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0001432534944019</v>
+        <v>1.000100994306409</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -11765,11 +11789,11 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6998889841814098</v>
+        <v>5.5770878387197866</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0000749969162273</v>
+        <v>1.000154919106631</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -11781,11 +11805,11 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0107011318714787</v>
+        <v>0.235671504892494</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.000028075031441</v>
+        <v>1.0000065464306915</v>
       </c>
       <c r="G13" s="81" t="s">
         <v>135</v>
@@ -11800,11 +11824,11 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5754632481714115</v>
+        <v>7.2176243666544089</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0007146219373477</v>
+        <v>1.0006014686972211</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>21</v>
@@ -11833,11 +11857,11 @@
       </c>
       <c r="D17" s="6">
         <f ca="1">SUMPRODUCT(D5:D14,C5:C14)/C17</f>
-        <v>4.8629706529142096</v>
+        <v>3.4990812316501967</v>
       </c>
       <c r="E17" s="6">
         <f ca="1">(PRODUCT(E5:E15)-1)*(360/C17)*100</f>
-        <v>4.8666444800974213</v>
+        <v>3.5008794020227212</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="15" thickTop="1"/>
@@ -11880,11 +11904,11 @@
       </c>
       <c r="D23" s="6">
         <f ca="1">100-D17</f>
-        <v>95.137029347085786</v>
+        <v>96.500918768349806</v>
       </c>
       <c r="E23" s="6">
         <f ca="1">100-E17</f>
-        <v>95.13335551990258</v>
+        <v>96.499120597977281</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="15" thickTop="1"/>

--- a/03 Products & Pricing/09 Futures/Futures.xlsx
+++ b/03 Products & Pricing/09 Futures/Futures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\09 Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD6A25A-4F51-4DD6-B914-F50E5D2DCE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99447E8-CE8C-4EE1-B1EF-6E60D3F96F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts &amp; Margin" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="292">
   <si>
     <t>Weekday</t>
   </si>
@@ -1093,7 +1093,7 @@
     <numFmt numFmtId="169" formatCode="_+#,##0;_-\(#,##0\)"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,10 +1263,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Roboto-Mono-Regular"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Roboto-Mono-Regular"/>
     </font>
@@ -1314,26 +1310,113 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
+      <color rgb="FFC2CACE"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF25323C"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006600"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF9933"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFCC9900"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1404,7 +1487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1800,12 +1883,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1953,12 +2107,6 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1967,61 +2115,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2049,10 +2161,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2084,7 +2196,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2095,132 +2206,22 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="35" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="35" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="34" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="35" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2256,13 +2257,13 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2281,7 +2282,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2296,12 +2306,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2311,34 +2333,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2347,13 +2348,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2362,200 +2408,413 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="11" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="48" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="48" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="48" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="48" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="49" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="49" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="50" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="49" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="49" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="49" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="50" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="50" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="49" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="49" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="49" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="46" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="46" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="34" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2566,16 +2825,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFFFF00"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FFCC9900"/>
       <color rgb="FFDDDDDD"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCCCC00"/>
-      <color rgb="FF006600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2592,7 +2851,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2610,7 +2869,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2623,17 +2882,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1600"/>
+              <a:rPr lang="en-GB" sz="2400"/>
               <a:t>Long Future</a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
               <a:t>Deposit / Receive Fixed</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="1200"/>
+            <a:endParaRPr lang="en-GB" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2641,8 +2900,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37057633420822395"/>
-          <c:y val="7.4346405228758169E-2"/>
+          <c:x val="0.42128473873651706"/>
+          <c:y val="7.4346410628469223E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2658,7 +2917,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2853,7 +3112,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2866,14 +3125,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Interest</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1600" baseline="0"/>
                   <a:t> Rate (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2881,8 +3140,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41598140857392829"/>
-              <c:y val="0.82775444736074655"/>
+              <c:x val="0.78287175512456919"/>
+              <c:y val="0.56068079242860758"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2898,7 +3157,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2936,7 +3195,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2978,7 +3237,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2991,7 +3250,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Payoff</a:t>
                 </a:r>
               </a:p>
@@ -3010,7 +3269,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3048,7 +3307,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3115,7 +3374,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3133,7 +3392,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3146,20 +3405,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1600"/>
+              <a:rPr lang="en-GB" sz="2400"/>
               <a:t>Short Future</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-GB" sz="2400" baseline="0"/>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
               <a:t>Loan / Pay Fixed</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB" sz="1200"/>
+            <a:endParaRPr lang="en-GB" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3184,7 +3443,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3379,7 +3638,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3392,7 +3651,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Interest Rate (%)</a:t>
                 </a:r>
               </a:p>
@@ -3402,8 +3661,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41837029746281718"/>
-              <c:y val="0.79997666958296876"/>
+              <c:x val="0.76791657736223407"/>
+              <c:y val="0.56297366498912405"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3419,7 +3678,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3457,7 +3716,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3499,7 +3758,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3512,7 +3771,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Payoff</a:t>
                 </a:r>
               </a:p>
@@ -3531,7 +3790,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3569,7 +3828,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5145,13 +5404,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5180,16 +5439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>596265</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5231,8 +5490,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>115367</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52666</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5319,8 +5578,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>107744</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>61307</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>137507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5363,8 +5622,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>107743</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>91790</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>167990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7290,27 +7549,27 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="14"/>
+    <col min="2" max="2" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="8.88671875" style="14"/>
-    <col min="13" max="13" width="13.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="8.85546875" style="14"/>
+    <col min="13" max="13" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="14" customWidth="1"/>
-    <col min="16" max="18" width="12.77734375" style="14" customWidth="1"/>
-    <col min="19" max="20" width="8.88671875" style="14"/>
+    <col min="16" max="18" width="12.7109375" style="14" customWidth="1"/>
+    <col min="19" max="20" width="8.85546875" style="14"/>
     <col min="21" max="21" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="14"/>
+    <col min="22" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
       <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="13"/>
@@ -7318,7 +7577,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="17.399999999999999">
+    <row r="3" spans="2:20" ht="18">
       <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
@@ -7343,7 +7602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="17.399999999999999">
+    <row r="5" spans="2:20" ht="18">
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
@@ -7361,7 +7620,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="2:20" ht="16.2" thickBot="1">
+    <row r="7" spans="2:20" ht="16.5" thickBot="1">
       <c r="B7" s="12" t="s">
         <v>110</v>
       </c>
@@ -7371,7 +7630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18" thickBot="1">
+    <row r="8" spans="2:20" ht="18.75" thickBot="1">
       <c r="B8" s="17" t="s">
         <v>36</v>
       </c>
@@ -7387,11 +7646,11 @@
       <c r="H8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="161" t="s">
+      <c r="I8" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
       <c r="L8" s="34" t="s">
         <v>56</v>
       </c>
@@ -7430,11 +7689,11 @@
       <c r="H9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="163" t="s">
+      <c r="I9" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
       <c r="L9" s="30" t="s">
         <v>57</v>
       </c>
@@ -7473,11 +7732,11 @@
       <c r="H10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="153" t="s">
+      <c r="I10" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
       <c r="L10" s="31" t="s">
         <v>57</v>
       </c>
@@ -7516,11 +7775,11 @@
       <c r="H11" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="157" t="s">
+      <c r="I11" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="44" t="s">
         <v>57</v>
       </c>
@@ -7559,11 +7818,11 @@
       <c r="H12" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="153" t="s">
+      <c r="I12" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
       <c r="L12" s="36" t="s">
         <v>58</v>
       </c>
@@ -7602,11 +7861,11 @@
       <c r="H13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="153" t="s">
+      <c r="I13" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
       <c r="L13" s="31" t="s">
         <v>58</v>
       </c>
@@ -7645,11 +7904,11 @@
       <c r="H14" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="155" t="s">
+      <c r="I14" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
       <c r="L14" s="49" t="s">
         <v>59</v>
       </c>
@@ -7688,11 +7947,11 @@
       <c r="H15" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="157" t="s">
+      <c r="I15" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
       <c r="L15" s="44" t="s">
         <v>59</v>
       </c>
@@ -7713,7 +7972,7 @@
       </c>
       <c r="T15" s="15"/>
     </row>
-    <row r="16" spans="2:20" ht="16.2" thickBot="1">
+    <row r="16" spans="2:20" ht="16.5" thickBot="1">
       <c r="B16" s="19">
         <v>44721</v>
       </c>
@@ -7731,11 +7990,11 @@
       <c r="H16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="159" t="s">
+      <c r="I16" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="L16" s="37" t="s">
         <v>60</v>
       </c>
@@ -7755,7 +8014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="17.399999999999999">
+    <row r="17" spans="2:16" ht="18">
       <c r="B17" s="19">
         <v>44720</v>
       </c>
@@ -7947,7 +8206,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="16.2" thickBot="1">
+    <row r="27" spans="2:16" ht="16.5" thickBot="1">
       <c r="B27" s="14" t="s">
         <v>75</v>
       </c>
@@ -7956,7 +8215,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="16.2" thickTop="1"/>
+    <row r="28" spans="2:16" ht="16.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="I13:K13"/>
@@ -7983,85 +8242,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F928EE0-2C06-42A1-88EA-2E999F52B5E1}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="14.21875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="14"/>
+    <col min="2" max="2" width="15.7109375" style="14" customWidth="1"/>
     <col min="3" max="3" width="24" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14" style="14" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="14"/>
+    <col min="4" max="4" width="29.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="14" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="166"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="58"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="111" t="str">
+      <c r="C3" s="96" t="str">
         <f>VLOOKUP($C$2,FuturesTable,2,0)</f>
         <v>USD 3M SOFR Futures</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="58"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="59">
         <f>VLOOKUP($C$2,FuturesTable,6,0)</f>
         <v>1000000</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="16"/>
       <c r="B5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="60">
         <f>VLOOKUP($C$2,FuturesTable,8,0)</f>
         <v>25</v>
       </c>
@@ -8073,7 +8331,7 @@
       <c r="B6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="59">
         <f>VLOOKUP($C$2,FuturesTable,9,0)</f>
         <v>2500</v>
       </c>
@@ -8084,383 +8342,409 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.2" thickBot="1"/>
-    <row r="8" spans="1:13" ht="16.2" thickBot="1">
-      <c r="B8" s="33" t="s">
+    <row r="7" spans="1:13" ht="16.5" thickBot="1"/>
+    <row r="8" spans="1:13" ht="21" thickBot="1">
+      <c r="B8" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="250" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="251" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="252"/>
+      <c r="H8" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="247" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="249" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="249" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="251" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="31.2">
-      <c r="B9" s="137" t="s">
+    <row r="9" spans="1:13" ht="45" customHeight="1">
+      <c r="B9" s="253" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="254" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68" t="s">
+      <c r="D9" s="254"/>
+      <c r="E9" s="254" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="143">
+      <c r="F9" s="255">
         <v>25000</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="G9" s="252"/>
+      <c r="H9" s="256" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131">
+      <c r="I9" s="257"/>
+      <c r="J9" s="257">
         <f>-10*2500</f>
         <v>-25000</v>
       </c>
-      <c r="K9" s="132" t="s">
+      <c r="K9" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="146">
+      <c r="L9" s="259">
         <f>-J9</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="31.2">
-      <c r="B10" s="138"/>
-      <c r="C10" s="68" t="s">
+    <row r="10" spans="1:13" ht="45" customHeight="1">
+      <c r="B10" s="260"/>
+      <c r="C10" s="254" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="261" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="144">
+      <c r="E10" s="254"/>
+      <c r="F10" s="262">
         <f>F9+I10</f>
         <v>33000</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="133">
+      <c r="G10" s="252"/>
+      <c r="H10" s="263"/>
+      <c r="I10" s="264">
         <f>(9942-9910)*25*10</f>
         <v>8000</v>
       </c>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="147">
+      <c r="J10" s="264"/>
+      <c r="K10" s="264"/>
+      <c r="L10" s="265">
         <f t="shared" ref="L10:L19" si="0">L9+I10-J10</f>
         <v>33000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.8" thickBot="1">
-      <c r="B11" s="139"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70" t="s">
+    <row r="11" spans="1:13" ht="45" customHeight="1" thickBot="1">
+      <c r="B11" s="266"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="145">
+      <c r="F11" s="268">
         <f>F10-J11</f>
         <v>25000</v>
       </c>
-      <c r="H11" s="142"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134">
+      <c r="G11" s="252"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="270"/>
+      <c r="J11" s="270">
         <f>I10</f>
         <v>8000</v>
       </c>
-      <c r="K11" s="135" t="s">
+      <c r="K11" s="271" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="148">
+      <c r="L11" s="272">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="31.2">
-      <c r="B12" s="121" t="s">
+    <row r="12" spans="1:13" ht="45" customHeight="1">
+      <c r="B12" s="273" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="274" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="122">
+      <c r="E12" s="274"/>
+      <c r="F12" s="276">
         <f>F11+I12</f>
         <v>22500</v>
       </c>
-      <c r="H12" s="121" t="s">
+      <c r="G12" s="252"/>
+      <c r="H12" s="273" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="128">
+      <c r="I12" s="277">
         <f>(9932-9942)*25*10</f>
         <v>-2500</v>
       </c>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="149">
+      <c r="J12" s="277"/>
+      <c r="K12" s="277"/>
+      <c r="L12" s="278">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.8" thickBot="1">
-      <c r="B13" s="123"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="116" t="s">
+    <row r="13" spans="1:13" ht="45" customHeight="1" thickBot="1">
+      <c r="B13" s="279"/>
+      <c r="C13" s="280"/>
+      <c r="D13" s="281"/>
+      <c r="E13" s="280" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F13" s="282">
         <f>F12-J13</f>
         <v>25000</v>
       </c>
-      <c r="H13" s="123"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129">
+      <c r="G13" s="252"/>
+      <c r="H13" s="279"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283">
         <f>I12</f>
         <v>-2500</v>
       </c>
-      <c r="K13" s="130" t="s">
+      <c r="K13" s="284" t="s">
         <v>105</v>
       </c>
-      <c r="L13" s="150">
+      <c r="L13" s="285">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="31.2">
-      <c r="B14" s="138" t="s">
+    <row r="14" spans="1:13" ht="45" customHeight="1">
+      <c r="B14" s="260" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="254" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="144">
+      <c r="E14" s="254"/>
+      <c r="F14" s="262">
         <f>F13+I14</f>
         <v>24250</v>
       </c>
-      <c r="H14" s="141" t="s">
+      <c r="G14" s="252"/>
+      <c r="H14" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="131">
+      <c r="I14" s="257">
         <f>(9927-9932)*25*6</f>
         <v>-750</v>
       </c>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="146">
+      <c r="J14" s="257"/>
+      <c r="K14" s="257"/>
+      <c r="L14" s="259">
         <f t="shared" si="0"/>
         <v>24250</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="31.2">
-      <c r="B15" s="138"/>
-      <c r="C15" s="68" t="s">
+    <row r="15" spans="1:13" ht="45" customHeight="1">
+      <c r="B15" s="260"/>
+      <c r="C15" s="254" t="s">
         <v>290</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="144">
+      <c r="E15" s="254"/>
+      <c r="F15" s="262">
         <f>F14+I15</f>
         <v>23550</v>
       </c>
-      <c r="H15" s="141"/>
-      <c r="I15" s="133">
+      <c r="G15" s="252"/>
+      <c r="H15" s="263"/>
+      <c r="I15" s="264">
         <f>(9925-9932)*25*4</f>
         <v>-700</v>
       </c>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="147">
+      <c r="J15" s="264"/>
+      <c r="K15" s="264"/>
+      <c r="L15" s="265">
         <f t="shared" si="0"/>
         <v>23550</v>
       </c>
-      <c r="M15" s="80"/>
-    </row>
-    <row r="16" spans="1:13" ht="46.8">
-      <c r="B16" s="138"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="68" t="s">
+      <c r="M15" s="66"/>
+    </row>
+    <row r="16" spans="1:13" ht="60.75">
+      <c r="B16" s="260"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="144">
+      <c r="F16" s="262">
         <f>F15-J16</f>
         <v>25000</v>
       </c>
-      <c r="H16" s="141"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133">
+      <c r="G16" s="252"/>
+      <c r="H16" s="263"/>
+      <c r="I16" s="264"/>
+      <c r="J16" s="264">
         <f>I14+I15</f>
         <v>-1450</v>
       </c>
-      <c r="K16" s="136" t="s">
+      <c r="K16" s="286" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="147">
+      <c r="L16" s="265">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="31.8" thickBot="1">
-      <c r="B17" s="139"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="70" t="s">
+    <row r="17" spans="2:12" ht="45" customHeight="1" thickBot="1">
+      <c r="B17" s="266"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="267" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="145">
+      <c r="F17" s="268">
         <f>F16-J17</f>
         <v>10000</v>
       </c>
-      <c r="H17" s="142"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134">
+      <c r="G17" s="252"/>
+      <c r="H17" s="269"/>
+      <c r="I17" s="270"/>
+      <c r="J17" s="270">
         <v>15000</v>
       </c>
-      <c r="K17" s="135" t="s">
+      <c r="K17" s="271" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="148">
+      <c r="L17" s="272">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="31.2">
-      <c r="B18" s="125" t="s">
+    <row r="18" spans="2:12" ht="45" customHeight="1">
+      <c r="B18" s="288" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="289" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="290" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="118"/>
-      <c r="F18" s="126">
+      <c r="E18" s="289"/>
+      <c r="F18" s="291">
         <f>F17+I18</f>
         <v>11300</v>
       </c>
-      <c r="H18" s="125" t="s">
+      <c r="G18" s="252"/>
+      <c r="H18" s="288" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="128">
+      <c r="I18" s="277">
         <f>(9938-9925)*25*4</f>
         <v>1300</v>
       </c>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="149">
+      <c r="J18" s="277"/>
+      <c r="K18" s="277"/>
+      <c r="L18" s="278">
         <f t="shared" si="0"/>
         <v>11300</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="47.4" thickBot="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="116" t="s">
+    <row r="19" spans="2:12" ht="81.75" thickBot="1">
+      <c r="B19" s="292"/>
+      <c r="C19" s="293"/>
+      <c r="D19" s="281"/>
+      <c r="E19" s="280" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="124">
+      <c r="F19" s="282">
         <v>0</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129">
+      <c r="G19" s="252"/>
+      <c r="H19" s="292"/>
+      <c r="I19" s="283"/>
+      <c r="J19" s="283">
         <v>11300</v>
       </c>
-      <c r="K19" s="130" t="s">
+      <c r="K19" s="284" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="150">
+      <c r="L19" s="285">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="16.2" thickBot="1"/>
-    <row r="22" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34" t="s">
+    <row r="20" spans="2:12" ht="21" thickBot="1">
+      <c r="B20" s="252"/>
+      <c r="C20" s="252"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="252"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="252"/>
+      <c r="K20" s="252"/>
+      <c r="L20" s="252"/>
+    </row>
+    <row r="21" spans="2:12" ht="21" thickBot="1">
+      <c r="B21" s="247"/>
+      <c r="C21" s="249" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D21" s="249" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E21" s="249" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F21" s="251" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="78" t="s">
+      <c r="G21" s="252"/>
+      <c r="H21" s="247"/>
+      <c r="I21" s="294" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="78" t="s">
+      <c r="J21" s="294" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79" t="s">
+      <c r="K21" s="294"/>
+      <c r="L21" s="295" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="16.2" thickBot="1">
-      <c r="B23" s="73"/>
-      <c r="C23" s="74" t="s">
+    <row r="22" spans="2:12" ht="21" thickBot="1">
+      <c r="B22" s="296"/>
+      <c r="C22" s="297" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D22" s="298">
         <f>8000-2500-750-700+1300</f>
         <v>5350</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E22" s="298">
         <f>-25000+8000-2500-1450+15000+11300</f>
         <v>5350</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F22" s="299">
         <v>0</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="76">
+      <c r="G22" s="252"/>
+      <c r="H22" s="296"/>
+      <c r="I22" s="300">
         <f>SUM(I9:I19)</f>
         <v>5350</v>
       </c>
-      <c r="J23" s="76">
+      <c r="J22" s="300">
         <f>SUM(J9:J19)</f>
         <v>5350</v>
       </c>
-      <c r="K23" s="76"/>
-      <c r="L23" s="77">
+      <c r="K22" s="300"/>
+      <c r="L22" s="301">
         <v>0</v>
       </c>
     </row>
@@ -8475,7 +8759,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F11 F13" formula="1"/>
+    <ignoredError sqref="F11:F13" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8487,95 +8771,95 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="10" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="67" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="84">
         <v>20000000</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="98">
+      <c r="H3" s="84">
         <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="87">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="82" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="82" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="93">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="84">
         <v>181</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="85">
         <f>D8/360</f>
         <v>0.50277777777777777</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="84">
         <f>I8*100</f>
         <v>9705</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I8" s="92">
         <v>97.05</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="83">
         <f>(100-I8)/100</f>
         <v>2.950000000000003E-2</v>
       </c>
@@ -8584,30 +8868,30 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="90" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="93">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="84">
         <v>91</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="85">
         <f>D9/360</f>
         <v>0.25277777777777777</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="98">
+      <c r="H9" s="84">
         <f>I9*100</f>
         <v>9750</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="92">
         <v>97.5</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="83">
         <f>(100-I9)/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -8616,97 +8900,97 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="86">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="84">
         <v>90</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="85">
         <f>D10/360</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="9"/>
-      <c r="C11" s="94">
+      <c r="C11" s="80">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:11">
       <c r="F12" s="4"/>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="94" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="95">
         <f>(C14-C10)*E10*C3</f>
         <v>-25239.370165899727</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="151"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="H13" s="110">
+      <c r="H13" s="95">
         <f>IF($G$12="Short Future",-1,1)*(H8-H9)*H4*H14</f>
         <v>22500</v>
       </c>
-      <c r="I13" s="82"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="102">
+      <c r="C14" s="88">
         <f>((1+C8*E8)/(1+C9*E9)-1)/E10</f>
         <v>1.9952125966820056E-2</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="151"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="104" t="s">
+      <c r="G14" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="84">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="102">
+      <c r="C15" s="88">
         <f>C8-C9</f>
         <v>2.5000000000000022E-3</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="151"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:11">
       <c r="F16" s="4"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="86"/>
+      <c r="B21" s="72"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="D22" s="86"/>
+      <c r="D22" s="72"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -8725,315 +9009,315 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="7" width="12.33203125" customWidth="1"/>
+    <col min="5" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="186"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="190" t="s">
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="194">
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="141">
         <v>23</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="188"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="196"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="143"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="176" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="182" t="s">
+      <c r="F8" s="127"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="174"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="140"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="187" t="s">
+      <c r="B10" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="190" t="s">
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="180"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="194">
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="141">
         <v>3</v>
       </c>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="188"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="196"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="88" t="str">
+      <c r="D15" s="74" t="str">
         <f t="shared" ref="D15:D18" si="0">B15&amp;C15</f>
         <v>EDH3</v>
       </c>
-      <c r="E15" s="171" t="s">
+      <c r="E15" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="88" t="str">
+      <c r="D16" s="74" t="str">
         <f t="shared" si="0"/>
         <v>EDM3</v>
       </c>
-      <c r="E16" s="171" t="s">
+      <c r="E16" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="88" t="str">
+      <c r="D17" s="74" t="str">
         <f t="shared" si="0"/>
         <v>EDU3</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="88" t="str">
+      <c r="D18" s="74" t="str">
         <f t="shared" si="0"/>
         <v>EDZ3</v>
       </c>
-      <c r="E18" s="171" t="s">
+      <c r="E18" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="169" t="s">
+      <c r="E21" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="88" t="str">
+      <c r="D22" s="74" t="str">
         <f t="shared" ref="D22:D25" si="1">B22&amp;C22</f>
         <v>SR3H3</v>
       </c>
-      <c r="E22" s="171" t="s">
+      <c r="E22" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="88" t="str">
+      <c r="D23" s="74" t="str">
         <f t="shared" si="1"/>
         <v>SR3M3</v>
       </c>
-      <c r="E23" s="171" t="s">
+      <c r="E23" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="88" t="str">
+      <c r="D24" s="74" t="str">
         <f t="shared" si="1"/>
         <v>SR3U3</v>
       </c>
-      <c r="E24" s="171" t="s">
+      <c r="E24" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="88" t="str">
+      <c r="D25" s="74" t="str">
         <f t="shared" si="1"/>
         <v>SR3Z3</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="E10:G11"/>
+    <mergeCell ref="H10:J11"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="E4:G5"/>
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="H4:J5"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="E10:G11"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9047,20 +9331,20 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -9074,7 +9358,7 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="68">
         <v>1000000</v>
       </c>
     </row>
@@ -9082,7 +9366,7 @@
       <c r="B6" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="70">
         <v>98.5</v>
       </c>
     </row>
@@ -9095,10 +9379,10 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="71">
         <v>1E-4</v>
       </c>
     </row>
@@ -9138,11 +9422,11 @@
         <f t="shared" ref="D12:D22" si="0">(B12-Futures_Price)*Tick_Value*100</f>
         <v>125.00000000006395</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="68">
         <f t="shared" ref="E12:E22" si="1">-(B12-Futures_Price)*Tick_Value*100</f>
         <v>-125.00000000006395</v>
       </c>
-      <c r="F12" s="82"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="4">
@@ -9157,11 +9441,11 @@
         <f t="shared" si="0"/>
         <v>100.00000000005116</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="68">
         <f t="shared" si="1"/>
         <v>-100.00000000005116</v>
       </c>
-      <c r="F13" s="82"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="4">
@@ -9176,11 +9460,11 @@
         <f t="shared" si="0"/>
         <v>75.000000000038369</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="68">
         <f t="shared" si="1"/>
         <v>-75.000000000038369</v>
       </c>
-      <c r="F14" s="82"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="4">
@@ -9195,11 +9479,11 @@
         <f t="shared" si="0"/>
         <v>50.00000000002558</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="68">
         <f t="shared" si="1"/>
         <v>-50.00000000002558</v>
       </c>
-      <c r="F15" s="82"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="4">
@@ -9214,30 +9498,30 @@
         <f t="shared" si="0"/>
         <v>25.00000000001279</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="68">
         <f t="shared" si="1"/>
         <v>-25.00000000001279</v>
       </c>
-      <c r="F16" s="82"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="84">
+      <c r="B17" s="70">
         <f>Futures_Price</f>
         <v>98.5</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="70">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="82"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="4">
@@ -9252,11 +9536,11 @@
         <f t="shared" si="0"/>
         <v>-25.00000000001279</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="68">
         <f t="shared" si="1"/>
         <v>25.00000000001279</v>
       </c>
-      <c r="F18" s="82"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="4">
@@ -9271,11 +9555,11 @@
         <f t="shared" si="0"/>
         <v>-50.00000000002558</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="68">
         <f t="shared" si="1"/>
         <v>50.00000000002558</v>
       </c>
-      <c r="F19" s="82"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="4">
@@ -9290,11 +9574,11 @@
         <f t="shared" si="0"/>
         <v>-75.000000000038369</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="68">
         <f t="shared" si="1"/>
         <v>75.000000000038369</v>
       </c>
-      <c r="F20" s="82"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="4">
@@ -9309,11 +9593,11 @@
         <f t="shared" si="0"/>
         <v>-100.00000000005116</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="68">
         <f t="shared" si="1"/>
         <v>100.00000000005116</v>
       </c>
-      <c r="F21" s="82"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="4">
@@ -9328,11 +9612,11 @@
         <f t="shared" si="0"/>
         <v>-125.00000000006395</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E22" s="68">
         <f t="shared" si="1"/>
         <v>125.00000000006395</v>
       </c>
-      <c r="F22" s="82"/>
+      <c r="F22" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9342,1226 +9626,1183 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09AD1A9-5428-4C82-A9BD-6D4983407C24}">
-  <dimension ref="B2:M89"/>
+  <dimension ref="B2:M93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="89" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="75" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="67" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="79" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="M4" s="24"/>
     </row>
-    <row r="6" spans="2:13" ht="27.6">
-      <c r="B6" s="92" t="s">
+    <row r="6" spans="2:13" ht="27">
+      <c r="B6" s="78" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="91"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="242" t="s">
+      <c r="B7" s="77"/>
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="200" t="s">
+      <c r="C10" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="200" t="s">
+      <c r="D10" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="200" t="s">
+      <c r="E10" s="170" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="200" t="s">
+      <c r="F10" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="200" t="s">
+      <c r="G10" s="170" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="200" t="s">
+      <c r="H10" s="170" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="200" t="s">
+      <c r="I10" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="200" t="s">
+      <c r="J10" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="K10" s="200" t="s">
+      <c r="K10" s="162" t="s">
         <v>254</v>
       </c>
-      <c r="L10" s="90"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="243"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="90"/>
+      <c r="L10" s="76"/>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="171"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="244" t="s">
+      <c r="B12" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="197" t="s">
+      <c r="C12" s="175" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="175">
         <v>98.117500000000007</v>
       </c>
-      <c r="E12" s="202" t="s">
+      <c r="E12" s="176" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="197">
+      <c r="F12" s="175">
         <v>98.122500000000002</v>
       </c>
-      <c r="G12" s="197">
+      <c r="G12" s="175">
         <v>98.122500000000002</v>
       </c>
-      <c r="H12" s="197">
+      <c r="H12" s="175">
         <v>98.147499999999994</v>
       </c>
-      <c r="I12" s="197">
+      <c r="I12" s="175">
         <v>98.11</v>
       </c>
-      <c r="J12" s="198">
+      <c r="J12" s="177">
         <v>45593</v>
       </c>
-      <c r="K12" s="197" t="s">
+      <c r="K12" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="L12" s="90"/>
+      <c r="L12" s="76"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="244"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="90"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="76"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="245" t="s">
+      <c r="B14" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="199" t="s">
+      <c r="C14" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="179">
         <v>97.06</v>
       </c>
-      <c r="E14" s="199" t="s">
+      <c r="E14" s="179" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="199">
+      <c r="F14" s="179">
         <v>97.045000000000002</v>
       </c>
-      <c r="G14" s="199">
+      <c r="G14" s="179">
         <v>97.034999999999997</v>
       </c>
-      <c r="H14" s="199">
+      <c r="H14" s="179">
         <v>97.18</v>
       </c>
-      <c r="I14" s="199">
+      <c r="I14" s="179">
         <v>97.03</v>
       </c>
-      <c r="J14" s="204">
+      <c r="J14" s="180">
         <v>236774</v>
       </c>
-      <c r="K14" s="199" t="s">
+      <c r="K14" s="165" t="s">
         <v>255</v>
       </c>
-      <c r="L14" s="90"/>
+      <c r="L14" s="76"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="245"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="199"/>
-      <c r="L15" s="90"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="76"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="244" t="s">
+      <c r="B16" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="197" t="s">
+      <c r="C16" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="175">
         <v>96.71</v>
       </c>
-      <c r="E16" s="202" t="s">
+      <c r="E16" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="197">
+      <c r="F16" s="175">
         <v>96.67</v>
       </c>
-      <c r="G16" s="197">
+      <c r="G16" s="175">
         <v>96.63</v>
       </c>
-      <c r="H16" s="197">
+      <c r="H16" s="175">
         <v>96.87</v>
       </c>
-      <c r="I16" s="197">
+      <c r="I16" s="175">
         <v>96.605000000000004</v>
       </c>
-      <c r="J16" s="198">
+      <c r="J16" s="177">
         <v>339455</v>
       </c>
-      <c r="K16" s="198" t="s">
+      <c r="K16" s="166" t="s">
         <v>255</v>
       </c>
-      <c r="L16" s="90"/>
+      <c r="L16" s="76"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="244"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="90"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="199" t="s">
+      <c r="C18" s="179" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="179">
         <v>96.734999999999999</v>
       </c>
-      <c r="E18" s="203" t="s">
+      <c r="E18" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="199">
+      <c r="F18" s="179">
         <v>96.63</v>
       </c>
-      <c r="G18" s="199">
+      <c r="G18" s="179">
         <v>96.58</v>
       </c>
-      <c r="H18" s="199">
+      <c r="H18" s="179">
         <v>96.88</v>
       </c>
-      <c r="I18" s="199">
+      <c r="I18" s="179">
         <v>96.54</v>
       </c>
-      <c r="J18" s="204">
+      <c r="J18" s="180">
         <v>305759</v>
       </c>
-      <c r="K18" s="204" t="s">
+      <c r="K18" s="167" t="s">
         <v>255</v>
       </c>
-      <c r="L18" s="90"/>
+      <c r="L18" s="76"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="245"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="90"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="76"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="251" t="s">
+      <c r="B20" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="183" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="205">
+      <c r="D20" s="183">
         <v>96.97</v>
       </c>
-      <c r="E20" s="205" t="s">
+      <c r="E20" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="205">
+      <c r="F20" s="183">
         <v>96.825000000000003</v>
       </c>
-      <c r="G20" s="205">
+      <c r="G20" s="183">
         <v>96.77</v>
       </c>
-      <c r="H20" s="205">
+      <c r="H20" s="183">
         <v>97.1</v>
       </c>
-      <c r="I20" s="205">
+      <c r="I20" s="183">
         <v>96.734999999999999</v>
       </c>
-      <c r="J20" s="206">
+      <c r="J20" s="184">
         <v>255183</v>
       </c>
-      <c r="K20" s="206" t="s">
+      <c r="K20" s="168" t="s">
         <v>256</v>
       </c>
-      <c r="L20" s="90"/>
+      <c r="L20" s="76"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="251"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="206"/>
-      <c r="L21" s="90"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="184"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="185" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="207" t="s">
+      <c r="C22" s="186" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="207">
+      <c r="D22" s="186">
         <v>97.194999999999993</v>
       </c>
-      <c r="E22" s="207" t="s">
+      <c r="E22" s="186" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="207">
+      <c r="F22" s="186">
         <v>97.015000000000001</v>
       </c>
-      <c r="G22" s="207">
+      <c r="G22" s="186">
         <v>96.965000000000003</v>
       </c>
-      <c r="H22" s="207">
+      <c r="H22" s="186">
         <v>97.314999999999998</v>
       </c>
-      <c r="I22" s="207">
+      <c r="I22" s="186">
         <v>96.935000000000002</v>
       </c>
-      <c r="J22" s="208">
+      <c r="J22" s="187">
         <v>199337</v>
       </c>
-      <c r="K22" s="208" t="s">
+      <c r="K22" s="159" t="s">
         <v>256</v>
       </c>
-      <c r="L22" s="90"/>
+      <c r="L22" s="76"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="248"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="90"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="76"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="251" t="s">
+      <c r="B24" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="205" t="s">
+      <c r="C24" s="183" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="205">
+      <c r="D24" s="183">
         <v>97.364999999999995</v>
       </c>
-      <c r="E24" s="205" t="s">
+      <c r="E24" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="205">
+      <c r="F24" s="183">
         <v>97.165000000000006</v>
       </c>
-      <c r="G24" s="205">
+      <c r="G24" s="183">
         <v>97.13</v>
       </c>
-      <c r="H24" s="205">
+      <c r="H24" s="183">
         <v>97.474999999999994</v>
       </c>
-      <c r="I24" s="205">
+      <c r="I24" s="183">
         <v>97.094999999999999</v>
       </c>
-      <c r="J24" s="206">
+      <c r="J24" s="184">
         <v>185140</v>
       </c>
-      <c r="K24" s="206" t="s">
+      <c r="K24" s="168" t="s">
         <v>256</v>
       </c>
-      <c r="L24" s="90"/>
+      <c r="L24" s="76"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="251"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="90"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="76"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="207" t="s">
+      <c r="C26" s="186" t="s">
         <v>222</v>
       </c>
-      <c r="D26" s="207">
+      <c r="D26" s="186">
         <v>97.49</v>
       </c>
-      <c r="E26" s="207" t="s">
+      <c r="E26" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="207">
+      <c r="F26" s="186">
         <v>97.28</v>
       </c>
-      <c r="G26" s="207">
+      <c r="G26" s="186">
         <v>97.24</v>
       </c>
-      <c r="H26" s="207">
+      <c r="H26" s="186">
         <v>97.594999999999999</v>
       </c>
-      <c r="I26" s="207">
+      <c r="I26" s="186">
         <v>97.22</v>
       </c>
-      <c r="J26" s="208">
+      <c r="J26" s="187">
         <v>152166</v>
       </c>
-      <c r="K26" s="208" t="s">
+      <c r="K26" s="159" t="s">
         <v>256</v>
       </c>
-      <c r="L26" s="90"/>
+      <c r="L26" s="76"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="248"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="207"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="90"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="76"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="249" t="s">
+      <c r="B28" s="188" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="209" t="s">
+      <c r="C28" s="189" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="209">
+      <c r="D28" s="189">
         <v>97.594999999999999</v>
       </c>
-      <c r="E28" s="209" t="s">
+      <c r="E28" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="209">
+      <c r="F28" s="189">
         <v>97.37</v>
       </c>
-      <c r="G28" s="209">
+      <c r="G28" s="189">
         <v>97.34</v>
       </c>
-      <c r="H28" s="209">
+      <c r="H28" s="189">
         <v>97.68</v>
       </c>
-      <c r="I28" s="209">
+      <c r="I28" s="189">
         <v>97.314999999999998</v>
       </c>
-      <c r="J28" s="210">
+      <c r="J28" s="190">
         <v>112246</v>
       </c>
-      <c r="K28" s="210" t="s">
+      <c r="K28" s="160" t="s">
         <v>257</v>
       </c>
-      <c r="L28" s="90"/>
+      <c r="L28" s="76"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="249"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="209"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="210"/>
-      <c r="L29" s="90"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="76"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="250" t="s">
+      <c r="B30" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="211" t="s">
+      <c r="C30" s="192" t="s">
         <v>224</v>
       </c>
-      <c r="D30" s="211">
+      <c r="D30" s="192">
         <v>97.625</v>
       </c>
-      <c r="E30" s="211" t="s">
+      <c r="E30" s="192" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="211">
+      <c r="F30" s="192">
         <v>97.415000000000006</v>
       </c>
-      <c r="G30" s="211">
+      <c r="G30" s="192">
         <v>97.375</v>
       </c>
-      <c r="H30" s="211">
+      <c r="H30" s="192">
         <v>97.715000000000003</v>
       </c>
-      <c r="I30" s="211">
+      <c r="I30" s="192">
         <v>97.37</v>
       </c>
-      <c r="J30" s="212">
+      <c r="J30" s="193">
         <v>72282</v>
       </c>
-      <c r="K30" s="212" t="s">
+      <c r="K30" s="161" t="s">
         <v>257</v>
       </c>
-      <c r="L30" s="90"/>
+      <c r="L30" s="76"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="250"/>
-      <c r="C31" s="211"/>
-      <c r="D31" s="211"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="212"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="90"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="76"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="249" t="s">
+      <c r="B32" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="209" t="s">
+      <c r="C32" s="189" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="209">
+      <c r="D32" s="189">
         <v>97.62</v>
       </c>
-      <c r="E32" s="209" t="s">
+      <c r="E32" s="189" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="209">
+      <c r="F32" s="189">
         <v>97.424999999999997</v>
       </c>
-      <c r="G32" s="209">
+      <c r="G32" s="189">
         <v>97.39</v>
       </c>
-      <c r="H32" s="209">
+      <c r="H32" s="189">
         <v>97.71</v>
       </c>
-      <c r="I32" s="209">
+      <c r="I32" s="189">
         <v>97.38</v>
       </c>
-      <c r="J32" s="210">
+      <c r="J32" s="190">
         <v>68370</v>
       </c>
-      <c r="K32" s="210" t="s">
+      <c r="K32" s="160" t="s">
         <v>257</v>
       </c>
-      <c r="L32" s="90"/>
+      <c r="L32" s="76"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="249"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="210"/>
-      <c r="L33" s="90"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="76"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="250" t="s">
+      <c r="B34" s="191" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="211" t="s">
+      <c r="C34" s="192" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="211">
+      <c r="D34" s="192">
         <v>97.614999999999995</v>
       </c>
-      <c r="E34" s="211" t="s">
+      <c r="E34" s="192" t="s">
         <v>173</v>
       </c>
-      <c r="F34" s="211">
+      <c r="F34" s="192">
         <v>97.44</v>
       </c>
-      <c r="G34" s="211">
+      <c r="G34" s="192">
         <v>97.405000000000001</v>
       </c>
-      <c r="H34" s="211">
+      <c r="H34" s="192">
         <v>97.704999999999998</v>
       </c>
-      <c r="I34" s="211">
+      <c r="I34" s="192">
         <v>97.394999999999996</v>
       </c>
-      <c r="J34" s="212">
+      <c r="J34" s="193">
         <v>52353</v>
       </c>
-      <c r="K34" s="212" t="s">
+      <c r="K34" s="161" t="s">
         <v>257</v>
       </c>
-      <c r="L34" s="90"/>
+      <c r="L34" s="76"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="250"/>
-      <c r="C35" s="211"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="211"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="211"/>
-      <c r="J35" s="212"/>
-      <c r="K35" s="212"/>
-      <c r="L35" s="90"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="193"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="76"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="252" t="s">
+      <c r="B36" s="194" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="213" t="s">
+      <c r="C36" s="195" t="s">
         <v>227</v>
       </c>
-      <c r="D36" s="213">
+      <c r="D36" s="195">
         <v>97.58</v>
       </c>
-      <c r="E36" s="213" t="s">
+      <c r="E36" s="195" t="s">
         <v>175</v>
       </c>
-      <c r="F36" s="213">
+      <c r="F36" s="195">
         <v>97.424999999999997</v>
       </c>
-      <c r="G36" s="213">
+      <c r="G36" s="195">
         <v>97.39</v>
       </c>
-      <c r="H36" s="213">
+      <c r="H36" s="195">
         <v>97.674999999999997</v>
       </c>
-      <c r="I36" s="213">
+      <c r="I36" s="195">
         <v>97.38</v>
       </c>
-      <c r="J36" s="214">
+      <c r="J36" s="196">
         <v>49777</v>
       </c>
-      <c r="K36" s="214" t="s">
+      <c r="K36" s="157" t="s">
         <v>258</v>
       </c>
-      <c r="L36" s="90"/>
+      <c r="L36" s="76"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="252"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="214"/>
-      <c r="L37" s="90"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="76"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="253" t="s">
+      <c r="B38" s="197" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="215" t="s">
+      <c r="C38" s="198" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="215">
+      <c r="D38" s="198">
         <v>97.534999999999997</v>
       </c>
-      <c r="E38" s="215" t="s">
+      <c r="E38" s="198" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="215">
+      <c r="F38" s="198">
         <v>97.394999999999996</v>
       </c>
-      <c r="G38" s="215">
+      <c r="G38" s="198">
         <v>97.355000000000004</v>
       </c>
-      <c r="H38" s="215">
+      <c r="H38" s="198">
         <v>97.62</v>
       </c>
-      <c r="I38" s="215">
+      <c r="I38" s="198">
         <v>97.344999999999999</v>
       </c>
-      <c r="J38" s="216">
+      <c r="J38" s="199">
         <v>19103</v>
       </c>
-      <c r="K38" s="216" t="s">
+      <c r="K38" s="156" t="s">
         <v>258</v>
       </c>
-      <c r="L38" s="90"/>
+      <c r="L38" s="76"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="253"/>
-      <c r="C39" s="215"/>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="216"/>
-      <c r="L39" s="90"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="198"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="76"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="252" t="s">
+      <c r="B40" s="194" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="213" t="s">
+      <c r="C40" s="195" t="s">
         <v>229</v>
       </c>
-      <c r="D40" s="213">
+      <c r="D40" s="195">
         <v>97.47</v>
       </c>
-      <c r="E40" s="213" t="s">
+      <c r="E40" s="195" t="s">
         <v>179</v>
       </c>
-      <c r="F40" s="213">
+      <c r="F40" s="195">
         <v>97.35</v>
       </c>
-      <c r="G40" s="213">
+      <c r="G40" s="195">
         <v>97.31</v>
       </c>
-      <c r="H40" s="213">
+      <c r="H40" s="195">
         <v>97.56</v>
       </c>
-      <c r="I40" s="213">
+      <c r="I40" s="195">
         <v>97.305000000000007</v>
       </c>
-      <c r="J40" s="214">
+      <c r="J40" s="196">
         <v>15861</v>
       </c>
-      <c r="K40" s="214" t="s">
+      <c r="K40" s="157" t="s">
         <v>258</v>
       </c>
-      <c r="L40" s="90"/>
+      <c r="L40" s="76"/>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="252"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="214"/>
-      <c r="K41" s="214"/>
-      <c r="L41" s="90"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="76"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="197" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="198" t="s">
         <v>230</v>
       </c>
-      <c r="D42" s="215">
+      <c r="D42" s="198">
         <v>97.41</v>
       </c>
-      <c r="E42" s="215" t="s">
+      <c r="E42" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="215">
+      <c r="F42" s="198">
         <v>97.31</v>
       </c>
-      <c r="G42" s="215">
+      <c r="G42" s="198">
         <v>97.265000000000001</v>
       </c>
-      <c r="H42" s="215">
+      <c r="H42" s="198">
         <v>97.504999999999995</v>
       </c>
-      <c r="I42" s="215">
+      <c r="I42" s="198">
         <v>97.26</v>
       </c>
-      <c r="J42" s="216">
+      <c r="J42" s="199">
         <v>12703</v>
       </c>
-      <c r="K42" s="216" t="s">
+      <c r="K42" s="156" t="s">
         <v>258</v>
       </c>
-      <c r="L42" s="90"/>
+      <c r="L42" s="76"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="253"/>
-      <c r="C43" s="215"/>
-      <c r="D43" s="215"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="215"/>
-      <c r="G43" s="215"/>
-      <c r="H43" s="215"/>
-      <c r="I43" s="215"/>
-      <c r="J43" s="216"/>
-      <c r="K43" s="216"/>
-      <c r="L43" s="90"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="199"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="76"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="254" t="s">
+      <c r="B44" s="212" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="217" t="s">
+      <c r="C44" s="213" t="s">
         <v>231</v>
       </c>
-      <c r="D44" s="217">
+      <c r="D44" s="213">
         <v>97.355000000000004</v>
       </c>
-      <c r="E44" s="217" t="s">
+      <c r="E44" s="213" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="217">
+      <c r="F44" s="213">
         <v>97.27</v>
       </c>
-      <c r="G44" s="217">
+      <c r="G44" s="213">
         <v>97.224999999999994</v>
       </c>
-      <c r="H44" s="217">
+      <c r="H44" s="213">
         <v>97.454999999999998</v>
       </c>
-      <c r="I44" s="217">
+      <c r="I44" s="213">
         <v>97.22</v>
       </c>
-      <c r="J44" s="218">
+      <c r="J44" s="214">
         <v>10425</v>
       </c>
-      <c r="K44" s="218" t="s">
+      <c r="K44" s="158" t="s">
         <v>259</v>
       </c>
-      <c r="L44" s="90"/>
+      <c r="L44" s="76"/>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="254"/>
-      <c r="C45" s="217"/>
-      <c r="D45" s="217"/>
-      <c r="E45" s="217"/>
-      <c r="F45" s="217"/>
-      <c r="G45" s="217"/>
-      <c r="H45" s="217"/>
-      <c r="I45" s="217"/>
-      <c r="J45" s="218"/>
-      <c r="K45" s="218"/>
-      <c r="L45" s="90"/>
+      <c r="B45" s="212"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="214"/>
+      <c r="K45" s="158"/>
+      <c r="L45" s="76"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="255" t="s">
+      <c r="B46" s="215" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="219" t="s">
+      <c r="C46" s="216" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="219">
+      <c r="D46" s="216">
         <v>97.32</v>
       </c>
-      <c r="E46" s="219" t="s">
+      <c r="E46" s="216" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="219">
+      <c r="F46" s="216">
         <v>97.24</v>
       </c>
-      <c r="G46" s="219">
+      <c r="G46" s="216">
         <v>97.19</v>
       </c>
-      <c r="H46" s="219">
+      <c r="H46" s="216">
         <v>97.42</v>
       </c>
-      <c r="I46" s="219">
+      <c r="I46" s="216">
         <v>97.185000000000002</v>
       </c>
-      <c r="J46" s="220">
+      <c r="J46" s="217">
         <v>2435</v>
       </c>
-      <c r="K46" s="220" t="s">
+      <c r="K46" s="153" t="s">
         <v>259</v>
       </c>
-      <c r="L46" s="90"/>
+      <c r="L46" s="76"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="255"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="219"/>
-      <c r="E47" s="219"/>
-      <c r="F47" s="219"/>
-      <c r="G47" s="219"/>
-      <c r="H47" s="219"/>
-      <c r="I47" s="219"/>
-      <c r="J47" s="220"/>
-      <c r="K47" s="220"/>
-      <c r="L47" s="90"/>
+      <c r="B47" s="215"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="217"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="76"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="254" t="s">
+      <c r="B48" s="212" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="217" t="s">
+      <c r="C48" s="213" t="s">
         <v>233</v>
       </c>
-      <c r="D48" s="217">
+      <c r="D48" s="213">
         <v>97.27</v>
       </c>
-      <c r="E48" s="217" t="s">
+      <c r="E48" s="213" t="s">
         <v>187</v>
       </c>
-      <c r="F48" s="217">
+      <c r="F48" s="213">
         <v>97.2</v>
       </c>
-      <c r="G48" s="217">
+      <c r="G48" s="213">
         <v>97.15</v>
       </c>
-      <c r="H48" s="217">
+      <c r="H48" s="213">
         <v>97.37</v>
       </c>
-      <c r="I48" s="217">
+      <c r="I48" s="213">
         <v>97.15</v>
       </c>
-      <c r="J48" s="218">
+      <c r="J48" s="214">
         <v>3040</v>
       </c>
-      <c r="K48" s="218" t="s">
+      <c r="K48" s="158" t="s">
         <v>259</v>
       </c>
-      <c r="L48" s="90"/>
+      <c r="L48" s="76"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="254"/>
-      <c r="C49" s="217"/>
-      <c r="D49" s="217"/>
-      <c r="E49" s="217"/>
-      <c r="F49" s="217"/>
-      <c r="G49" s="217"/>
-      <c r="H49" s="217"/>
-      <c r="I49" s="217"/>
-      <c r="J49" s="218"/>
-      <c r="K49" s="218"/>
-      <c r="L49" s="90"/>
+      <c r="B49" s="212"/>
+      <c r="C49" s="213"/>
+      <c r="D49" s="213"/>
+      <c r="E49" s="213"/>
+      <c r="F49" s="213"/>
+      <c r="G49" s="213"/>
+      <c r="H49" s="213"/>
+      <c r="I49" s="213"/>
+      <c r="J49" s="214"/>
+      <c r="K49" s="158"/>
+      <c r="L49" s="76"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="255" t="s">
+      <c r="B50" s="215" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="219" t="s">
+      <c r="C50" s="218" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="219">
+      <c r="D50" s="218">
         <v>97.224999999999994</v>
       </c>
-      <c r="E50" s="219" t="s">
+      <c r="E50" s="218" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="219">
+      <c r="F50" s="218">
         <v>97.165000000000006</v>
       </c>
-      <c r="G50" s="219">
+      <c r="G50" s="218">
         <v>97.114999999999995</v>
       </c>
-      <c r="H50" s="219">
+      <c r="H50" s="218">
         <v>97.33</v>
       </c>
-      <c r="I50" s="219">
+      <c r="I50" s="218">
         <v>97.11</v>
       </c>
-      <c r="J50" s="220">
+      <c r="J50" s="219">
         <v>1867</v>
       </c>
-      <c r="K50" s="220" t="s">
+      <c r="K50" s="153" t="s">
         <v>259</v>
       </c>
-      <c r="L50" s="90"/>
+      <c r="L50" s="76"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="255"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="219"/>
-      <c r="H51" s="219"/>
-      <c r="I51" s="219"/>
-      <c r="J51" s="220"/>
-      <c r="K51" s="220"/>
-      <c r="L51" s="90"/>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="256" t="s">
+      <c r="B51" s="220"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="221"/>
+      <c r="E51" s="221"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="221"/>
+      <c r="H51" s="221"/>
+      <c r="I51" s="221"/>
+      <c r="J51" s="222"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="76"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="2:12" ht="19.5" customHeight="1">
+      <c r="B54" s="169" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="170" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="170" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="170" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="170" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54" s="170" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="170" t="s">
+        <v>148</v>
+      </c>
+      <c r="I54" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="J54" s="170" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="2:12" ht="19.5" customHeight="1">
+      <c r="B55" s="171"/>
+      <c r="C55" s="172"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="172"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="172"/>
+      <c r="H55" s="172"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="172"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="221" t="s">
+      <c r="C56" s="224" t="s">
         <v>235</v>
       </c>
-      <c r="D52" s="221">
+      <c r="D56" s="224">
         <v>97.18</v>
       </c>
-      <c r="E52" s="221" t="s">
+      <c r="E56" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="F52" s="221">
+      <c r="F56" s="224">
         <v>97.13</v>
       </c>
-      <c r="G52" s="221">
+      <c r="G56" s="224">
         <v>97.09</v>
       </c>
-      <c r="H52" s="221">
+      <c r="H56" s="224">
         <v>97.29</v>
       </c>
-      <c r="I52" s="221">
+      <c r="I56" s="224">
         <v>97.075000000000003</v>
       </c>
-      <c r="J52" s="222">
+      <c r="J56" s="235">
         <v>1810</v>
       </c>
-      <c r="K52" s="222" t="s">
+      <c r="K56" s="155" t="s">
         <v>260</v>
       </c>
-      <c r="L52" s="90"/>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="256"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="221"/>
-      <c r="E53" s="221"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="221"/>
-      <c r="H53" s="221"/>
-      <c r="I53" s="221"/>
-      <c r="J53" s="222"/>
-      <c r="K53" s="222"/>
-      <c r="L53" s="90"/>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="257" t="s">
+      <c r="L56" s="76"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="200"/>
+      <c r="C57" s="225"/>
+      <c r="D57" s="225"/>
+      <c r="E57" s="225"/>
+      <c r="F57" s="225"/>
+      <c r="G57" s="225"/>
+      <c r="H57" s="225"/>
+      <c r="I57" s="225"/>
+      <c r="J57" s="236"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="76"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="201" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="223" t="s">
+      <c r="C58" s="226" t="s">
         <v>236</v>
       </c>
-      <c r="D54" s="223">
+      <c r="D58" s="226">
         <v>97.135000000000005</v>
       </c>
-      <c r="E54" s="223" t="s">
+      <c r="E58" s="226" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="223">
+      <c r="F58" s="226">
         <v>97.094999999999999</v>
       </c>
-      <c r="G54" s="223">
+      <c r="G58" s="226">
         <v>97.05</v>
       </c>
-      <c r="H54" s="223">
+      <c r="H58" s="226">
         <v>97.18</v>
       </c>
-      <c r="I54" s="223">
+      <c r="I58" s="226">
         <v>97.05</v>
       </c>
-      <c r="J54" s="224">
+      <c r="J58" s="237">
         <v>158</v>
       </c>
-      <c r="K54" s="224" t="s">
+      <c r="K58" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="L54" s="90"/>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="257"/>
-      <c r="C55" s="223"/>
-      <c r="D55" s="223"/>
-      <c r="E55" s="223"/>
-      <c r="F55" s="223"/>
-      <c r="G55" s="223"/>
-      <c r="H55" s="223"/>
-      <c r="I55" s="223"/>
-      <c r="J55" s="224"/>
-      <c r="K55" s="224"/>
-      <c r="L55" s="90"/>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="256" t="s">
+      <c r="L58" s="76"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="201"/>
+      <c r="C59" s="226"/>
+      <c r="D59" s="226"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="226"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
+      <c r="I59" s="226"/>
+      <c r="J59" s="237"/>
+      <c r="K59" s="154"/>
+      <c r="L59" s="76"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="200" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="221" t="s">
+      <c r="C60" s="225" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="221">
+      <c r="D60" s="225">
         <v>97.135000000000005</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E60" s="225" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="221">
+      <c r="F60" s="225">
         <v>97.055000000000007</v>
       </c>
-      <c r="G56" s="221">
+      <c r="G60" s="225">
         <v>97.19</v>
       </c>
-      <c r="H56" s="221">
+      <c r="H60" s="225">
         <v>97.19</v>
       </c>
-      <c r="I56" s="221">
+      <c r="I60" s="225">
         <v>97.135000000000005</v>
       </c>
-      <c r="J56" s="222">
+      <c r="J60" s="236">
         <v>34</v>
       </c>
-      <c r="K56" s="222" t="s">
+      <c r="K60" s="155" t="s">
         <v>260</v>
       </c>
-      <c r="L56" s="90"/>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="256"/>
-      <c r="C57" s="221"/>
-      <c r="D57" s="221"/>
-      <c r="E57" s="221"/>
-      <c r="F57" s="221"/>
-      <c r="G57" s="221"/>
-      <c r="H57" s="221"/>
-      <c r="I57" s="221"/>
-      <c r="J57" s="222"/>
-      <c r="K57" s="222"/>
-      <c r="L57" s="90"/>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="257" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="223" t="s">
-        <v>238</v>
-      </c>
-      <c r="D58" s="223" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="223" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="223">
-        <v>97.03</v>
-      </c>
-      <c r="G58" s="223" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="223" t="s">
-        <v>38</v>
-      </c>
-      <c r="I58" s="223" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="224">
-        <v>0</v>
-      </c>
-      <c r="K58" s="224" t="s">
-        <v>260</v>
-      </c>
-      <c r="L58" s="90"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="257"/>
-      <c r="C59" s="223"/>
-      <c r="D59" s="223"/>
-      <c r="E59" s="223"/>
-      <c r="F59" s="223"/>
-      <c r="G59" s="223"/>
-      <c r="H59" s="223"/>
-      <c r="I59" s="223"/>
-      <c r="J59" s="224"/>
-      <c r="K59" s="224"/>
-      <c r="L59" s="90"/>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="258" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="225" t="s">
-        <v>239</v>
-      </c>
-      <c r="D60" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="225">
-        <v>96.995000000000005</v>
-      </c>
-      <c r="G60" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="226">
-        <v>0</v>
-      </c>
-      <c r="K60" s="226" t="s">
-        <v>261</v>
-      </c>
-      <c r="L60" s="90"/>
+      <c r="L60" s="76"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="258"/>
+      <c r="B61" s="200"/>
       <c r="C61" s="225"/>
       <c r="D61" s="225"/>
       <c r="E61" s="225"/>
@@ -10569,246 +10810,246 @@
       <c r="G61" s="225"/>
       <c r="H61" s="225"/>
       <c r="I61" s="225"/>
-      <c r="J61" s="226"/>
-      <c r="K61" s="226"/>
-      <c r="L61" s="90"/>
+      <c r="J61" s="236"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="76"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="259" t="s">
+      <c r="B62" s="201" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="226" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="226" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="226" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="226">
+        <v>97.03</v>
+      </c>
+      <c r="G62" s="226" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="226" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="226" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="237">
+        <v>0</v>
+      </c>
+      <c r="K62" s="151" t="s">
+        <v>261</v>
+      </c>
+      <c r="L62" s="76"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="201"/>
+      <c r="C63" s="226"/>
+      <c r="D63" s="226"/>
+      <c r="E63" s="226"/>
+      <c r="F63" s="226"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="226"/>
+      <c r="I63" s="226"/>
+      <c r="J63" s="237"/>
+      <c r="K63" s="151"/>
+      <c r="L63" s="76"/>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="202" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="227" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="227" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="227" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="227">
+        <v>96.995000000000005</v>
+      </c>
+      <c r="G64" s="227" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="227" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="227" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="238">
+        <v>0</v>
+      </c>
+      <c r="K64" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="L64" s="76"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="202"/>
+      <c r="C65" s="227"/>
+      <c r="D65" s="227"/>
+      <c r="E65" s="227"/>
+      <c r="F65" s="227"/>
+      <c r="G65" s="227"/>
+      <c r="H65" s="227"/>
+      <c r="I65" s="227"/>
+      <c r="J65" s="238"/>
+      <c r="K65" s="150"/>
+      <c r="L65" s="76"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="203" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="227" t="s">
+      <c r="C66" s="228" t="s">
         <v>240</v>
       </c>
-      <c r="D62" s="227" t="s">
+      <c r="D66" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="227" t="s">
+      <c r="E66" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="227">
+      <c r="F66" s="228">
         <v>96.96</v>
       </c>
-      <c r="G62" s="227" t="s">
+      <c r="G66" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="227" t="s">
+      <c r="H66" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="227" t="s">
+      <c r="I66" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="J62" s="228">
+      <c r="J66" s="239">
         <v>0</v>
       </c>
-      <c r="K62" s="228" t="s">
+      <c r="K66" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="L62" s="90"/>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="B63" s="259"/>
-      <c r="C63" s="227"/>
-      <c r="D63" s="227"/>
-      <c r="E63" s="227"/>
-      <c r="F63" s="227"/>
-      <c r="G63" s="227"/>
-      <c r="H63" s="227"/>
-      <c r="I63" s="227"/>
-      <c r="J63" s="228"/>
-      <c r="K63" s="228"/>
-      <c r="L63" s="90"/>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="B64" s="258" t="s">
+      <c r="L66" s="76"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="203"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
+      <c r="F67" s="228"/>
+      <c r="G67" s="228"/>
+      <c r="H67" s="228"/>
+      <c r="I67" s="228"/>
+      <c r="J67" s="239"/>
+      <c r="K67" s="151"/>
+      <c r="L67" s="76"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="202" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="225" t="s">
+      <c r="C68" s="227" t="s">
         <v>241</v>
       </c>
-      <c r="D64" s="225" t="s">
+      <c r="D68" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="225" t="s">
+      <c r="E68" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="225">
+      <c r="F68" s="227">
         <v>96.92</v>
       </c>
-      <c r="G64" s="225" t="s">
+      <c r="G68" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="225" t="s">
+      <c r="H68" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="I64" s="225" t="s">
+      <c r="I68" s="227" t="s">
         <v>38</v>
       </c>
-      <c r="J64" s="226">
+      <c r="J68" s="238">
         <v>19</v>
       </c>
-      <c r="K64" s="226" t="s">
+      <c r="K68" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="L64" s="90"/>
-    </row>
-    <row r="65" spans="2:12">
-      <c r="B65" s="258"/>
-      <c r="C65" s="225"/>
-      <c r="D65" s="225"/>
-      <c r="E65" s="225"/>
-      <c r="F65" s="225"/>
-      <c r="G65" s="225"/>
-      <c r="H65" s="225"/>
-      <c r="I65" s="225"/>
-      <c r="J65" s="226"/>
-      <c r="K65" s="226"/>
-      <c r="L65" s="90"/>
-    </row>
-    <row r="66" spans="2:12">
-      <c r="B66" s="259" t="s">
+      <c r="L68" s="76"/>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="202"/>
+      <c r="C69" s="227"/>
+      <c r="D69" s="227"/>
+      <c r="E69" s="227"/>
+      <c r="F69" s="227"/>
+      <c r="G69" s="227"/>
+      <c r="H69" s="227"/>
+      <c r="I69" s="227"/>
+      <c r="J69" s="238"/>
+      <c r="K69" s="150"/>
+      <c r="L69" s="76"/>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="203" t="s">
         <v>198</v>
       </c>
-      <c r="C66" s="227" t="s">
+      <c r="C70" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="227" t="s">
+      <c r="D70" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="227" t="s">
+      <c r="E70" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="227">
+      <c r="F70" s="228">
         <v>96.89</v>
       </c>
-      <c r="G66" s="227" t="s">
+      <c r="G70" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="227" t="s">
+      <c r="H70" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="I66" s="227" t="s">
+      <c r="I70" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="J66" s="228">
+      <c r="J70" s="239">
         <v>0</v>
       </c>
-      <c r="K66" s="228" t="s">
-        <v>261</v>
-      </c>
-      <c r="L66" s="90"/>
-    </row>
-    <row r="67" spans="2:12">
-      <c r="B67" s="259"/>
-      <c r="C67" s="227"/>
-      <c r="D67" s="227"/>
-      <c r="E67" s="227"/>
-      <c r="F67" s="227"/>
-      <c r="G67" s="227"/>
-      <c r="H67" s="227"/>
-      <c r="I67" s="227"/>
-      <c r="J67" s="228"/>
-      <c r="K67" s="228"/>
-      <c r="L67" s="90"/>
-    </row>
-    <row r="68" spans="2:12">
-      <c r="B68" s="263" t="s">
+      <c r="K70" s="152" t="s">
+        <v>262</v>
+      </c>
+      <c r="L70" s="76"/>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="203"/>
+      <c r="C71" s="228"/>
+      <c r="D71" s="228"/>
+      <c r="E71" s="228"/>
+      <c r="F71" s="228"/>
+      <c r="G71" s="228"/>
+      <c r="H71" s="228"/>
+      <c r="I71" s="228"/>
+      <c r="J71" s="239"/>
+      <c r="K71" s="152"/>
+      <c r="L71" s="76"/>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="204" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="229" t="s">
+      <c r="C72" s="229" t="s">
         <v>243</v>
-      </c>
-      <c r="D68" s="229" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="229" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="229">
-        <v>96.85</v>
-      </c>
-      <c r="G68" s="229" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" s="229" t="s">
-        <v>38</v>
-      </c>
-      <c r="I68" s="229" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68" s="230">
-        <v>0</v>
-      </c>
-      <c r="K68" s="230" t="s">
-        <v>262</v>
-      </c>
-      <c r="L68" s="90"/>
-    </row>
-    <row r="69" spans="2:12">
-      <c r="B69" s="263"/>
-      <c r="C69" s="229"/>
-      <c r="D69" s="229"/>
-      <c r="E69" s="229"/>
-      <c r="F69" s="229"/>
-      <c r="G69" s="229"/>
-      <c r="H69" s="229"/>
-      <c r="I69" s="229"/>
-      <c r="J69" s="230"/>
-      <c r="K69" s="230"/>
-      <c r="L69" s="90"/>
-    </row>
-    <row r="70" spans="2:12">
-      <c r="B70" s="260" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" s="231" t="s">
-        <v>244</v>
-      </c>
-      <c r="D70" s="231" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="231" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="231">
-        <v>96.82</v>
-      </c>
-      <c r="G70" s="231" t="s">
-        <v>38</v>
-      </c>
-      <c r="H70" s="231" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" s="231" t="s">
-        <v>38</v>
-      </c>
-      <c r="J70" s="232">
-        <v>0</v>
-      </c>
-      <c r="K70" s="232" t="s">
-        <v>262</v>
-      </c>
-      <c r="L70" s="90"/>
-    </row>
-    <row r="71" spans="2:12">
-      <c r="B71" s="260"/>
-      <c r="C71" s="231"/>
-      <c r="D71" s="231"/>
-      <c r="E71" s="231"/>
-      <c r="F71" s="231"/>
-      <c r="G71" s="231"/>
-      <c r="H71" s="231"/>
-      <c r="I71" s="231"/>
-      <c r="J71" s="232"/>
-      <c r="K71" s="232"/>
-      <c r="L71" s="90"/>
-    </row>
-    <row r="72" spans="2:12">
-      <c r="B72" s="263" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="229" t="s">
-        <v>245</v>
       </c>
       <c r="D72" s="229" t="s">
         <v>38</v>
@@ -10817,7 +11058,7 @@
         <v>38</v>
       </c>
       <c r="F72" s="229">
-        <v>96.79</v>
+        <v>96.85</v>
       </c>
       <c r="G72" s="229" t="s">
         <v>38</v>
@@ -10828,16 +11069,16 @@
       <c r="I72" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="J72" s="230">
+      <c r="J72" s="240">
         <v>0</v>
       </c>
-      <c r="K72" s="230" t="s">
+      <c r="K72" s="147" t="s">
         <v>262</v>
       </c>
-      <c r="L72" s="90"/>
+      <c r="L72" s="76"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="263"/>
+      <c r="B73" s="204"/>
       <c r="C73" s="229"/>
       <c r="D73" s="229"/>
       <c r="E73" s="229"/>
@@ -10845,762 +11086,473 @@
       <c r="G73" s="229"/>
       <c r="H73" s="229"/>
       <c r="I73" s="229"/>
-      <c r="J73" s="230"/>
-      <c r="K73" s="230"/>
-      <c r="L73" s="90"/>
+      <c r="J73" s="240"/>
+      <c r="K73" s="147"/>
+      <c r="L73" s="76"/>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="260" t="s">
+      <c r="B74" s="205" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="230" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="230" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="230" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="230">
+        <v>96.82</v>
+      </c>
+      <c r="G74" s="230" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="230" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="230" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="241">
+        <v>0</v>
+      </c>
+      <c r="K74" s="152" t="s">
+        <v>262</v>
+      </c>
+      <c r="L74" s="76"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="205"/>
+      <c r="C75" s="230"/>
+      <c r="D75" s="230"/>
+      <c r="E75" s="230"/>
+      <c r="F75" s="230"/>
+      <c r="G75" s="230"/>
+      <c r="H75" s="230"/>
+      <c r="I75" s="230"/>
+      <c r="J75" s="241"/>
+      <c r="K75" s="152"/>
+      <c r="L75" s="76"/>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="204" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="229" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="229" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="229" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="229">
+        <v>96.79</v>
+      </c>
+      <c r="G76" s="229" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" s="229" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="229" t="s">
+        <v>38</v>
+      </c>
+      <c r="J76" s="240">
+        <v>0</v>
+      </c>
+      <c r="K76" s="147" t="s">
+        <v>262</v>
+      </c>
+      <c r="L76" s="76"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="204"/>
+      <c r="C77" s="229"/>
+      <c r="D77" s="229"/>
+      <c r="E77" s="229"/>
+      <c r="F77" s="229"/>
+      <c r="G77" s="229"/>
+      <c r="H77" s="229"/>
+      <c r="I77" s="229"/>
+      <c r="J77" s="240"/>
+      <c r="K77" s="147"/>
+      <c r="L77" s="76"/>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="205" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="231" t="s">
+      <c r="C78" s="230" t="s">
         <v>246</v>
       </c>
-      <c r="D74" s="231" t="s">
+      <c r="D78" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="E74" s="231" t="s">
+      <c r="E78" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="231">
+      <c r="F78" s="230">
         <v>96.765000000000001</v>
       </c>
-      <c r="G74" s="231" t="s">
+      <c r="G78" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="H74" s="231" t="s">
+      <c r="H78" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="I74" s="231" t="s">
+      <c r="I78" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="J74" s="232">
+      <c r="J78" s="241">
         <v>0</v>
       </c>
-      <c r="K74" s="232" t="s">
-        <v>262</v>
-      </c>
-      <c r="L74" s="90"/>
-    </row>
-    <row r="75" spans="2:12">
-      <c r="B75" s="260"/>
-      <c r="C75" s="231"/>
-      <c r="D75" s="231"/>
-      <c r="E75" s="231"/>
-      <c r="F75" s="231"/>
-      <c r="G75" s="231"/>
-      <c r="H75" s="231"/>
-      <c r="I75" s="231"/>
-      <c r="J75" s="232"/>
-      <c r="K75" s="232"/>
-      <c r="L75" s="90"/>
-    </row>
-    <row r="76" spans="2:12">
-      <c r="B76" s="261" t="s">
+      <c r="K78" s="148" t="s">
+        <v>263</v>
+      </c>
+      <c r="L78" s="76"/>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="205"/>
+      <c r="C79" s="230"/>
+      <c r="D79" s="230"/>
+      <c r="E79" s="230"/>
+      <c r="F79" s="230"/>
+      <c r="G79" s="230"/>
+      <c r="H79" s="230"/>
+      <c r="I79" s="230"/>
+      <c r="J79" s="241"/>
+      <c r="K79" s="148"/>
+      <c r="L79" s="76"/>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="206" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="235" t="s">
+      <c r="C80" s="231" t="s">
         <v>247</v>
       </c>
-      <c r="D76" s="235" t="s">
+      <c r="D80" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="E76" s="235" t="s">
+      <c r="E80" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="235">
+      <c r="F80" s="231">
         <v>96.724999999999994</v>
       </c>
-      <c r="G76" s="235" t="s">
+      <c r="G80" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="H76" s="235" t="s">
+      <c r="H80" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="I76" s="235" t="s">
+      <c r="I80" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="236">
+      <c r="J80" s="242">
         <v>0</v>
       </c>
-      <c r="K76" s="236" t="s">
+      <c r="K80" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="L76" s="90"/>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="B77" s="261"/>
-      <c r="C77" s="235"/>
-      <c r="D77" s="235"/>
-      <c r="E77" s="235"/>
-      <c r="F77" s="235"/>
-      <c r="G77" s="235"/>
-      <c r="H77" s="235"/>
-      <c r="I77" s="235"/>
-      <c r="J77" s="236"/>
-      <c r="K77" s="236"/>
-      <c r="L77" s="90"/>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="B78" s="262" t="s">
+      <c r="L80" s="76"/>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="206"/>
+      <c r="C81" s="231"/>
+      <c r="D81" s="231"/>
+      <c r="E81" s="231"/>
+      <c r="F81" s="231"/>
+      <c r="G81" s="231"/>
+      <c r="H81" s="231"/>
+      <c r="I81" s="231"/>
+      <c r="J81" s="242"/>
+      <c r="K81" s="149"/>
+      <c r="L81" s="76"/>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="207" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="233" t="s">
+      <c r="C82" s="232" t="s">
         <v>248</v>
       </c>
-      <c r="D78" s="233" t="s">
+      <c r="D82" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="E78" s="233" t="s">
+      <c r="E82" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="233">
+      <c r="F82" s="232">
         <v>96.685000000000002</v>
       </c>
-      <c r="G78" s="233" t="s">
+      <c r="G82" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="H78" s="233" t="s">
+      <c r="H82" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="I78" s="233" t="s">
+      <c r="I82" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="J78" s="234">
+      <c r="J82" s="243">
         <v>0</v>
       </c>
-      <c r="K78" s="234" t="s">
+      <c r="K82" s="148" t="s">
         <v>263</v>
       </c>
-      <c r="L78" s="90"/>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="B79" s="262"/>
-      <c r="C79" s="233"/>
-      <c r="D79" s="233"/>
-      <c r="E79" s="233"/>
-      <c r="F79" s="233"/>
-      <c r="G79" s="233"/>
-      <c r="H79" s="233"/>
-      <c r="I79" s="233"/>
-      <c r="J79" s="234"/>
-      <c r="K79" s="234"/>
-      <c r="L79" s="90"/>
-    </row>
-    <row r="80" spans="2:12">
-      <c r="B80" s="261" t="s">
+      <c r="L82" s="76"/>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="207"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="232"/>
+      <c r="G83" s="232"/>
+      <c r="H83" s="232"/>
+      <c r="I83" s="232"/>
+      <c r="J83" s="243"/>
+      <c r="K83" s="148"/>
+      <c r="L83" s="76"/>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="206" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="235" t="s">
+      <c r="C84" s="231" t="s">
         <v>249</v>
       </c>
-      <c r="D80" s="235" t="s">
+      <c r="D84" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="E80" s="235" t="s">
+      <c r="E84" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="235">
+      <c r="F84" s="231">
         <v>96.67</v>
       </c>
-      <c r="G80" s="235" t="s">
+      <c r="G84" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="H80" s="235" t="s">
+      <c r="H84" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="I80" s="235" t="s">
+      <c r="I84" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="J80" s="236">
+      <c r="J84" s="242">
         <v>0</v>
       </c>
-      <c r="K80" s="236" t="s">
+      <c r="K84" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="L80" s="90"/>
-    </row>
-    <row r="81" spans="2:12">
-      <c r="B81" s="261"/>
-      <c r="C81" s="235"/>
-      <c r="D81" s="235"/>
-      <c r="E81" s="235"/>
-      <c r="F81" s="235"/>
-      <c r="G81" s="235"/>
-      <c r="H81" s="235"/>
-      <c r="I81" s="235"/>
-      <c r="J81" s="236"/>
-      <c r="K81" s="236"/>
-      <c r="L81" s="90"/>
-    </row>
-    <row r="82" spans="2:12">
-      <c r="B82" s="262" t="s">
+      <c r="L84" s="76"/>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="206"/>
+      <c r="C85" s="231"/>
+      <c r="D85" s="231"/>
+      <c r="E85" s="231"/>
+      <c r="F85" s="231"/>
+      <c r="G85" s="231"/>
+      <c r="H85" s="231"/>
+      <c r="I85" s="231"/>
+      <c r="J85" s="242"/>
+      <c r="K85" s="149"/>
+      <c r="L85" s="76"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="207" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="233" t="s">
+      <c r="C86" s="232" t="s">
         <v>250</v>
       </c>
-      <c r="D82" s="233" t="s">
+      <c r="D86" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="233" t="s">
+      <c r="E86" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="233">
+      <c r="F86" s="232">
         <v>96.644999999999996</v>
       </c>
-      <c r="G82" s="233" t="s">
+      <c r="G86" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="233" t="s">
+      <c r="H86" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="I82" s="233" t="s">
+      <c r="I86" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="J82" s="234">
+      <c r="J86" s="243">
         <v>0</v>
       </c>
-      <c r="K82" s="234" t="s">
-        <v>263</v>
-      </c>
-      <c r="L82" s="90"/>
-    </row>
-    <row r="83" spans="2:12">
-      <c r="B83" s="262"/>
-      <c r="C83" s="233"/>
-      <c r="D83" s="233"/>
-      <c r="E83" s="233"/>
-      <c r="F83" s="233"/>
-      <c r="G83" s="233"/>
-      <c r="H83" s="233"/>
-      <c r="I83" s="233"/>
-      <c r="J83" s="234"/>
-      <c r="K83" s="234"/>
-      <c r="L83" s="90"/>
-    </row>
-    <row r="84" spans="2:12">
-      <c r="B84" s="264" t="s">
+      <c r="K86" s="145" t="s">
+        <v>264</v>
+      </c>
+      <c r="L86" s="76"/>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="207"/>
+      <c r="C87" s="232"/>
+      <c r="D87" s="232"/>
+      <c r="E87" s="232"/>
+      <c r="F87" s="232"/>
+      <c r="G87" s="232"/>
+      <c r="H87" s="232"/>
+      <c r="I87" s="232"/>
+      <c r="J87" s="243"/>
+      <c r="K87" s="145"/>
+      <c r="L87" s="76"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="208" t="s">
         <v>207</v>
       </c>
-      <c r="C84" s="238" t="s">
+      <c r="C88" s="233" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="238" t="s">
+      <c r="D88" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="E84" s="238" t="s">
+      <c r="E88" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="238">
+      <c r="F88" s="233">
         <v>96.62</v>
       </c>
-      <c r="G84" s="238" t="s">
+      <c r="G88" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="H84" s="238" t="s">
+      <c r="H88" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="I84" s="238" t="s">
+      <c r="I88" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="J84" s="239">
+      <c r="J88" s="244">
         <v>0</v>
       </c>
-      <c r="K84" s="239" t="s">
+      <c r="K88" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="L84" s="90"/>
-    </row>
-    <row r="85" spans="2:12">
-      <c r="B85" s="264"/>
-      <c r="C85" s="238"/>
-      <c r="D85" s="238"/>
-      <c r="E85" s="238"/>
-      <c r="F85" s="238"/>
-      <c r="G85" s="238"/>
-      <c r="H85" s="238"/>
-      <c r="I85" s="238"/>
-      <c r="J85" s="239"/>
-      <c r="K85" s="239"/>
-      <c r="L85" s="90"/>
-    </row>
-    <row r="86" spans="2:12">
-      <c r="B86" s="266" t="s">
+      <c r="L88" s="76"/>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="208"/>
+      <c r="C89" s="233"/>
+      <c r="D89" s="233"/>
+      <c r="E89" s="233"/>
+      <c r="F89" s="233"/>
+      <c r="G89" s="233"/>
+      <c r="H89" s="233"/>
+      <c r="I89" s="233"/>
+      <c r="J89" s="244"/>
+      <c r="K89" s="144"/>
+      <c r="L89" s="76"/>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="209" t="s">
         <v>208</v>
       </c>
-      <c r="C86" s="237" t="s">
+      <c r="C90" s="234" t="s">
         <v>252</v>
       </c>
-      <c r="D86" s="237" t="s">
+      <c r="D90" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="237" t="s">
+      <c r="E90" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="F86" s="237">
+      <c r="F90" s="234">
         <v>96.6</v>
       </c>
-      <c r="G86" s="237" t="s">
+      <c r="G90" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="H86" s="237" t="s">
+      <c r="H90" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="I86" s="237" t="s">
+      <c r="I90" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="J86" s="246">
+      <c r="J90" s="245">
         <v>0</v>
       </c>
-      <c r="K86" s="246" t="s">
+      <c r="K90" s="145" t="s">
         <v>264</v>
       </c>
-      <c r="L86" s="90"/>
-    </row>
-    <row r="87" spans="2:12">
-      <c r="B87" s="266"/>
-      <c r="C87" s="237"/>
-      <c r="D87" s="237"/>
-      <c r="E87" s="237"/>
-      <c r="F87" s="237"/>
-      <c r="G87" s="237"/>
-      <c r="H87" s="237"/>
-      <c r="I87" s="237"/>
-      <c r="J87" s="246"/>
-      <c r="K87" s="246"/>
-      <c r="L87" s="90"/>
-    </row>
-    <row r="88" spans="2:12">
-      <c r="B88" s="264" t="s">
+      <c r="L90" s="76"/>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="209"/>
+      <c r="C91" s="234"/>
+      <c r="D91" s="234"/>
+      <c r="E91" s="234"/>
+      <c r="F91" s="234"/>
+      <c r="G91" s="234"/>
+      <c r="H91" s="234"/>
+      <c r="I91" s="234"/>
+      <c r="J91" s="245"/>
+      <c r="K91" s="146"/>
+      <c r="L91" s="76"/>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="208" t="s">
         <v>209</v>
       </c>
-      <c r="C88" s="238" t="s">
+      <c r="C92" s="233" t="s">
         <v>253</v>
       </c>
-      <c r="D88" s="238" t="s">
+      <c r="D92" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="238" t="s">
+      <c r="E92" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="238">
+      <c r="F92" s="233">
         <v>96.59</v>
       </c>
-      <c r="G88" s="238" t="s">
+      <c r="G92" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="H88" s="238" t="s">
+      <c r="H92" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="I88" s="238" t="s">
+      <c r="I92" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="J88" s="239">
+      <c r="J92" s="244">
         <v>0</v>
       </c>
-      <c r="K88" s="239" t="s">
-        <v>264</v>
-      </c>
-      <c r="L88" s="90"/>
-    </row>
-    <row r="89" spans="2:12">
-      <c r="B89" s="265"/>
-      <c r="C89" s="247"/>
-      <c r="D89" s="247"/>
-      <c r="E89" s="247"/>
-      <c r="F89" s="247"/>
-      <c r="G89" s="247"/>
-      <c r="H89" s="247"/>
-      <c r="I89" s="247"/>
-      <c r="J89" s="240"/>
-      <c r="K89" s="240"/>
-      <c r="L89" s="90"/>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="210"/>
+      <c r="C93" s="211"/>
+      <c r="D93" s="211"/>
+      <c r="E93" s="211"/>
+      <c r="F93" s="211"/>
+      <c r="G93" s="211"/>
+      <c r="H93" s="211"/>
+      <c r="I93" s="211"/>
+      <c r="J93" s="246"/>
     </row>
   </sheetData>
-  <mergeCells count="400">
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
+  <mergeCells count="408">
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="G54:G55"/>
     <mergeCell ref="H54:H55"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
@@ -11619,8 +11571,394 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C88 C90" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -11631,9 +11969,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="13.6640625" customWidth="1"/>
+    <col min="2" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -11645,9 +11983,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="G3" s="81"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.2" thickBot="1">
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.75" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -11660,11 +11998,11 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="67" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickTop="1">
+    <row r="5" spans="2:7" ht="15.75" thickTop="1">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -11811,7 +12149,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1.0000065464306915</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -11839,7 +12177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.6">
+    <row r="16" spans="2:7" ht="18">
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -11850,7 +12188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15" thickBot="1">
+    <row r="17" spans="3:5" ht="15.75" thickBot="1">
       <c r="C17" s="3">
         <f>SUM(C5:C15)</f>
         <v>14</v>
@@ -11864,7 +12202,7 @@
         <v>3.5008794020227212</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="15" thickTop="1"/>
+    <row r="18" spans="3:5" ht="15.75" thickTop="1"/>
     <row r="19" spans="3:5">
       <c r="C19" s="8" t="s">
         <v>11</v>
@@ -11887,7 +12225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15.6">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -11898,7 +12236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="15" thickBot="1">
+    <row r="23" spans="3:5" ht="15.75" thickBot="1">
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
@@ -11911,7 +12249,7 @@
         <v>96.499120597977281</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="15" thickTop="1"/>
+    <row r="24" spans="3:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
